--- a/phase3/Inquérito.xlsx
+++ b/phase3/Inquérito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35191\Desktop\UNI\3ºano\IPC\phase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2BE9F8-3895-4214-9423-D03304CF3AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA54D1C-DE59-4AFC-A3A2-0D6DC7AEA38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1185" windowWidth="29040" windowHeight="15720" xr2:uid="{6DF166B9-DCAC-479D-8E65-FC409164BF48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="56">
   <si>
     <t>Tarefa 1</t>
   </si>
@@ -222,12 +222,15 @@
   <si>
     <t>Muit eficaz</t>
   </si>
+  <si>
+    <t>Req. Utilização</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,10 +243,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -878,7 +877,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -927,22 +926,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,25 +954,25 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,31 +1002,31 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1076,118 +1075,118 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3018,7 +3017,7 @@
                     <c:v>7.5200000000000031</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2999999999999972</c:v>
+                    <c:v>1.3099999999999996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3036,7 +3035,7 @@
                     <c:v>7.519999999999996</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.3000000000000043</c:v>
+                    <c:v>8.2999999999999972</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3101,641 +3100,92 @@
         <c:gapWidth val="150"/>
         <c:axId val="1476527654"/>
         <c:axId val="153409426"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$4:$C$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:shade val="61000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$6:$C$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>12.493998559308384</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>10.514011814927954</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>11.602681682362155</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-ED3D-4B68-9907-39A14270012B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$4:$D$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Mediana</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:shade val="76000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>29.5</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>40.5</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>34.5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-ED3D-4B68-9907-39A14270012B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$4:$E$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:shade val="92000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-ED3D-4B68-9907-39A14270012B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$4:$F$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Média</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:tint val="93000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$6:$F$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>14.1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>8</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-ED3D-4B68-9907-39A14270012B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$4:$G$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:tint val="77000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.31622776601683789</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1.8257418583505538</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-ED3D-4B68-9907-39A14270012B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$4:$H$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Mediana</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:tint val="62000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$6:$H$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7.5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-ED3D-4B68-9907-39A14270012B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:tint val="46000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$6:$I$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-ED3D-4B68-9907-39A14270012B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Req. Utilização</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ED3D-4B68-9907-39A14270012B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1476527654"/>
+        <c:axId val="153409426"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1476527654"/>
         <c:scaling>
@@ -3817,6 +3267,7 @@
         <c:axId val="153409426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4010,11 +3461,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$5</c:f>
+              <c:f>Sheet1!$G$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4046,14 +3497,14 @@
                     <c:v>0.23000000000000043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.3100000000000005</c:v>
+                    <c:v>0.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AH$3:$AH$5</c:f>
+                <c:f>Sheet1!$AI$3:$AI$5</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4064,13 +3515,13 @@
                     <c:v>0.23000000000000043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.3099999999999996</c:v>
+                    <c:v>0.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="12700">
+              <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="002060"/>
                 </a:solidFill>
@@ -4096,7 +3547,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$6:$F$8</c:f>
+              <c:f>Sheet1!$G$6:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4112,9 +3563,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E5E5-45DE-AFFA-847A41F835A6}"/>
+              <c16:uniqueId val="{00000005-E5E5-45DE-AFFA-847A41F835A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4140,16 +3591,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$B$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
@@ -4216,20 +3664,17 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$4:$C$5</c15:sqref>
+                          <c15:sqref>Sheet1!$C$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
+                        <c:v>Req. Utilização</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4237,7 +3682,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4260,7 +3705,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$6:$C$8</c15:sqref>
@@ -4271,13 +3716,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>12.493998559308384</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>10.514011814927954</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.602681682362155</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4295,20 +3740,17 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$4:$D$5</c15:sqref>
+                          <c15:sqref>Sheet1!$D$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Mediana</c:v>
+                        <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4316,7 +3758,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4339,7 +3781,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
@@ -4347,16 +3789,16 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>29.5</c:v>
+                        <c:v>12.493998559308384</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>40.5</c:v>
+                        <c:v>10.514011814927954</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>34.5</c:v>
+                        <c:v>11.602681682362155</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4374,20 +3816,17 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$4:$E$5</c15:sqref>
+                          <c15:sqref>Sheet1!$E$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
+                        <c:v>Mediana</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4395,7 +3834,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4418,7 +3857,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
@@ -4429,13 +3868,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>29.5</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>40.5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>34.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4449,32 +3888,89 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
+                <c:idx val="4"/>
+                <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$4:$G$5</c15:sqref>
+                          <c15:sqref>Sheet1!$F$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
+                        <c:v>IC(95%)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:invertIfNegative val="0"/>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Sheet1!$AI$3:$AI$5</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="3"/>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0.23000000000000043</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>0.5</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Sheet1!$AH$3:$AH$5</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="3"/>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0.23000000000000043</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1.3100000000000005</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:ln w="12700">
+                      <a:solidFill>
+                        <a:srgbClr val="002060"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4497,168 +3993,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.31622776601683789</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1.8257418583505538</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-E5E5-45DE-AFFA-847A41F835A6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$4:$H$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Mediana</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$6:$H$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>7.5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-E5E5-45DE-AFFA-847A41F835A6}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$6:$I$8</c15:sqref>
+                          <c15:sqref>Sheet1!$F$6:$F$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4677,9 +4015,9 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-E5E5-45DE-AFFA-847A41F835A6}"/>
+                    <c16:uniqueId val="{00000004-E5E5-45DE-AFFA-847A41F835A6}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -4687,6 +4025,90 @@
           </c:ext>
         </c:extLst>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Req. Utilização</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E5E5-45DE-AFFA-847A41F835A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1476527654"/>
+        <c:axId val="153409426"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1476527654"/>
         <c:scaling>
@@ -4744,6 +4166,8 @@
         <c:axId val="153409426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4814,6 +4238,7 @@
         <c:crossAx val="1476527654"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -4882,7 +4307,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$5</c:f>
+              <c:f>Sheet1!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4914,7 +4339,7 @@
                     <c:v>0.3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.50000000000000011</c:v>
+                    <c:v>0.35</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4932,7 +4357,7 @@
                     <c:v>0.30000000000000004</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.5</c:v>
+                    <c:v>0.50000000000000011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4964,7 +4389,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$6:$J$8</c:f>
+              <c:f>Sheet1!$L$6:$L$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5015,10 +4440,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Erros</c:v>
+                        <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
+                        <c:v>IC(95%)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5052,7 +4477,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
+                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5097,7 +4522,7 @@
                         <c:v>Erros</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Mediana</c:v>
+                        <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5131,7 +4556,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$6:$L$8</c15:sqref>
+                          <c15:sqref>Sheet1!$N$6:$N$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5166,18 +4591,12 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$4:$M$5</c15:sqref>
+                          <c15:sqref>Sheet1!$M$4:$M$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Erros</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
-                      </c:pt>
+                      <c:ptCount val="1"/>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -5210,7 +4629,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
+                          <c15:sqref>Sheet1!$O$6:$O$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5296,6 +4715,7 @@
         <c:axId val="153409426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5427,10 +4847,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Ajudas</c:v>
+                  <c:v>Erros</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Média</c:v>
+                  <c:v>Mediana</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5458,7 +4878,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.35</c:v>
+                    <c:v>0.35000000000000009</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5474,9 +4894,6 @@
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.35000000000000009</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5508,7 +4925,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$N$8</c:f>
+              <c:f>Sheet1!$P$6:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5628,7 +5045,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$4:$C$5</c15:sqref>
@@ -5641,7 +5058,7 @@
                         <c:v>Tempo (s)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
+                        <c:v>Req. Utilização</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5649,7 +5066,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5672,10 +5089,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$6:$C$8</c15:sqref>
+                          <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5694,7 +5111,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -5707,7 +5124,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$4:$D$5</c15:sqref>
@@ -5720,7 +5137,7 @@
                         <c:v>Tempo (s)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Mediana</c:v>
+                        <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5728,7 +5145,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5751,10 +5168,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
+                          <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5773,7 +5190,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -5786,7 +5203,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$4:$E$5</c15:sqref>
@@ -5799,7 +5216,7 @@
                         <c:v>Tempo (s)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
+                        <c:v>Mediana</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5807,7 +5224,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5830,10 +5247,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
+                          <c15:sqref>Sheet1!$F$6:$F$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5852,7 +5269,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -5865,7 +5282,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$4:$F$5</c15:sqref>
@@ -5875,10 +5292,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Cliques</c:v>
+                        <c:v>Tempo (s)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Média</c:v>
+                        <c:v>IC(95%)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5886,7 +5303,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5909,10 +5326,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$6:$F$8</c15:sqref>
+                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5931,7 +5348,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -5944,7 +5361,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$4:$G$5</c15:sqref>
@@ -5957,7 +5374,7 @@
                         <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
+                        <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5965,7 +5382,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5988,10 +5405,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
+                          <c15:sqref>Sheet1!$I$6:$I$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6010,7 +5427,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -6023,7 +5440,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$4:$H$5</c15:sqref>
@@ -6036,7 +5453,7 @@
                         <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Mediana</c:v>
+                        <c:v>Req. Utilização</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6044,7 +5461,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -6067,10 +5484,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$6:$H$8</c15:sqref>
+                          <c15:sqref>Sheet1!$J$6:$J$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6089,7 +5506,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -6102,7 +5519,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$4:$I$5</c15:sqref>
@@ -6115,7 +5532,7 @@
                         <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
+                        <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6123,7 +5540,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -6146,10 +5563,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$6:$I$8</c15:sqref>
+                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6168,7 +5585,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -6181,7 +5598,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$4:$J$5</c15:sqref>
@@ -6191,10 +5608,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Erros</c:v>
+                        <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Média</c:v>
+                        <c:v>Mediana</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6207,7 +5624,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -6230,10 +5647,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$6:$J$8</c15:sqref>
+                          <c15:sqref>Sheet1!$L$6:$L$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6252,7 +5669,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -6265,7 +5682,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$4:$K$5</c15:sqref>
@@ -6275,10 +5692,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Erros</c:v>
+                        <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
+                        <c:v>IC(95%)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6286,7 +5703,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -6309,10 +5726,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
+                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6331,7 +5748,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -6344,7 +5761,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$4:$L$5</c15:sqref>
@@ -6357,7 +5774,7 @@
                         <c:v>Erros</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Mediana</c:v>
+                        <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6365,7 +5782,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -6388,10 +5805,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$6:$L$8</c15:sqref>
+                          <c15:sqref>Sheet1!$N$6:$N$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6410,7 +5827,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000E-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -6423,28 +5840,22 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$4:$M$5</c15:sqref>
+                          <c15:sqref>Sheet1!$M$4:$M$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Erros</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
-                      </c:pt>
+                      <c:ptCount val="1"/>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -6467,10 +5878,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
+                          <c15:sqref>Sheet1!$O$6:$O$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6489,7 +5900,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000F-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -6502,7 +5913,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$O$4:$O$5</c15:sqref>
@@ -6512,10 +5923,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Ajudas</c:v>
+                        <c:v>Erros</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
+                        <c:v>IC(95%)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6523,7 +5934,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -6546,10 +5957,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$6:$O$8</c15:sqref>
+                          <c15:sqref>Sheet1!$Q$6:$Q$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6568,7 +5979,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -6581,7 +5992,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$4:$P$5</c15:sqref>
@@ -6594,7 +6005,7 @@
                         <c:v>Ajudas</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Mediana</c:v>
+                        <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6602,7 +6013,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -6625,10 +6036,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$6:$P$8</c15:sqref>
+                          <c15:sqref>Sheet1!$R$6:$R$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6647,7 +6058,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -6660,7 +6071,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$4:$Q$5</c15:sqref>
@@ -6673,7 +6084,7 @@
                         <c:v>Ajudas</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
+                        <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6681,7 +6092,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -6704,10 +6115,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$6:$Q$8</c15:sqref>
+                          <c15:sqref>Sheet1!$S$6:$S$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6726,7 +6137,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -7003,9 +6414,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1071377</xdr:colOff>
+      <xdr:colOff>1075187</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>10023</xdr:rowOff>
+      <xdr:rowOff>15738</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -7071,7 +6482,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:rowOff>165191</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -7402,12 +6813,12 @@
   <dimension ref="A1:AM151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="P4" sqref="P4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="15.77734375" customWidth="1"/>
+    <col min="1" max="21" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="25.8" x14ac:dyDescent="0.5">
@@ -7428,94 +6839,98 @@
     </row>
     <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="AF3" s="83">
-        <f>B6-ROUND(B6-_xlfn.CONFIDENCE.T(0.05,C6,10),2)</f>
+        <f>B6-ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2)</f>
         <v>8.9400000000000013</v>
       </c>
       <c r="AG3" s="83">
-        <f>ROUND(B6+_xlfn.CONFIDENCE.T(0.05,C6,10),2)-B6</f>
+        <f>ROUND(B6+_xlfn.CONFIDENCE.T(0.05,D6,10),2)-B6</f>
         <v>8.9399999999999977</v>
       </c>
       <c r="AH3" s="83" t="e">
-        <f>F6-ROUND(F6-_xlfn.CONFIDENCE.T(0.05,G6,10),2)</f>
+        <f>G6-ROUND(G6-_xlfn.CONFIDENCE.T(0.05,I6,10),2)</f>
         <v>#NUM!</v>
       </c>
       <c r="AI3" s="83" t="e">
-        <f>ROUND(F6+_xlfn.CONFIDENCE.T(0.05,G6,10),2)-F6</f>
+        <f>ROUND(G6+_xlfn.CONFIDENCE.T(0.05,I6,10),2)-G6</f>
         <v>#NUM!</v>
       </c>
       <c r="AJ3" s="83" t="e">
-        <f>J6-ROUND(J6-_xlfn.CONFIDENCE.T(0.05,K6,10),2)</f>
+        <f>L6-ROUND(L6-_xlfn.CONFIDENCE.T(0.05,M6,10),2)</f>
         <v>#NUM!</v>
       </c>
       <c r="AK3" s="83" t="e">
-        <f>ROUND(J6+_xlfn.CONFIDENCE.T(0.05,K6,10),2)-J6</f>
+        <f>ROUND(L6+_xlfn.CONFIDENCE.T(0.05,M6,10),2)-L6</f>
         <v>#NUM!</v>
       </c>
       <c r="AL3" s="83" t="e">
-        <f>N6-ROUND(N6-_xlfn.CONFIDENCE.T(0.05,O6,10),2)</f>
+        <f>P6-ROUND(P6-_xlfn.CONFIDENCE.T(0.05,Q6,10),2)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM3" s="83" t="e">
-        <f>ROUND(N6+_xlfn.CONFIDENCE.T(0.05,O6,10),2)-N6</f>
+        <f>ROUND(P6+_xlfn.CONFIDENCE.T(0.05,Q6,10),2)-P6</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81"/>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="93" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="86" t="s">
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="86" t="s">
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="88"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="109"/>
       <c r="AF4" s="83">
-        <f>B7-ROUND(B7-_xlfn.CONFIDENCE.T(0.05,C7,10),2)</f>
+        <f>B7-ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2)</f>
         <v>7.519999999999996</v>
       </c>
       <c r="AG4" s="83">
-        <f>ROUND(B7+_xlfn.CONFIDENCE.T(0.05,C7,10),2)-B7</f>
+        <f>ROUND(B7+_xlfn.CONFIDENCE.T(0.05,D7,10),2)-B7</f>
         <v>7.5200000000000031</v>
       </c>
       <c r="AH4" s="83">
-        <f>F7-ROUND(F7-_xlfn.CONFIDENCE.T(0.05,G7,10),2)</f>
+        <f>G7-ROUND(G7-_xlfn.CONFIDENCE.T(0.05,I7,10),2)</f>
         <v>0.23000000000000043</v>
       </c>
       <c r="AI4" s="83">
-        <f>ROUND(F7+_xlfn.CONFIDENCE.T(0.05,G7,10),2)-F7</f>
+        <f>ROUND(G7+_xlfn.CONFIDENCE.T(0.05,I7,10),2)-G7</f>
         <v>0.23000000000000043</v>
       </c>
       <c r="AJ4" s="83">
-        <f>J7-ROUND(J7-_xlfn.CONFIDENCE.T(0.05,K7,10),2)</f>
+        <f>L7-ROUND(L7-_xlfn.CONFIDENCE.T(0.05,M7,10),2)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AK4" s="83">
-        <f>ROUND(J7+_xlfn.CONFIDENCE.T(0.05,K7,10),2)-J7</f>
+        <f>ROUND(L7+_xlfn.CONFIDENCE.T(0.05,M7,10),2)-L7</f>
         <v>0.3</v>
       </c>
       <c r="AL4" s="83" t="e">
-        <f>N7-ROUND(N7-_xlfn.CONFIDENCE.T(0.05,O7,10),2)</f>
+        <f>P7-ROUND(P7-_xlfn.CONFIDENCE.T(0.05,Q7,10),2)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM4" s="83" t="e">
-        <f>ROUND(N7+_xlfn.CONFIDENCE.T(0.05,O7,10),2)-N7</f>
+        <f>ROUND(P7+_xlfn.CONFIDENCE.T(0.05,Q7,10),2)-P7</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -7523,81 +6938,87 @@
       <c r="B5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="E5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="F5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="G5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="H5" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="J5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="K5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="L5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="M5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="107" t="s">
+      <c r="N5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="O5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="P5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="Q5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="107" t="s">
+      <c r="R5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="48" t="s">
+      <c r="S5" s="48" t="s">
         <v>20</v>
       </c>
+      <c r="AE5" s="83">
+        <f>B8-ROUND(B8-_xlfn.CONFIDENCE.T(0.05,D8,10),2)</f>
+        <v>8.3000000000000043</v>
+      </c>
       <c r="AF5" s="83">
-        <f>B8-ROUND(B8-_xlfn.CONFIDENCE.T(0.05,C8,10),2)</f>
-        <v>8.3000000000000043</v>
+        <f>ROUND(B8+_xlfn.CONFIDENCE.T(0.05,D8,10),2)-B8</f>
+        <v>8.2999999999999972</v>
       </c>
       <c r="AG5" s="83">
-        <f>ROUND(B8+_xlfn.CONFIDENCE.T(0.05,C8,10),2)-B8</f>
-        <v>8.2999999999999972</v>
+        <f>G8-ROUND(G8-_xlfn.CONFIDENCE.T(0.05,I8,10),2)</f>
+        <v>1.3099999999999996</v>
       </c>
       <c r="AH5" s="83">
-        <f>F8-ROUND(F8-_xlfn.CONFIDENCE.T(0.05,G8,10),2)</f>
-        <v>1.3099999999999996</v>
+        <f>ROUND(G8+_xlfn.CONFIDENCE.T(0.05,I8,10),2)-G8</f>
+        <v>1.3100000000000005</v>
       </c>
       <c r="AI5" s="83">
-        <f>ROUND(F8+_xlfn.CONFIDENCE.T(0.05,G8,10),2)-F8</f>
-        <v>1.3100000000000005</v>
+        <f>L8-ROUND(L8-_xlfn.CONFIDENCE.T(0.05,M8,10),2)</f>
+        <v>0.5</v>
       </c>
       <c r="AJ5" s="83">
-        <f>J8-ROUND(J8-_xlfn.CONFIDENCE.T(0.05,K8,10),2)</f>
-        <v>0.5</v>
+        <f>ROUND(L8+_xlfn.CONFIDENCE.T(0.05,M8,10),2)-L8</f>
+        <v>0.50000000000000011</v>
       </c>
       <c r="AK5" s="83">
-        <f>ROUND(J8+_xlfn.CONFIDENCE.T(0.05,K8,10),2)-J8</f>
-        <v>0.50000000000000011</v>
+        <f>P8-ROUND(P8-_xlfn.CONFIDENCE.T(0.05,Q8,10),2)</f>
+        <v>0.35</v>
       </c>
       <c r="AL5" s="83">
-        <f>N8-ROUND(N8-_xlfn.CONFIDENCE.T(0.05,O8,10),2)</f>
-        <v>0.35</v>
-      </c>
-      <c r="AM5" s="83">
-        <f>ROUND(N8+_xlfn.CONFIDENCE.T(0.05,O8,10),2)-N8</f>
+        <f>ROUND(P8+_xlfn.CONFIDENCE.T(0.05,Q8,10),2)-P8</f>
         <v>0.35000000000000009</v>
       </c>
     </row>
@@ -7609,64 +7030,70 @@
         <f>AVERAGE(B13:B22)</f>
         <v>31.1</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="40">
+        <v>10</v>
+      </c>
+      <c r="D6" s="34">
         <f>_xlfn.STDEV.S(B13:B22)</f>
         <v>12.493998559308384</v>
       </c>
-      <c r="D6" s="35">
+      <c r="E6" s="35">
         <f>MEDIAN(B13:B22)</f>
         <v>29.5</v>
       </c>
-      <c r="E6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(B6-_xlfn.CONFIDENCE.T(0.05,C6,10),2)), ISERROR(ROUND(B6+_xlfn.CONFIDENCE.T(0.05,C6,10),2))),"-","[" &amp; ROUND(B6-_xlfn.CONFIDENCE.T(0.05,C6,10),2) &amp;" - " &amp; ROUND(B6+_xlfn.CONFIDENCE.T(0.05,C6,10),2) &amp;"]")</f>
+      <c r="F6" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2)), ISERROR(ROUND(B6+_xlfn.CONFIDENCE.T(0.05,D6,10),2))),"-","[" &amp; ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2) &amp;" - " &amp; ROUND(B6+_xlfn.CONFIDENCE.T(0.05,D6,10),2) &amp;"]")</f>
         <v>[22,16 - 40,04]</v>
       </c>
-      <c r="F6" s="37">
+      <c r="G6" s="37">
         <f>AVERAGE(C13:C22)</f>
         <v>9</v>
       </c>
-      <c r="G6" s="38">
+      <c r="H6" s="40">
+        <v>3</v>
+      </c>
+      <c r="I6" s="38">
         <f>_xlfn.STDEV.S(C13:C22)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="39">
+      <c r="J6" s="39">
         <f>MEDIAN(C13:C22)</f>
         <v>9</v>
       </c>
-      <c r="I6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(F6-_xlfn.CONFIDENCE.T(0.05,G6,10),2)), ISERROR(ROUND(F6+_xlfn.CONFIDENCE.T(0.05,G6,10),2))),"-","[" &amp; ROUND(F6-_xlfn.CONFIDENCE.T(0.05,G6,10),2) &amp;" - " &amp; ROUND(F6+_xlfn.CONFIDENCE.T(0.05,G6,10),2) &amp;"]")</f>
+      <c r="K6" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(G6-_xlfn.CONFIDENCE.T(0.05,I6,10),2)), ISERROR(ROUND(G6+_xlfn.CONFIDENCE.T(0.05,I6,10),2))),"-","[" &amp; ROUND(G6-_xlfn.CONFIDENCE.T(0.05,I6,10),2) &amp;" - " &amp; ROUND(G6+_xlfn.CONFIDENCE.T(0.05,I6,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
-      <c r="J6" s="40">
+      <c r="L6" s="40">
         <f>AVERAGE(D13:D22)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="34">
+      <c r="M6" s="34">
         <f>_xlfn.STDEV.S(D13:D22)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="106">
+      <c r="N6" s="92">
         <f>MEDIAN(D13:D22)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(J6-_xlfn.CONFIDENCE.T(0.05,K6,10),2)), ISERROR(ROUND(J6+_xlfn.CONFIDENCE.T(0.05,K6,10),2))),"-","[" &amp; ROUND(J6-_xlfn.CONFIDENCE.T(0.05,K6,10),2) &amp;" - " &amp; ROUND(J6+_xlfn.CONFIDENCE.T(0.05,K6,10),2) &amp;"]")</f>
+      <c r="O6" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(L6-_xlfn.CONFIDENCE.T(0.05,M6,10),2)), ISERROR(ROUND(L6+_xlfn.CONFIDENCE.T(0.05,M6,10),2))),"-","[" &amp; ROUND(L6-_xlfn.CONFIDENCE.T(0.05,M6,10),2) &amp;" - " &amp; ROUND(L6+_xlfn.CONFIDENCE.T(0.05,M6,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
-      <c r="N6" s="37">
+      <c r="P6" s="37">
         <f>AVERAGE(E13:E22)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="38">
+      <c r="Q6" s="38">
         <f>_xlfn.STDEV.S(E13:E22)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="108">
+      <c r="R6" s="94">
         <f>MEDIAN(E13:E22)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(N6-_xlfn.CONFIDENCE.T(0.05,O6,10),2)), ISERROR(ROUND(N6+_xlfn.CONFIDENCE.T(0.05,O6,10),2))),"-","[" &amp; ROUND(N6-_xlfn.CONFIDENCE.T(0.05,O6,10),2) &amp;" - " &amp; ROUND(N6+_xlfn.CONFIDENCE.T(0.05,O6,10),2) &amp;"]")</f>
+      <c r="S6" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(P6-_xlfn.CONFIDENCE.T(0.05,Q6,10),2)), ISERROR(ROUND(P6+_xlfn.CONFIDENCE.T(0.05,Q6,10),2))),"-","[" &amp; ROUND(P6-_xlfn.CONFIDENCE.T(0.05,Q6,10),2) &amp;" - " &amp; ROUND(P6+_xlfn.CONFIDENCE.T(0.05,Q6,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
     </row>
@@ -7678,64 +7105,70 @@
         <f>AVERAGE(F13:F22)</f>
         <v>40.9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
         <f>_xlfn.STDEV.S(F13:F22)</f>
         <v>10.514011814927954</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <f>MEDIAN(F13:F22)</f>
         <v>40.5</v>
       </c>
-      <c r="E7" s="36" t="str">
-        <f t="shared" ref="E7:E8" si="0">IF(OR(ISERROR(ROUND(B7-_xlfn.CONFIDENCE.T(0.05,C7,10),2)), ISERROR(ROUND(B7+_xlfn.CONFIDENCE.T(0.05,C7,10),2))),"-","[" &amp; ROUND(B7-_xlfn.CONFIDENCE.T(0.05,C7,10),2) &amp;" - " &amp; ROUND(B7+_xlfn.CONFIDENCE.T(0.05,C7,10),2) &amp;"]")</f>
+      <c r="F7" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2)), ISERROR(ROUND(B7+_xlfn.CONFIDENCE.T(0.05,D7,10),2))),"-","[" &amp; ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2) &amp;" - " &amp; ROUND(B7+_xlfn.CONFIDENCE.T(0.05,D7,10),2) &amp;"]")</f>
         <v>[33,38 - 48,42]</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <f>AVERAGE(G13:G22)</f>
         <v>14.1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="2">
         <f>_xlfn.STDEV.S(G13:G22)</f>
         <v>0.31622776601683789</v>
       </c>
-      <c r="H7" s="3">
+      <c r="J7" s="3">
         <f>MEDIAN(G13:G22)</f>
         <v>14</v>
       </c>
-      <c r="I7" s="36" t="str">
-        <f t="shared" ref="I7:I8" si="1">IF(OR(ISERROR(ROUND(F7-_xlfn.CONFIDENCE.T(0.05,G7,10),2)), ISERROR(ROUND(F7+_xlfn.CONFIDENCE.T(0.05,G7,10),2))),"-","[" &amp; ROUND(F7-_xlfn.CONFIDENCE.T(0.05,G7,10),2) &amp;" - " &amp; ROUND(F7+_xlfn.CONFIDENCE.T(0.05,G7,10),2) &amp;"]")</f>
+      <c r="K7" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(G7-_xlfn.CONFIDENCE.T(0.05,I7,10),2)), ISERROR(ROUND(G7+_xlfn.CONFIDENCE.T(0.05,I7,10),2))),"-","[" &amp; ROUND(G7-_xlfn.CONFIDENCE.T(0.05,I7,10),2) &amp;" - " &amp; ROUND(G7+_xlfn.CONFIDENCE.T(0.05,I7,10),2) &amp;"]")</f>
         <v>[13,87 - 14,33]</v>
       </c>
-      <c r="J7" s="8">
+      <c r="L7" s="8">
         <f>AVERAGE(H13:H22)</f>
         <v>0.2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5">
         <f>_xlfn.STDEV.S(H13:H22)</f>
         <v>0.4216370213557839</v>
       </c>
-      <c r="L7" s="6">
+      <c r="N7" s="6">
         <f>MEDIAN(H13:H22)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(J7-_xlfn.CONFIDENCE.T(0.05,K7,10),2)), ISERROR(ROUND(J7+_xlfn.CONFIDENCE.T(0.05,K7,10),2))),"-","[" &amp; ROUND(J7-_xlfn.CONFIDENCE.T(0.05,K7,10),2) &amp;" - " &amp; ROUND(J7+_xlfn.CONFIDENCE.T(0.05,K7,10),2) &amp;"]")</f>
+      <c r="O7" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(L7-_xlfn.CONFIDENCE.T(0.05,M7,10),2)), ISERROR(ROUND(L7+_xlfn.CONFIDENCE.T(0.05,M7,10),2))),"-","[" &amp; ROUND(L7-_xlfn.CONFIDENCE.T(0.05,M7,10),2) &amp;" - " &amp; ROUND(L7+_xlfn.CONFIDENCE.T(0.05,M7,10),2) &amp;"]")</f>
         <v>[-0,1 - 0,5]</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <f>AVERAGE(I13:I22)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <f>_xlfn.STDEV.S(I13:I22)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="109">
+      <c r="R7" s="95">
         <f>MEDIAN(I13:I22)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="36" t="str">
-        <f t="shared" ref="Q7:Q8" si="2">IF(OR(ISERROR(ROUND(N7-_xlfn.CONFIDENCE.T(0.05,O7,10),2)), ISERROR(ROUND(N7+_xlfn.CONFIDENCE.T(0.05,O7,10),2))),"-","[" &amp; ROUND(N7-_xlfn.CONFIDENCE.T(0.05,O7,10),2) &amp;" - " &amp; ROUND(N7+_xlfn.CONFIDENCE.T(0.05,O7,10),2) &amp;"]")</f>
+      <c r="S7" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(P7-_xlfn.CONFIDENCE.T(0.05,Q7,10),2)), ISERROR(ROUND(P7+_xlfn.CONFIDENCE.T(0.05,Q7,10),2))),"-","[" &amp; ROUND(P7-_xlfn.CONFIDENCE.T(0.05,Q7,10),2) &amp;" - " &amp; ROUND(P7+_xlfn.CONFIDENCE.T(0.05,Q7,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
     </row>
@@ -7747,88 +7180,94 @@
         <f>AVERAGE(J13:J22)</f>
         <v>34.200000000000003</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="25">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11">
         <f>_xlfn.STDEV.S(J13:J22)</f>
         <v>11.602681682362155</v>
       </c>
-      <c r="D8" s="12">
+      <c r="E8" s="12">
         <f>MEDIAN(J13:J22)</f>
         <v>34.5</v>
       </c>
-      <c r="E8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(B8-_xlfn.CONFIDENCE.T(0.05,C8,10),2)), ISERROR(ROUND(B8+_xlfn.CONFIDENCE.T(0.05,C8,10),2))),"-","[" &amp; ROUND(B8-_xlfn.CONFIDENCE.T(0.05,C8,10),2) &amp;" - " &amp; ROUND(B8+_xlfn.CONFIDENCE.T(0.05,C8,10),2) &amp;"]")</f>
+      <c r="F8" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(B8-_xlfn.CONFIDENCE.T(0.05,D8,10),2)), ISERROR(ROUND(B8+_xlfn.CONFIDENCE.T(0.05,D8,10),2))),"-","[" &amp; ROUND(B8-_xlfn.CONFIDENCE.T(0.05,D8,10),2) &amp;" - " &amp; ROUND(B8+_xlfn.CONFIDENCE.T(0.05,D8,10),2) &amp;"]")</f>
         <v>[25,9 - 42,5]</v>
       </c>
-      <c r="F8" s="24">
+      <c r="G8" s="24">
         <f>AVERAGE(K13:K22)</f>
         <v>8</v>
       </c>
-      <c r="G8" s="14">
+      <c r="H8" s="25">
+        <v>3</v>
+      </c>
+      <c r="I8" s="14">
         <f>_xlfn.STDEV.S(K13:K22)</f>
         <v>1.8257418583505538</v>
       </c>
-      <c r="H8" s="15">
+      <c r="J8" s="15">
         <f>MEDIAN(K13:K22)</f>
         <v>7.5</v>
       </c>
-      <c r="I8" s="13" t="str">
-        <f t="shared" si="1"/>
+      <c r="K8" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(G8-_xlfn.CONFIDENCE.T(0.05,I8,10),2)), ISERROR(ROUND(G8+_xlfn.CONFIDENCE.T(0.05,I8,10),2))),"-","[" &amp; ROUND(G8-_xlfn.CONFIDENCE.T(0.05,I8,10),2) &amp;" - " &amp; ROUND(G8+_xlfn.CONFIDENCE.T(0.05,I8,10),2) &amp;"]")</f>
         <v>[6,69 - 9,31]</v>
       </c>
-      <c r="J8" s="25">
+      <c r="L8" s="25">
         <f>AVERAGE(L13:L22)</f>
         <v>0.6</v>
       </c>
-      <c r="K8" s="11">
+      <c r="M8" s="11">
         <f>_xlfn.STDEV.S(L13:L22)</f>
         <v>0.69920589878010109</v>
       </c>
-      <c r="L8" s="12">
+      <c r="N8" s="12">
         <f>MEDIAN(L13:L22)</f>
         <v>0.5</v>
       </c>
-      <c r="M8" s="13" t="str">
-        <f t="shared" ref="M7:M8" si="3">IF(OR(ISERROR(ROUND(J8-_xlfn.CONFIDENCE.T(0.05,K8,10),2)), ISERROR(ROUND(J8+_xlfn.CONFIDENCE.T(0.05,K8,10),2))),"-","[" &amp; ROUND(J8-_xlfn.CONFIDENCE.T(0.05,K8,10),2) &amp;" - " &amp; ROUND(J8+_xlfn.CONFIDENCE.T(0.05,K8,10),2) &amp;"]")</f>
+      <c r="O8" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(L8-_xlfn.CONFIDENCE.T(0.05,M8,10),2)), ISERROR(ROUND(L8+_xlfn.CONFIDENCE.T(0.05,M8,10),2))),"-","[" &amp; ROUND(L8-_xlfn.CONFIDENCE.T(0.05,M8,10),2) &amp;" - " &amp; ROUND(L8+_xlfn.CONFIDENCE.T(0.05,M8,10),2) &amp;"]")</f>
         <v>[0,1 - 1,1]</v>
       </c>
-      <c r="N8" s="24">
+      <c r="P8" s="24">
         <f>AVERAGE(M13:M22)</f>
         <v>0.7</v>
       </c>
-      <c r="O8" s="14">
+      <c r="Q8" s="14">
         <f>_xlfn.STDEV.S(M13:M22)</f>
         <v>0.48304589153964789</v>
       </c>
-      <c r="P8" s="110">
+      <c r="R8" s="96">
         <f>MEDIAN(M13:M22)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="13" t="str">
-        <f t="shared" si="2"/>
+      <c r="S8" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(P8-_xlfn.CONFIDENCE.T(0.05,Q8,10),2)), ISERROR(ROUND(P8+_xlfn.CONFIDENCE.T(0.05,Q8,10),2))),"-","[" &amp; ROUND(P8-_xlfn.CONFIDENCE.T(0.05,Q8,10),2) &amp;" - " &amp; ROUND(P8+_xlfn.CONFIDENCE.T(0.05,Q8,10),2) &amp;"]")</f>
         <v>[0,35 - 1,05]</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="80"/>
-      <c r="B11" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="89" t="s">
+      <c r="B11" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="89" t="s">
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="104"/>
     </row>
     <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
@@ -7882,13 +7321,13 @@
       <c r="D13" s="35">
         <v>0</v>
       </c>
-      <c r="E13" s="100">
+      <c r="E13" s="86">
         <v>0</v>
       </c>
       <c r="F13" s="41">
         <v>30</v>
       </c>
-      <c r="G13" s="101">
+      <c r="G13" s="87">
         <v>14</v>
       </c>
       <c r="H13" s="35">
@@ -7906,7 +7345,7 @@
       <c r="L13" s="35">
         <v>0</v>
       </c>
-      <c r="M13" s="100">
+      <c r="M13" s="86">
         <v>1</v>
       </c>
     </row>
@@ -7917,7 +7356,7 @@
       <c r="B14" s="9">
         <v>29</v>
       </c>
-      <c r="C14" s="102">
+      <c r="C14" s="88">
         <v>9</v>
       </c>
       <c r="D14" s="6">
@@ -7929,7 +7368,7 @@
       <c r="F14" s="9">
         <v>36</v>
       </c>
-      <c r="G14" s="102">
+      <c r="G14" s="88">
         <v>14</v>
       </c>
       <c r="H14" s="6">
@@ -7941,7 +7380,7 @@
       <c r="J14" s="9">
         <v>29</v>
       </c>
-      <c r="K14" s="102">
+      <c r="K14" s="88">
         <v>8</v>
       </c>
       <c r="L14" s="6">
@@ -7958,7 +7397,7 @@
       <c r="B15" s="9">
         <v>30</v>
       </c>
-      <c r="C15" s="102">
+      <c r="C15" s="88">
         <v>9</v>
       </c>
       <c r="D15" s="6">
@@ -7970,7 +7409,7 @@
       <c r="F15" s="9">
         <v>48</v>
       </c>
-      <c r="G15" s="102">
+      <c r="G15" s="88">
         <v>14</v>
       </c>
       <c r="H15" s="6">
@@ -7982,7 +7421,7 @@
       <c r="J15" s="9">
         <v>40</v>
       </c>
-      <c r="K15" s="102">
+      <c r="K15" s="88">
         <v>8</v>
       </c>
       <c r="L15" s="6">
@@ -7999,7 +7438,7 @@
       <c r="B16" s="9">
         <v>25</v>
       </c>
-      <c r="C16" s="102">
+      <c r="C16" s="88">
         <v>9</v>
       </c>
       <c r="D16" s="6">
@@ -8011,7 +7450,7 @@
       <c r="F16" s="9">
         <v>58</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="88">
         <v>15</v>
       </c>
       <c r="H16" s="6">
@@ -8023,7 +7462,7 @@
       <c r="J16" s="9">
         <v>34</v>
       </c>
-      <c r="K16" s="102">
+      <c r="K16" s="88">
         <v>7</v>
       </c>
       <c r="L16" s="6">
@@ -8041,7 +7480,7 @@
         <f>48-5</f>
         <v>43</v>
       </c>
-      <c r="C17" s="102">
+      <c r="C17" s="88">
         <v>9</v>
       </c>
       <c r="D17" s="6">
@@ -8053,7 +7492,7 @@
       <c r="F17" s="9">
         <v>48</v>
       </c>
-      <c r="G17" s="102">
+      <c r="G17" s="88">
         <v>14</v>
       </c>
       <c r="H17" s="6">
@@ -8066,7 +7505,7 @@
         <f>37-2</f>
         <v>35</v>
       </c>
-      <c r="K17" s="102">
+      <c r="K17" s="88">
         <v>7</v>
       </c>
       <c r="L17" s="6">
@@ -8083,7 +7522,7 @@
       <c r="B18" s="9">
         <v>23</v>
       </c>
-      <c r="C18" s="102">
+      <c r="C18" s="88">
         <v>9</v>
       </c>
       <c r="D18" s="6">
@@ -8095,7 +7534,7 @@
       <c r="F18" s="9">
         <v>45</v>
       </c>
-      <c r="G18" s="102">
+      <c r="G18" s="88">
         <v>14</v>
       </c>
       <c r="H18" s="6">
@@ -8107,7 +7546,7 @@
       <c r="J18" s="9">
         <v>55</v>
       </c>
-      <c r="K18" s="102">
+      <c r="K18" s="88">
         <v>8</v>
       </c>
       <c r="L18" s="6">
@@ -8124,7 +7563,7 @@
       <c r="B19" s="9">
         <v>15</v>
       </c>
-      <c r="C19" s="102">
+      <c r="C19" s="88">
         <v>9</v>
       </c>
       <c r="D19" s="6">
@@ -8136,7 +7575,7 @@
       <c r="F19" s="9">
         <v>29</v>
       </c>
-      <c r="G19" s="102">
+      <c r="G19" s="88">
         <v>14</v>
       </c>
       <c r="H19" s="6">
@@ -8148,7 +7587,7 @@
       <c r="J19" s="9">
         <v>23</v>
       </c>
-      <c r="K19" s="102">
+      <c r="K19" s="88">
         <v>7</v>
       </c>
       <c r="L19" s="6">
@@ -8165,7 +7604,7 @@
       <c r="B20" s="9">
         <v>35</v>
       </c>
-      <c r="C20" s="102">
+      <c r="C20" s="88">
         <v>9</v>
       </c>
       <c r="D20" s="6">
@@ -8177,7 +7616,7 @@
       <c r="F20" s="9">
         <v>52</v>
       </c>
-      <c r="G20" s="102">
+      <c r="G20" s="88">
         <v>14</v>
       </c>
       <c r="H20" s="6">
@@ -8189,7 +7628,7 @@
       <c r="J20" s="9">
         <v>42</v>
       </c>
-      <c r="K20" s="102">
+      <c r="K20" s="88">
         <v>7</v>
       </c>
       <c r="L20" s="6">
@@ -8206,7 +7645,7 @@
       <c r="B21" s="9">
         <v>21</v>
       </c>
-      <c r="C21" s="102">
+      <c r="C21" s="88">
         <v>9</v>
       </c>
       <c r="D21" s="6">
@@ -8218,7 +7657,7 @@
       <c r="F21" s="9">
         <v>32</v>
       </c>
-      <c r="G21" s="102">
+      <c r="G21" s="88">
         <v>14</v>
       </c>
       <c r="H21" s="6">
@@ -8230,10 +7669,10 @@
       <c r="J21" s="9">
         <v>44</v>
       </c>
-      <c r="K21" s="102">
+      <c r="K21" s="88">
         <v>13</v>
       </c>
-      <c r="L21" s="102">
+      <c r="L21" s="88">
         <v>2</v>
       </c>
       <c r="M21" s="7">
@@ -8247,37 +7686,37 @@
       <c r="B22" s="22">
         <v>59</v>
       </c>
-      <c r="C22" s="103">
+      <c r="C22" s="89">
         <v>9</v>
       </c>
       <c r="D22" s="12">
         <v>0</v>
       </c>
-      <c r="E22" s="104">
-        <v>0</v>
-      </c>
-      <c r="F22" s="105">
+      <c r="E22" s="90">
+        <v>0</v>
+      </c>
+      <c r="F22" s="91">
         <v>31</v>
       </c>
-      <c r="G22" s="103">
+      <c r="G22" s="89">
         <v>14</v>
       </c>
-      <c r="H22" s="103">
-        <v>0</v>
-      </c>
-      <c r="I22" s="104">
-        <v>0</v>
-      </c>
-      <c r="J22" s="105">
+      <c r="H22" s="89">
+        <v>0</v>
+      </c>
+      <c r="I22" s="90">
+        <v>0</v>
+      </c>
+      <c r="J22" s="91">
         <v>24</v>
       </c>
-      <c r="K22" s="103">
+      <c r="K22" s="89">
         <v>8</v>
       </c>
-      <c r="L22" s="103">
+      <c r="L22" s="89">
         <v>1</v>
       </c>
-      <c r="M22" s="104">
+      <c r="M22" s="90">
         <v>1</v>
       </c>
     </row>
@@ -8316,20 +7755,20 @@
     <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="81"/>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="94"/>
-      <c r="G49" s="92" t="s">
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="93"/>
-      <c r="I49" s="93"/>
-      <c r="J49" s="93"/>
-      <c r="K49" s="94"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="108"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="46" t="s">
@@ -8501,16 +7940,16 @@
     <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="81"/>
-      <c r="B56" s="95" t="s">
+      <c r="B56" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="96"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="95" t="s">
+      <c r="C56" s="98"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="96"/>
-      <c r="G56" s="97"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="99"/>
     </row>
     <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="46" t="s">
@@ -8965,14 +8404,14 @@
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="81"/>
-      <c r="B103" s="95" t="s">
+      <c r="B103" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="C103" s="96"/>
-      <c r="D103" s="96"/>
-      <c r="E103" s="96"/>
-      <c r="F103" s="96"/>
-      <c r="G103" s="97"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="98"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="99"/>
     </row>
     <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="46">
@@ -9298,20 +8737,20 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:K49"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="P4:S4"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="E56:G56"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
     <mergeCell ref="B103:G103"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="N4:Q4"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/phase3/Inquérito.xlsx
+++ b/phase3/Inquérito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35191\Desktop\UNI\3ºano\IPC\phase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA54D1C-DE59-4AFC-A3A2-0D6DC7AEA38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617B33F4-259E-4DFC-8494-29936A840F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1185" windowWidth="29040" windowHeight="15720" xr2:uid="{6DF166B9-DCAC-479D-8E65-FC409164BF48}"/>
   </bookViews>
@@ -1149,6 +1149,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,35 +1166,27 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3017,7 +3017,7 @@
                     <c:v>7.5200000000000031</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.3099999999999996</c:v>
+                    <c:v>8.2999999999999972</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3035,7 +3035,7 @@
                     <c:v>7.519999999999996</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2999999999999972</c:v>
+                    <c:v>8.3000000000000043</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3497,7 +3497,7 @@
                     <c:v>0.23000000000000043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.5</c:v>
+                    <c:v>1.3100000000000005</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3515,7 +3515,7 @@
                     <c:v>0.23000000000000043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.5</c:v>
+                    <c:v>1.3100000000000005</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3664,7 +3664,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$5</c15:sqref>
@@ -3682,7 +3682,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -3705,7 +3705,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$6:$C$8</c15:sqref>
@@ -3740,7 +3740,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$5</c15:sqref>
@@ -3758,7 +3758,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -3781,7 +3781,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
@@ -3816,7 +3816,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$5</c15:sqref>
@@ -3834,7 +3834,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -3857,7 +3857,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
@@ -3892,7 +3892,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$5</c15:sqref>
@@ -3914,34 +3914,10 @@
                   <c:noEndCap val="0"/>
                   <c:plus>
                     <c:numRef>
-                      <c:extLst>
+                      <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
                             <c15:sqref>Sheet1!$AI$3:$AI$5</c15:sqref>
-                          </c15:formulaRef>
-                        </c:ext>
-                      </c:extLst>
-                      <c:numCache>
-                        <c:formatCode>General</c:formatCode>
-                        <c:ptCount val="3"/>
-                        <c:pt idx="0">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>0.23000000000000043</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>0.5</c:v>
-                        </c:pt>
-                      </c:numCache>
-                    </c:numRef>
-                  </c:plus>
-                  <c:minus>
-                    <c:numRef>
-                      <c:extLst>
-                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                          <c15:formulaRef>
-                            <c15:sqref>Sheet1!$AH$3:$AH$5</c15:sqref>
                           </c15:formulaRef>
                         </c:ext>
                       </c:extLst>
@@ -3959,6 +3935,30 @@
                         </c:pt>
                       </c:numCache>
                     </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Sheet1!$AH$3:$AH$5</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="3"/>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0.23000000000000043</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1.3099999999999996</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
                   </c:minus>
                   <c:spPr>
                     <a:ln w="12700">
@@ -3970,7 +3970,7 @@
                 </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -3993,7 +3993,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$6:$F$8</c15:sqref>
@@ -4015,7 +4015,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E5E5-45DE-AFFA-847A41F835A6}"/>
                   </c:ext>
@@ -4211,7 +4211,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4339,7 +4339,7 @@
                     <c:v>0.3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.35</c:v>
+                    <c:v>0.50000000000000011</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4357,7 +4357,7 @@
                     <c:v>0.30000000000000004</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.50000000000000011</c:v>
+                    <c:v>0.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4878,7 +4878,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.35000000000000009</c:v>
+                    <c:v>0.35</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4894,6 +4894,9 @@
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.35000000000000009</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6479,10 +6482,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>353787</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>165191</xdr:rowOff>
+      <xdr:rowOff>141786</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -6812,8 +6815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5987B9C-46B6-48DF-892A-073BDF9D62B0}">
   <dimension ref="A1:AM151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:S4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF20" sqref="AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6873,34 +6876,34 @@
     </row>
     <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81"/>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="100" t="s">
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="106"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="110"/>
       <c r="L4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="101" t="s">
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="108"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="109"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="97"/>
       <c r="AF4" s="83">
         <f>B7-ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2)</f>
         <v>7.519999999999996</v>
@@ -6989,35 +6992,35 @@
       <c r="S5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AE5" s="83">
+      <c r="AF5" s="83">
         <f>B8-ROUND(B8-_xlfn.CONFIDENCE.T(0.05,D8,10),2)</f>
         <v>8.3000000000000043</v>
       </c>
-      <c r="AF5" s="83">
+      <c r="AG5" s="83">
         <f>ROUND(B8+_xlfn.CONFIDENCE.T(0.05,D8,10),2)-B8</f>
         <v>8.2999999999999972</v>
       </c>
-      <c r="AG5" s="83">
+      <c r="AH5" s="83">
         <f>G8-ROUND(G8-_xlfn.CONFIDENCE.T(0.05,I8,10),2)</f>
         <v>1.3099999999999996</v>
       </c>
-      <c r="AH5" s="83">
+      <c r="AI5" s="83">
         <f>ROUND(G8+_xlfn.CONFIDENCE.T(0.05,I8,10),2)-G8</f>
         <v>1.3100000000000005</v>
       </c>
-      <c r="AI5" s="83">
+      <c r="AJ5" s="83">
         <f>L8-ROUND(L8-_xlfn.CONFIDENCE.T(0.05,M8,10),2)</f>
         <v>0.5</v>
       </c>
-      <c r="AJ5" s="83">
+      <c r="AK5" s="83">
         <f>ROUND(L8+_xlfn.CONFIDENCE.T(0.05,M8,10),2)-L8</f>
         <v>0.50000000000000011</v>
       </c>
-      <c r="AK5" s="83">
+      <c r="AL5" s="83">
         <f>P8-ROUND(P8-_xlfn.CONFIDENCE.T(0.05,Q8,10),2)</f>
         <v>0.35</v>
       </c>
-      <c r="AL5" s="83">
+      <c r="AM5" s="83">
         <f>ROUND(P8+_xlfn.CONFIDENCE.T(0.05,Q8,10),2)-P8</f>
         <v>0.35000000000000009</v>
       </c>
@@ -7250,24 +7253,24 @@
     <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="80"/>
-      <c r="B11" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="102" t="s">
+      <c r="B11" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="102" t="s">
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="104"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="106"/>
     </row>
     <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
@@ -7758,17 +7761,17 @@
       <c r="B49" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="108"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="100"/>
       <c r="G49" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="108"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="100"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="46" t="s">
@@ -7940,16 +7943,16 @@
     <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="81"/>
-      <c r="B56" s="97" t="s">
+      <c r="B56" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="98"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="97" t="s">
+      <c r="C56" s="102"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="98"/>
-      <c r="G56" s="99"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="103"/>
     </row>
     <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="46" t="s">
@@ -8404,14 +8407,14 @@
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="81"/>
-      <c r="B103" s="97" t="s">
+      <c r="B103" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="C103" s="98"/>
-      <c r="D103" s="98"/>
-      <c r="E103" s="98"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="99"/>
+      <c r="C103" s="102"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="102"/>
+      <c r="F103" s="102"/>
+      <c r="G103" s="103"/>
     </row>
     <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="46">
@@ -8737,18 +8740,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="G49:K49"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:O4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phase3/Inquérito.xlsx
+++ b/phase3/Inquérito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35191\Desktop\UNI\3ºano\IPC\phase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617B33F4-259E-4DFC-8494-29936A840F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FAE765-A83B-4A8B-AD73-92EBC6EB6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1185" windowWidth="29040" windowHeight="15720" xr2:uid="{6DF166B9-DCAC-479D-8E65-FC409164BF48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="57">
   <si>
     <t>Tarefa 1</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t>Req. Utilização</t>
   </si>
+  <si>
+    <t>Ajuda</t>
+  </si>
 </sst>
 </file>
 
@@ -358,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -874,12 +877,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1150,7 +1238,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1185,6 +1272,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4303,8 +4411,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="10"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$L$5</c:f>
@@ -4363,7 +4471,7 @@
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="12700">
+              <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="002060"/>
                 </a:solidFill>
@@ -4405,9 +4513,9 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-9307-4B67-80B8-7B60F5D2A661}"/>
+              <c16:uniqueId val="{00000006-7577-42FC-9CE4-2A917C489CC3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4426,29 +4534,86 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$4:$K$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
+                        <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:invertIfNegative val="0"/>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Sheet1!$AK$3:$AK$5</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="3"/>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0.3</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>0.50000000000000011</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Sheet1!$AJ$3:$AJ$5</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="3"/>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0.30000000000000004</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>0.5</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:ln w="12700">
+                      <a:solidFill>
+                        <a:srgbClr val="002060"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:errBars>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
@@ -4477,7 +4642,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
+                          <c15:sqref>Sheet1!$B$6:$B$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4485,18 +4650,94 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>31.1</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.4216370213557839</c:v>
+                        <c:v>40.9</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.69920589878010109</c:v>
+                        <c:v>34.200000000000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-9307-4B67-80B8-7B60F5D2A661}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Req. Utilização</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$6:$C$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>10</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-9307-4B67-80B8-7B60F5D2A661}"/>
                   </c:ext>
@@ -4509,20 +4750,17 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$4:$L$5</c15:sqref>
+                          <c15:sqref>Sheet1!$D$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Erros</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Média</c:v>
+                        <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -4530,7 +4768,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4553,24 +4791,24 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$N$6:$N$8</c15:sqref>
+                          <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>12.493998559308384</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>10.514011814927954</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.5</c:v>
+                        <c:v>11.602681682362155</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4588,22 +4826,25 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$4:$M$4</c15:sqref>
+                          <c15:sqref>Sheet1!$E$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Mediana</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4626,10 +4867,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$6:$O$8</c15:sqref>
+                          <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4637,13 +4878,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>29.5</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>40.5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>34.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4655,9 +4896,549 @@
                 </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>IC(95%)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$6:$F$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-7577-42FC-9CE4-2A917C489CC3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Média</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-7577-42FC-9CE4-2A917C489CC3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Req. Utilização</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$H$6:$H$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-7577-42FC-9CE4-2A917C489CC3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Desvio Padrão</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$I$6:$I$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.31622776601683789</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.8257418583505538</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-7577-42FC-9CE4-2A917C489CC3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Mediana</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$J$6:$J$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-7577-42FC-9CE4-2A917C489CC3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="9"/>
+                <c:order val="9"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>IC(95%)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-7577-42FC-9CE4-2A917C489CC3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Req. Utilização</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$6:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7577-42FC-9CE4-2A917C489CC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1476527654"/>
+        <c:axId val="153409426"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1476527654"/>
         <c:scaling>
@@ -4850,7 +5631,7 @@
                   <c:v>Erros</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Mediana</c:v>
+                  <c:v>Desvio Padrão</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4928,7 +5709,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$P$6:$P$8</c:f>
+              <c:f>Sheet1!$Q$6:$Q$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5732,7 +6513,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
+                          <c15:sqref>Sheet1!$N$6:$N$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5811,7 +6592,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$N$6:$N$8</c15:sqref>
+                          <c15:sqref>Sheet1!$O$6:$O$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5884,7 +6665,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$6:$O$8</c15:sqref>
+                          <c15:sqref>Sheet1!$P$6:$P$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5929,7 +6710,7 @@
                         <c:v>Erros</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
+                        <c:v>Mediana</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -5963,7 +6744,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$6:$Q$8</c15:sqref>
+                          <c15:sqref>Sheet1!$R$6:$R$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6005,10 +6786,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Ajudas</c:v>
+                        <c:v>Erros</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Média</c:v>
+                        <c:v>IC(95%)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6042,7 +6823,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$R$6:$R$8</c15:sqref>
+                          <c15:sqref>Sheet1!$S$6:$S$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6084,10 +6865,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Ajudas</c:v>
+                        <c:v>Ajuda</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
+                        <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6121,7 +6902,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$6:$S$8</c15:sqref>
+                          <c15:sqref>Sheet1!$T$6:$T$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6815,8 +7596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5987B9C-46B6-48DF-892A-073BDF9D62B0}">
   <dimension ref="A1:AM151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF20" sqref="AF20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6858,51 +7639,51 @@
         <v>#NUM!</v>
       </c>
       <c r="AJ3" s="83" t="e">
-        <f>L6-ROUND(L6-_xlfn.CONFIDENCE.T(0.05,M6,10),2)</f>
+        <f>L6-ROUND(L6-_xlfn.CONFIDENCE.T(0.05,N6,10),2)</f>
         <v>#NUM!</v>
       </c>
       <c r="AK3" s="83" t="e">
-        <f>ROUND(L6+_xlfn.CONFIDENCE.T(0.05,M6,10),2)-L6</f>
+        <f>ROUND(L6+_xlfn.CONFIDENCE.T(0.05,N6,10),2)-L6</f>
         <v>#NUM!</v>
       </c>
       <c r="AL3" s="83" t="e">
-        <f>P6-ROUND(P6-_xlfn.CONFIDENCE.T(0.05,Q6,10),2)</f>
+        <f>Q6-ROUND(Q6-_xlfn.CONFIDENCE.T(0.05,R6,10),2)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM3" s="83" t="e">
-        <f>ROUND(P6+_xlfn.CONFIDENCE.T(0.05,Q6,10),2)-P6</f>
+        <f>ROUND(Q6+_xlfn.CONFIDENCE.T(0.05,R6,10),2)-Q6</f>
         <v>#NUM!</v>
       </c>
     </row>
     <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="81"/>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="108" t="s">
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="107" t="s">
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="98"/>
+      <c r="Q4" s="114" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="115"/>
+      <c r="S4" s="115"/>
+      <c r="T4" s="116"/>
       <c r="U4" s="97"/>
       <c r="AF4" s="83">
         <f>B7-ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2)</f>
@@ -6921,19 +7702,19 @@
         <v>0.23000000000000043</v>
       </c>
       <c r="AJ4" s="83">
-        <f>L7-ROUND(L7-_xlfn.CONFIDENCE.T(0.05,M7,10),2)</f>
+        <f>L7-ROUND(L7-_xlfn.CONFIDENCE.T(0.05,N7,10),2)</f>
         <v>0.30000000000000004</v>
       </c>
       <c r="AK4" s="83">
-        <f>ROUND(L7+_xlfn.CONFIDENCE.T(0.05,M7,10),2)-L7</f>
+        <f>ROUND(L7+_xlfn.CONFIDENCE.T(0.05,N7,10),2)-L7</f>
         <v>0.3</v>
       </c>
       <c r="AL4" s="83" t="e">
-        <f>P7-ROUND(P7-_xlfn.CONFIDENCE.T(0.05,Q7,10),2)</f>
+        <f>Q7-ROUND(Q7-_xlfn.CONFIDENCE.T(0.05,R7,10),2)</f>
         <v>#NUM!</v>
       </c>
       <c r="AM4" s="83" t="e">
-        <f>ROUND(P7+_xlfn.CONFIDENCE.T(0.05,Q7,10),2)-P7</f>
+        <f>ROUND(Q7+_xlfn.CONFIDENCE.T(0.05,R7,10),2)-Q7</f>
         <v>#NUM!</v>
       </c>
     </row>
@@ -6971,25 +7752,28 @@
       <c r="L5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="93" t="s">
+      <c r="O5" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="P5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="Q5" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="49" t="s">
+      <c r="R5" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="93" t="s">
+      <c r="S5" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="48" t="s">
+      <c r="T5" s="113" t="s">
         <v>20</v>
       </c>
       <c r="AF5" s="83">
@@ -7009,19 +7793,19 @@
         <v>1.3100000000000005</v>
       </c>
       <c r="AJ5" s="83">
-        <f>L8-ROUND(L8-_xlfn.CONFIDENCE.T(0.05,M8,10),2)</f>
+        <f>L8-ROUND(L8-_xlfn.CONFIDENCE.T(0.05,N8,10),2)</f>
         <v>0.5</v>
       </c>
       <c r="AK5" s="83">
-        <f>ROUND(L8+_xlfn.CONFIDENCE.T(0.05,M8,10),2)-L8</f>
+        <f>ROUND(L8+_xlfn.CONFIDENCE.T(0.05,N8,10),2)-L8</f>
         <v>0.50000000000000011</v>
       </c>
       <c r="AL5" s="83">
-        <f>P8-ROUND(P8-_xlfn.CONFIDENCE.T(0.05,Q8,10),2)</f>
+        <f>Q8-ROUND(Q8-_xlfn.CONFIDENCE.T(0.05,R8,10),2)</f>
         <v>0.35</v>
       </c>
       <c r="AM5" s="83">
-        <f>ROUND(P8+_xlfn.CONFIDENCE.T(0.05,Q8,10),2)-P8</f>
+        <f>ROUND(Q8+_xlfn.CONFIDENCE.T(0.05,R8,10),2)-Q8</f>
         <v>0.35000000000000009</v>
       </c>
     </row>
@@ -7071,32 +7855,35 @@
         <f>AVERAGE(D13:D22)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="40">
+        <v>1</v>
+      </c>
+      <c r="N6" s="34">
         <f>_xlfn.STDEV.S(D13:D22)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="92">
+      <c r="O6" s="92">
         <f>MEDIAN(D13:D22)</f>
         <v>0</v>
       </c>
-      <c r="O6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(L6-_xlfn.CONFIDENCE.T(0.05,M6,10),2)), ISERROR(ROUND(L6+_xlfn.CONFIDENCE.T(0.05,M6,10),2))),"-","[" &amp; ROUND(L6-_xlfn.CONFIDENCE.T(0.05,M6,10),2) &amp;" - " &amp; ROUND(L6+_xlfn.CONFIDENCE.T(0.05,M6,10),2) &amp;"]")</f>
+      <c r="P6" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(L6-_xlfn.CONFIDENCE.T(0.05,N6,10),2)), ISERROR(ROUND(L6+_xlfn.CONFIDENCE.T(0.05,N6,10),2))),"-","[" &amp; ROUND(L6-_xlfn.CONFIDENCE.T(0.05,N6,10),2) &amp;" - " &amp; ROUND(L6+_xlfn.CONFIDENCE.T(0.05,N6,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
-      <c r="P6" s="37">
+      <c r="Q6" s="37">
         <f>AVERAGE(E13:E22)</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="38">
+      <c r="R6" s="38">
         <f>_xlfn.STDEV.S(E13:E22)</f>
         <v>0</v>
       </c>
-      <c r="R6" s="94">
+      <c r="S6" s="94">
         <f>MEDIAN(E13:E22)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(P6-_xlfn.CONFIDENCE.T(0.05,Q6,10),2)), ISERROR(ROUND(P6+_xlfn.CONFIDENCE.T(0.05,Q6,10),2))),"-","[" &amp; ROUND(P6-_xlfn.CONFIDENCE.T(0.05,Q6,10),2) &amp;" - " &amp; ROUND(P6+_xlfn.CONFIDENCE.T(0.05,Q6,10),2) &amp;"]")</f>
+      <c r="T6" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(Q6-_xlfn.CONFIDENCE.T(0.05,R6,10),2)), ISERROR(ROUND(Q6+_xlfn.CONFIDENCE.T(0.05,R6,10),2))),"-","[" &amp; ROUND(Q6-_xlfn.CONFIDENCE.T(0.05,R6,10),2) &amp;" - " &amp; ROUND(Q6+_xlfn.CONFIDENCE.T(0.05,R6,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
     </row>
@@ -7146,32 +7933,35 @@
         <f>AVERAGE(H13:H22)</f>
         <v>0.2</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
         <f>_xlfn.STDEV.S(H13:H22)</f>
         <v>0.4216370213557839</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <f>MEDIAN(H13:H22)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(L7-_xlfn.CONFIDENCE.T(0.05,M7,10),2)), ISERROR(ROUND(L7+_xlfn.CONFIDENCE.T(0.05,M7,10),2))),"-","[" &amp; ROUND(L7-_xlfn.CONFIDENCE.T(0.05,M7,10),2) &amp;" - " &amp; ROUND(L7+_xlfn.CONFIDENCE.T(0.05,M7,10),2) &amp;"]")</f>
+      <c r="P7" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(L7-_xlfn.CONFIDENCE.T(0.05,N7,10),2)), ISERROR(ROUND(L7+_xlfn.CONFIDENCE.T(0.05,N7,10),2))),"-","[" &amp; ROUND(L7-_xlfn.CONFIDENCE.T(0.05,N7,10),2) &amp;" - " &amp; ROUND(L7+_xlfn.CONFIDENCE.T(0.05,N7,10),2) &amp;"]")</f>
         <v>[-0,1 - 0,5]</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <f>AVERAGE(I13:I22)</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <f>_xlfn.STDEV.S(I13:I22)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="95">
+      <c r="S7" s="95">
         <f>MEDIAN(I13:I22)</f>
         <v>0</v>
       </c>
-      <c r="S7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(P7-_xlfn.CONFIDENCE.T(0.05,Q7,10),2)), ISERROR(ROUND(P7+_xlfn.CONFIDENCE.T(0.05,Q7,10),2))),"-","[" &amp; ROUND(P7-_xlfn.CONFIDENCE.T(0.05,Q7,10),2) &amp;" - " &amp; ROUND(P7+_xlfn.CONFIDENCE.T(0.05,Q7,10),2) &amp;"]")</f>
+      <c r="T7" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(Q7-_xlfn.CONFIDENCE.T(0.05,R7,10),2)), ISERROR(ROUND(Q7+_xlfn.CONFIDENCE.T(0.05,R7,10),2))),"-","[" &amp; ROUND(Q7-_xlfn.CONFIDENCE.T(0.05,R7,10),2) &amp;" - " &amp; ROUND(Q7+_xlfn.CONFIDENCE.T(0.05,R7,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
     </row>
@@ -7221,56 +8011,59 @@
         <f>AVERAGE(L13:L22)</f>
         <v>0.6</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="25">
+        <v>1</v>
+      </c>
+      <c r="N8" s="11">
         <f>_xlfn.STDEV.S(L13:L22)</f>
         <v>0.69920589878010109</v>
       </c>
-      <c r="N8" s="12">
+      <c r="O8" s="12">
         <f>MEDIAN(L13:L22)</f>
         <v>0.5</v>
       </c>
-      <c r="O8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(L8-_xlfn.CONFIDENCE.T(0.05,M8,10),2)), ISERROR(ROUND(L8+_xlfn.CONFIDENCE.T(0.05,M8,10),2))),"-","[" &amp; ROUND(L8-_xlfn.CONFIDENCE.T(0.05,M8,10),2) &amp;" - " &amp; ROUND(L8+_xlfn.CONFIDENCE.T(0.05,M8,10),2) &amp;"]")</f>
+      <c r="P8" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(L8-_xlfn.CONFIDENCE.T(0.05,N8,10),2)), ISERROR(ROUND(L8+_xlfn.CONFIDENCE.T(0.05,N8,10),2))),"-","[" &amp; ROUND(L8-_xlfn.CONFIDENCE.T(0.05,N8,10),2) &amp;" - " &amp; ROUND(L8+_xlfn.CONFIDENCE.T(0.05,N8,10),2) &amp;"]")</f>
         <v>[0,1 - 1,1]</v>
       </c>
-      <c r="P8" s="24">
+      <c r="Q8" s="24">
         <f>AVERAGE(M13:M22)</f>
         <v>0.7</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="R8" s="14">
         <f>_xlfn.STDEV.S(M13:M22)</f>
         <v>0.48304589153964789</v>
       </c>
-      <c r="R8" s="96">
+      <c r="S8" s="96">
         <f>MEDIAN(M13:M22)</f>
         <v>1</v>
       </c>
-      <c r="S8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(P8-_xlfn.CONFIDENCE.T(0.05,Q8,10),2)), ISERROR(ROUND(P8+_xlfn.CONFIDENCE.T(0.05,Q8,10),2))),"-","[" &amp; ROUND(P8-_xlfn.CONFIDENCE.T(0.05,Q8,10),2) &amp;" - " &amp; ROUND(P8+_xlfn.CONFIDENCE.T(0.05,Q8,10),2) &amp;"]")</f>
+      <c r="T8" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(Q8-_xlfn.CONFIDENCE.T(0.05,R8,10),2)), ISERROR(ROUND(Q8+_xlfn.CONFIDENCE.T(0.05,R8,10),2))),"-","[" &amp; ROUND(Q8-_xlfn.CONFIDENCE.T(0.05,R8,10),2) &amp;" - " &amp; ROUND(Q8+_xlfn.CONFIDENCE.T(0.05,R8,10),2) &amp;"]")</f>
         <v>[0,35 - 1,05]</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="80"/>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="104" t="s">
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="104" t="s">
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="106"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="105"/>
     </row>
     <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="23"/>
@@ -7758,20 +8551,20 @@
     <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="81"/>
-      <c r="B49" s="107" t="s">
+      <c r="B49" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="107" t="s">
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
-      <c r="K49" s="100"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="99"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="46" t="s">
@@ -7943,16 +8736,16 @@
     <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="81"/>
-      <c r="B56" s="101" t="s">
+      <c r="B56" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="102"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="101" t="s">
+      <c r="C56" s="101"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="102"/>
-      <c r="G56" s="103"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="102"/>
     </row>
     <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="46" t="s">
@@ -8407,14 +9200,14 @@
     <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="81"/>
-      <c r="B103" s="101" t="s">
+      <c r="B103" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C103" s="102"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="102"/>
-      <c r="F103" s="102"/>
-      <c r="G103" s="103"/>
+      <c r="C103" s="101"/>
+      <c r="D103" s="101"/>
+      <c r="E103" s="101"/>
+      <c r="F103" s="101"/>
+      <c r="G103" s="102"/>
     </row>
     <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="46">
@@ -8740,7 +9533,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="P4:S4"/>
     <mergeCell ref="B56:D56"/>
     <mergeCell ref="E56:G56"/>
     <mergeCell ref="B103:G103"/>
@@ -8751,7 +9543,8 @@
     <mergeCell ref="G49:K49"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:T4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phase3/Inquérito.xlsx
+++ b/phase3/Inquérito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35191\Desktop\UNI\3ºano\IPC\phase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FAE765-A83B-4A8B-AD73-92EBC6EB6884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABCD85-0FE6-458C-9F59-F75073EF354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1185" windowWidth="29040" windowHeight="15720" xr2:uid="{6DF166B9-DCAC-479D-8E65-FC409164BF48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="74">
   <si>
     <t>Tarefa 1</t>
   </si>
@@ -226,7 +226,58 @@
     <t>Req. Utilização</t>
   </si>
   <si>
-    <t>Ajuda</t>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Dif 1</t>
+  </si>
+  <si>
+    <t>Dif 2</t>
+  </si>
+  <si>
+    <t>Dif 3</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Moda</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>(Tabela Auxiliar)</t>
   </si>
 </sst>
 </file>
@@ -299,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +411,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="84">
     <border>
       <left/>
       <right/>
@@ -701,21 +758,6 @@
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -922,19 +964,6 @@
       <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,12 +991,508 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1099,7 +1624,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,43 +1639,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1166,26 +1688,26 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1222,26 +1744,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1253,6 +1920,15 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1262,37 +1938,52 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1304,6 +1995,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF898989"/>
+      <color rgb="FF002060"/>
+      <color rgb="FFCFE2F3"/>
       <color rgb="FFDD3609"/>
       <color rgb="FFD63E14"/>
     </mruColors>
@@ -1373,7 +2067,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$50</c:f>
+              <c:f>Sheet1!$B$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1390,7 +2084,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1407,7 +2101,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$51:$B$53</c:f>
+              <c:f>Sheet1!$B$68:$B$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1443,7 +2137,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$50</c:f>
+              <c:f>Sheet1!$C$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1460,7 +2154,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1477,7 +2171,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$51:$C$53</c:f>
+              <c:f>Sheet1!$C$68:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1513,7 +2207,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$50</c:f>
+              <c:f>Sheet1!$D$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1525,7 +2219,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1542,7 +2236,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$51:$D$53</c:f>
+              <c:f>Sheet1!$D$68:$D$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1569,7 +2263,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$50</c:f>
+              <c:f>Sheet1!$E$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1586,7 +2280,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1603,7 +2297,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$51:$E$53</c:f>
+              <c:f>Sheet1!$E$68:$E$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1639,7 +2333,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$50</c:f>
+              <c:f>Sheet1!$F$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1656,7 +2350,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1673,7 +2367,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$51:$F$53</c:f>
+              <c:f>Sheet1!$F$68:$F$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1921,7 +2615,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$50</c:f>
+              <c:f>Sheet1!$J$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1940,7 +2634,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1957,7 +2651,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$51:$G$53</c:f>
+              <c:f>Sheet1!$J$68:$J$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1984,7 +2678,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$50</c:f>
+              <c:f>Sheet1!$K$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2004,7 +2698,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2021,7 +2715,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$51:$H$53</c:f>
+              <c:f>Sheet1!$K$68:$K$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2048,7 +2742,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$50</c:f>
+              <c:f>Sheet1!$L$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2060,7 +2754,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2077,7 +2771,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$51:$I$53</c:f>
+              <c:f>Sheet1!$L$68:$L$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2104,7 +2798,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$50</c:f>
+              <c:f>Sheet1!$M$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2124,7 +2818,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2141,7 +2835,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$51:$J$53</c:f>
+              <c:f>Sheet1!$M$68:$M$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2168,7 +2862,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$50</c:f>
+              <c:f>Sheet1!$N$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2185,7 +2879,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$51:$A$53</c:f>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2202,7 +2896,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$51:$K$53</c:f>
+              <c:f>Sheet1!$N$68:$N$70</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2450,7 +3144,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$94</c:f>
+              <c:f>Sheet1!$B$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2467,7 +3161,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$95:$A$100</c:f>
+              <c:f>Sheet1!$A$112:$A$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2494,7 +3188,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$95:$B$100</c:f>
+              <c:f>Sheet1!$B$112:$B$117</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2539,7 +3233,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$94</c:f>
+              <c:f>Sheet1!$C$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2556,7 +3250,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$95:$A$100</c:f>
+              <c:f>Sheet1!$A$112:$A$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2583,7 +3277,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$95:$C$100</c:f>
+              <c:f>Sheet1!$C$112:$C$117</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2628,7 +3322,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$94</c:f>
+              <c:f>Sheet1!$D$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2640,7 +3334,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$95:$A$100</c:f>
+              <c:f>Sheet1!$A$112:$A$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2667,7 +3361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$95:$D$100</c:f>
+              <c:f>Sheet1!$D$112:$D$117</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2703,7 +3397,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$94</c:f>
+              <c:f>Sheet1!$E$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2720,7 +3414,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$95:$A$100</c:f>
+              <c:f>Sheet1!$A$112:$A$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2747,7 +3441,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$95:$E$100</c:f>
+              <c:f>Sheet1!$E$112:$E$117</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2792,7 +3486,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$94</c:f>
+              <c:f>Sheet1!$F$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2811,7 +3505,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$95:$A$100</c:f>
+              <c:f>Sheet1!$A$112:$A$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2838,7 +3532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$95:$F$100</c:f>
+              <c:f>Sheet1!$F$112:$F$117</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3114,25 +3808,25 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AG$3:$AG$5</c:f>
+                <c:f>Sheet1!$AF$63:$AF$65</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>8.9399999999999977</c:v>
+                    <c:v>8.9400000000000013</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.5200000000000031</c:v>
+                    <c:v>7.519999999999996</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.2999999999999972</c:v>
+                    <c:v>8.3000000000000043</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AF$3:$AF$5</c:f>
+                <c:f>Sheet1!$AF$63:$AF$65</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3234,6 +3928,7 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -3482,6 +4177,10 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -3573,7 +4272,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$5</c:f>
+              <c:f>Sheet1!$H$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3594,7 +4293,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AI$3:$AI$5</c:f>
+                <c:f>Sheet1!$AG$63:$AG$65</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3605,14 +4304,14 @@
                     <c:v>0.23000000000000043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.3100000000000005</c:v>
+                    <c:v>1.3099999999999996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AI$3:$AI$5</c:f>
+                <c:f>Sheet1!$AG$63:$AG$65</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3623,7 +4322,7 @@
                     <c:v>0.23000000000000043</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.3100000000000005</c:v>
+                    <c:v>1.3099999999999996</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3655,7 +4354,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$6:$G$8</c:f>
+              <c:f>Sheet1!$H$6:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4003,7 +4702,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$5</c15:sqref>
+                          <c15:sqref>Sheet1!$G$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4025,21 +4724,15 @@
                       <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
-                            <c15:sqref>Sheet1!$AI$3:$AI$5</c15:sqref>
+                            <c15:sqref>Sheet1!#REF!</c15:sqref>
                           </c15:formulaRef>
                         </c:ext>
                       </c:extLst>
                       <c:numCache>
                         <c:formatCode>General</c:formatCode>
-                        <c:ptCount val="3"/>
+                        <c:ptCount val="1"/>
                         <c:pt idx="0">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>0.23000000000000043</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>1.3100000000000005</c:v>
+                          <c:v>1</c:v>
                         </c:pt>
                       </c:numCache>
                     </c:numRef>
@@ -4049,7 +4742,7 @@
                       <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
-                            <c15:sqref>Sheet1!$AH$3:$AH$5</c15:sqref>
+                            <c15:sqref>Sheet1!$AG$63:$AG$65</c15:sqref>
                           </c15:formulaRef>
                         </c:ext>
                       </c:extLst>
@@ -4104,7 +4797,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$6:$F$8</c15:sqref>
+                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4141,7 +4834,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$5</c:f>
+              <c:f>Sheet1!$I$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4157,6 +4850,7 @@
                   <a:lumMod val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -4181,7 +4875,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$6:$H$8</c:f>
+              <c:f>Sheet1!$I$6:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4349,6 +5043,10 @@
         <c:majorUnit val="2"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -4415,7 +5113,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$5</c:f>
+              <c:f>Sheet1!$N$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4436,7 +5134,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AK$3:$AK$5</c:f>
+                <c:f>Sheet1!$AH$63:$AH$65</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4444,17 +5142,17 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.3</c:v>
+                    <c:v>0.30000000000000004</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.50000000000000011</c:v>
+                    <c:v>0.5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AJ$3:$AJ$5</c:f>
+                <c:f>Sheet1!$AH$63:$AH$65</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4497,7 +5195,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$6:$L$8</c:f>
+              <c:f>Sheet1!$N$6:$N$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4570,15 +5268,6 @@
                       <c:numCache>
                         <c:formatCode>General</c:formatCode>
                         <c:ptCount val="3"/>
-                        <c:pt idx="0">
-                          <c:v>0</c:v>
-                        </c:pt>
-                        <c:pt idx="1">
-                          <c:v>0.3</c:v>
-                        </c:pt>
-                        <c:pt idx="2">
-                          <c:v>0.50000000000000011</c:v>
-                        </c:pt>
                       </c:numCache>
                     </c:numRef>
                   </c:plus>
@@ -4587,7 +5276,7 @@
                       <c:extLst>
                         <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
-                            <c15:sqref>Sheet1!$AJ$3:$AJ$5</c15:sqref>
+                            <c15:sqref>Sheet1!$AH$63:$AH$65</c15:sqref>
                           </c15:formulaRef>
                         </c:ext>
                       </c:extLst>
@@ -4674,7 +5363,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$5</c15:sqref>
@@ -4692,7 +5381,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4715,7 +5404,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$6:$C$8</c15:sqref>
@@ -4750,7 +5439,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$5</c15:sqref>
@@ -4768,7 +5457,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4791,7 +5480,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
@@ -4826,7 +5515,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$5</c15:sqref>
@@ -4844,7 +5533,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4867,7 +5556,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
@@ -4902,10 +5591,10 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$5</c15:sqref>
+                          <c15:sqref>Sheet1!$G$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4920,7 +5609,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -4943,10 +5632,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$6:$F$8</c15:sqref>
+                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4965,7 +5654,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-7577-42FC-9CE4-2A917C489CC3}"/>
                   </c:ext>
@@ -4978,10 +5667,10 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$5</c15:sqref>
+                          <c15:sqref>Sheet1!$H$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4996,7 +5685,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5019,10 +5708,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
+                          <c15:sqref>Sheet1!$H$6:$H$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5041,7 +5730,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-7577-42FC-9CE4-2A917C489CC3}"/>
                   </c:ext>
@@ -5054,10 +5743,10 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$5</c15:sqref>
+                          <c15:sqref>Sheet1!$I$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5072,7 +5761,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5095,10 +5784,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$6:$H$8</c15:sqref>
+                          <c15:sqref>Sheet1!$I$6:$I$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5117,7 +5806,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-7577-42FC-9CE4-2A917C489CC3}"/>
                   </c:ext>
@@ -5130,10 +5819,10 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$5</c15:sqref>
+                          <c15:sqref>Sheet1!$J$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5148,7 +5837,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5171,10 +5860,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$6:$I$8</c15:sqref>
+                          <c15:sqref>Sheet1!$J$6:$J$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5193,7 +5882,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-7577-42FC-9CE4-2A917C489CC3}"/>
                   </c:ext>
@@ -5206,10 +5895,10 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$5</c15:sqref>
+                          <c15:sqref>Sheet1!$K$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5224,7 +5913,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5247,10 +5936,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$6:$J$8</c15:sqref>
+                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5269,7 +5958,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-7577-42FC-9CE4-2A917C489CC3}"/>
                   </c:ext>
@@ -5282,10 +5971,10 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$5</c15:sqref>
+                          <c15:sqref>Sheet1!$M$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5300,7 +5989,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
@@ -5323,10 +6012,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
+                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5345,7 +6034,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-7577-42FC-9CE4-2A917C489CC3}"/>
                   </c:ext>
@@ -5363,7 +6052,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$5</c:f>
+              <c:f>Sheet1!$O$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5379,6 +6068,7 @@
                   <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -5403,18 +6093,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$6:$M$8</c:f>
+              <c:f>Sheet1!$O$6:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5558,6 +6248,10 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
@@ -5631,7 +6325,7 @@
                   <c:v>Erros</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Desvio Padrão</c:v>
+                  <c:v>Média</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5648,7 +6342,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AL$3:$AL$5</c:f>
+                <c:f>Sheet1!$AI$63:$AI$65</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -5666,7 +6360,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AM$3:$AM$5</c:f>
+                <c:f>Sheet1!$AI$63:$AI$65</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -5677,7 +6371,7 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.35000000000000009</c:v>
+                    <c:v>0.35</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5709,7 +6403,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$Q$6:$Q$8</c:f>
+              <c:f>Sheet1!$T$6:$T$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6034,7 +6728,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$6:$F$8</c15:sqref>
+                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6079,7 +6773,7 @@
                         <c:v>Tempo (s)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
+                        <c:v>Moda</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6113,7 +6807,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
+                          <c15:sqref>Sheet1!$H$6:$H$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6155,10 +6849,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Cliques</c:v>
+                        <c:v>Tempo (s)</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Média</c:v>
+                        <c:v>IC(95%)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6192,7 +6886,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$6:$I$8</c15:sqref>
+                          <c15:sqref>Sheet1!$J$6:$J$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6237,7 +6931,7 @@
                         <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Req. Utilização</c:v>
+                        <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6271,7 +6965,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$6:$J$8</c15:sqref>
+                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6316,7 +7010,7 @@
                         <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Desvio Padrão</c:v>
+                        <c:v>Req. Utilização</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6350,7 +7044,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
+                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6395,7 +7089,7 @@
                         <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Mediana</c:v>
+                        <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6434,7 +7128,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$6:$L$8</c15:sqref>
+                          <c15:sqref>Sheet1!$N$6:$N$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6479,7 +7173,7 @@
                         <c:v>Cliques</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
+                        <c:v>Mediana</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6513,7 +7207,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$N$6:$N$8</c15:sqref>
+                          <c15:sqref>Sheet1!$P$6:$P$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6548,86 +7242,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$4:$L$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Erros</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Média</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>Tarefa 1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Tarefa 2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Tarefa 3</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$6:$O$8</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="3"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.5</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{0000000E-D9CD-480A-8488-71DA40307F42}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$4:$M$4</c15:sqref>
+                          <c15:sqref>Sheet1!$L$4:$L$4</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6665,7 +7280,83 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$6:$P$8</c15:sqref>
+                          <c15:sqref>Sheet1!$Q$6:$Q$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-D9CD-480A-8488-71DA40307F42}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$S$6:$S$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6710,7 +7401,7 @@
                         <c:v>Erros</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Mediana</c:v>
+                        <c:v>Req. Utilização</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6744,7 +7435,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$R$6:$R$8</c15:sqref>
+                          <c15:sqref>Sheet1!$U$6:$U$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6789,7 +7480,7 @@
                         <c:v>Erros</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>IC(95%)</c:v>
+                        <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6823,7 +7514,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$6:$S$8</c15:sqref>
+                          <c15:sqref>Sheet1!$V$6:$V$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6865,10 +7556,10 @@
                     <c:strCache>
                       <c:ptCount val="2"/>
                       <c:pt idx="0">
-                        <c:v>Ajuda</c:v>
+                        <c:v>Erros</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>Média</c:v>
+                        <c:v>Mediana</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -6902,7 +7593,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$6:$T$8</c15:sqref>
+                          <c15:sqref>Sheet1!$X$6:$X$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7053,6 +7744,13 @@
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="898989"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -7061,13 +7759,2055 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" baseline="0"/>
+              <a:t>Tempo (s)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$18:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-08A7-4E09-8083-EA16EAD8C31E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="minus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$18:$C$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>8.5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.25</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>9.25</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$18:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-08A7-4E09-8083-EA16EAD8C31E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$18:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-08A7-4E09-8083-EA16EAD8C31E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="plus"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$18:$F$20</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>13.5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$18:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-08A7-4E09-8083-EA16EAD8C31E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$18:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-08A7-4E09-8083-EA16EAD8C31E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="971496480"/>
+        <c:axId val="971497728"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="971496480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971497728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="971497728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="971496480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:srgbClr val="898989"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Satisfação</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$AJ$63:$AJ$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.48000000000000043</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.35000000000000053</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.50999999999999979</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$AJ$63:$AJ$65</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.48000000000000043</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.35000000000000053</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.50999999999999979</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="002060"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$68:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A0F4-4031-9BAC-3F8BA97C7E55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1476527654"/>
+        <c:axId val="153409426"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Muito eficaz</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Sheet1!$AF$63:$AF$65</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="3"/>
+                        <c:pt idx="0">
+                          <c:v>8.9400000000000013</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>7.519999999999996</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>8.3000000000000043</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Sheet1!$AF$63:$AF$65</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="3"/>
+                        <c:pt idx="0">
+                          <c:v>8.9400000000000013</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>7.519999999999996</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>8.3000000000000043</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:ln w="12700">
+                      <a:solidFill>
+                        <a:srgbClr val="002060"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$68:$B$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-A0F4-4031-9BAC-3F8BA97C7E55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Eficaz</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$C$68:$C$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-A0F4-4031-9BAC-3F8BA97C7E55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Neutro</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$68:$D$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-A0F4-4031-9BAC-3F8BA97C7E55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Pouco eficaz</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$68:$E$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-A0F4-4031-9BAC-3F8BA97C7E55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$67</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Muito pouco eficaz</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$F$68:$F$70</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0%</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-A0F4-4031-9BAC-3F8BA97C7E55}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1476527654"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153409426"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="153409426"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1476527654"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>10982</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -7100,7 +9840,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>789902</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -7133,7 +9873,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>216498</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>29809</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -7165,9 +9905,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>189283</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>162113</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -7198,9 +9938,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1075187</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15738</xdr:rowOff>
+      <xdr:colOff>567187</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>79238</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -7231,9 +9971,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620486</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10887</xdr:rowOff>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>125187</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -7263,10 +10003,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>353787</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>141786</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762909</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>15693</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame macro="">
@@ -7289,6 +10029,75 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>289197</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>705970</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1CBA8B6-A075-B95F-8D24-DC0C743D2F6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11" title="Gráfico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF8562B0-6B0E-4603-9C21-DA52147A766A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7594,131 +10403,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5987B9C-46B6-48DF-892A-073BDF9D62B0}">
-  <dimension ref="A1:AM151"/>
+  <dimension ref="A1:AQ168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y67" sqref="Y67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="21" width="15.77734375" customWidth="1"/>
+    <col min="1" max="36" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:43" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="D1" s="72" t="s">
+      <c r="B1" s="84"/>
+      <c r="D1" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
     </row>
-    <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF3" s="83">
-        <f>B6-ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2)</f>
-        <v>8.9400000000000013</v>
-      </c>
-      <c r="AG3" s="83">
-        <f>ROUND(B6+_xlfn.CONFIDENCE.T(0.05,D6,10),2)-B6</f>
-        <v>8.9399999999999977</v>
-      </c>
-      <c r="AH3" s="83" t="e">
-        <f>G6-ROUND(G6-_xlfn.CONFIDENCE.T(0.05,I6,10),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AI3" s="83" t="e">
-        <f>ROUND(G6+_xlfn.CONFIDENCE.T(0.05,I6,10),2)-G6</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AJ3" s="83" t="e">
-        <f>L6-ROUND(L6-_xlfn.CONFIDENCE.T(0.05,N6,10),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AK3" s="83" t="e">
-        <f>ROUND(L6+_xlfn.CONFIDENCE.T(0.05,N6,10),2)-L6</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AL3" s="83" t="e">
-        <f>Q6-ROUND(Q6-_xlfn.CONFIDENCE.T(0.05,R6,10),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AM3" s="83" t="e">
-        <f>ROUND(Q6+_xlfn.CONFIDENCE.T(0.05,R6,10),2)-Q6</f>
-        <v>#NUM!</v>
-      </c>
+    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AK3" s="82"/>
+      <c r="AM3" s="82"/>
     </row>
-    <row r="4" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="81"/>
-      <c r="B4" s="107" t="s">
+    <row r="4" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="80"/>
+      <c r="B4" s="157" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="107" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="106" t="s">
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="149"/>
+      <c r="L4" s="149"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
-      <c r="P4" s="98"/>
-      <c r="Q4" s="114" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="97"/>
-      <c r="AF4" s="83">
-        <f>B7-ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2)</f>
-        <v>7.519999999999996</v>
-      </c>
-      <c r="AG4" s="83">
-        <f>ROUND(B7+_xlfn.CONFIDENCE.T(0.05,D7,10),2)-B7</f>
-        <v>7.5200000000000031</v>
-      </c>
-      <c r="AH4" s="83">
-        <f>G7-ROUND(G7-_xlfn.CONFIDENCE.T(0.05,I7,10),2)</f>
-        <v>0.23000000000000043</v>
-      </c>
-      <c r="AI4" s="83">
-        <f>ROUND(G7+_xlfn.CONFIDENCE.T(0.05,I7,10),2)-G7</f>
-        <v>0.23000000000000043</v>
-      </c>
-      <c r="AJ4" s="83">
-        <f>L7-ROUND(L7-_xlfn.CONFIDENCE.T(0.05,N7,10),2)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AK4" s="83">
-        <f>ROUND(L7+_xlfn.CONFIDENCE.T(0.05,N7,10),2)-L7</f>
-        <v>0.3</v>
-      </c>
-      <c r="AL4" s="83" t="e">
-        <f>Q7-ROUND(Q7-_xlfn.CONFIDENCE.T(0.05,R7,10),2)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="AM4" s="83" t="e">
-        <f>ROUND(Q7+_xlfn.CONFIDENCE.T(0.05,R7,10),2)-Q7</f>
-        <v>#NUM!</v>
-      </c>
+      <c r="O4" s="149"/>
+      <c r="P4" s="149"/>
+      <c r="Q4" s="149"/>
+      <c r="R4" s="149"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="151" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="152"/>
+      <c r="V4" s="152"/>
+      <c r="W4" s="152"/>
+      <c r="X4" s="153"/>
+      <c r="AK4" s="82"/>
+      <c r="AM4" s="82"/>
     </row>
-    <row r="5" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
         <v>6</v>
       </c>
@@ -7731,1820 +10483,2750 @@
       <c r="E5" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="47" t="s">
+      <c r="H5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="47" t="s">
+      <c r="I5" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="J5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="49" t="s">
+      <c r="K5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="48" t="s">
+      <c r="L5" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="N5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="O5" s="96" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="P5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="93" t="s">
+      <c r="Q5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="R5" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="S5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="110" t="s">
+      <c r="T5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="111" t="s">
+      <c r="U5" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="112" t="s">
+      <c r="V5" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="113" t="s">
+      <c r="W5" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="X5" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="83">
-        <f>B8-ROUND(B8-_xlfn.CONFIDENCE.T(0.05,D8,10),2)</f>
-        <v>8.3000000000000043</v>
-      </c>
-      <c r="AG5" s="83">
-        <f>ROUND(B8+_xlfn.CONFIDENCE.T(0.05,D8,10),2)-B8</f>
-        <v>8.2999999999999972</v>
-      </c>
-      <c r="AH5" s="83">
-        <f>G8-ROUND(G8-_xlfn.CONFIDENCE.T(0.05,I8,10),2)</f>
-        <v>1.3099999999999996</v>
-      </c>
-      <c r="AI5" s="83">
-        <f>ROUND(G8+_xlfn.CONFIDENCE.T(0.05,I8,10),2)-G8</f>
-        <v>1.3100000000000005</v>
-      </c>
-      <c r="AJ5" s="83">
-        <f>L8-ROUND(L8-_xlfn.CONFIDENCE.T(0.05,N8,10),2)</f>
-        <v>0.5</v>
-      </c>
-      <c r="AK5" s="83">
-        <f>ROUND(L8+_xlfn.CONFIDENCE.T(0.05,N8,10),2)-L8</f>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="AL5" s="83">
-        <f>Q8-ROUND(Q8-_xlfn.CONFIDENCE.T(0.05,R8,10),2)</f>
-        <v>0.35</v>
-      </c>
-      <c r="AM5" s="83">
-        <f>ROUND(Q8+_xlfn.CONFIDENCE.T(0.05,R8,10),2)-Q8</f>
-        <v>0.35000000000000009</v>
-      </c>
+      <c r="AO5" s="82"/>
+      <c r="AQ5" s="82"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="33">
-        <f>AVERAGE(B13:B22)</f>
+        <f>AVERAGE(B28:B37)</f>
         <v>31.1</v>
       </c>
       <c r="C6" s="40">
         <v>10</v>
       </c>
       <c r="D6" s="34">
-        <f>_xlfn.STDEV.S(B13:B22)</f>
+        <f>_xlfn.STDEV.S(B28:B37)</f>
         <v>12.493998559308384</v>
       </c>
       <c r="E6" s="35">
-        <f>MEDIAN(B13:B22)</f>
+        <f>MEDIAN(B28:B37)</f>
         <v>29.5</v>
       </c>
-      <c r="F6" s="36" t="str">
+      <c r="F6" s="146" t="str">
+        <f>IF(ISERROR(MODE(B28:B37)),"-",MODE(B28:B37))</f>
+        <v>-</v>
+      </c>
+      <c r="G6" s="36" t="str">
         <f>IF(OR(ISERROR(ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2)), ISERROR(ROUND(B6+_xlfn.CONFIDENCE.T(0.05,D6,10),2))),"-","[" &amp; ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2) &amp;" - " &amp; ROUND(B6+_xlfn.CONFIDENCE.T(0.05,D6,10),2) &amp;"]")</f>
         <v>[22,16 - 40,04]</v>
       </c>
-      <c r="G6" s="37">
-        <f>AVERAGE(C13:C22)</f>
+      <c r="H6" s="37">
+        <f>AVERAGE(C28:C37)</f>
         <v>9</v>
       </c>
-      <c r="H6" s="40">
+      <c r="I6" s="40">
         <v>3</v>
       </c>
-      <c r="I6" s="38">
-        <f>_xlfn.STDEV.S(C13:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="39">
-        <f>MEDIAN(C13:C22)</f>
+      <c r="J6" s="38">
+        <f>_xlfn.STDEV.S(C28:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="39">
+        <f>MEDIAN(C28:C37)</f>
         <v>9</v>
       </c>
-      <c r="K6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(G6-_xlfn.CONFIDENCE.T(0.05,I6,10),2)), ISERROR(ROUND(G6+_xlfn.CONFIDENCE.T(0.05,I6,10),2))),"-","[" &amp; ROUND(G6-_xlfn.CONFIDENCE.T(0.05,I6,10),2) &amp;" - " &amp; ROUND(G6+_xlfn.CONFIDENCE.T(0.05,I6,10),2) &amp;"]")</f>
+      <c r="L6" s="146">
+        <f>IF(ISERROR(MODE(C28:C37)),"-",MODE(C28:C37))</f>
+        <v>9</v>
+      </c>
+      <c r="M6" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(H6-_xlfn.CONFIDENCE.T(0.05,J6,10),2)), ISERROR(ROUND(H6+_xlfn.CONFIDENCE.T(0.05,J6,10),2))),"-","[" &amp; ROUND(H6-_xlfn.CONFIDENCE.T(0.05,J6,10),2) &amp;" - " &amp; ROUND(H6+_xlfn.CONFIDENCE.T(0.05,J6,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
-      <c r="L6" s="40">
-        <f>AVERAGE(D13:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="40">
-        <v>1</v>
-      </c>
-      <c r="N6" s="34">
-        <f>_xlfn.STDEV.S(D13:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="92">
-        <f>MEDIAN(D13:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(L6-_xlfn.CONFIDENCE.T(0.05,N6,10),2)), ISERROR(ROUND(L6+_xlfn.CONFIDENCE.T(0.05,N6,10),2))),"-","[" &amp; ROUND(L6-_xlfn.CONFIDENCE.T(0.05,N6,10),2) &amp;" - " &amp; ROUND(L6+_xlfn.CONFIDENCE.T(0.05,N6,10),2) &amp;"]")</f>
+      <c r="N6" s="40">
+        <f>AVERAGE(D28:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
+        <v>2</v>
+      </c>
+      <c r="P6" s="34">
+        <f>_xlfn.STDEV.S(D28:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="91">
+        <f>MEDIAN(D28:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="146">
+        <f>IF(ISERROR(MODE(D28:D37)),"-",MODE(D28:D37))</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(N6-_xlfn.CONFIDENCE.T(0.05,P6,10),2)), ISERROR(ROUND(N6+_xlfn.CONFIDENCE.T(0.05,P6,10),2))),"-","[" &amp; ROUND(N6-_xlfn.CONFIDENCE.T(0.05,P6,10),2) &amp;" - " &amp; ROUND(N6+_xlfn.CONFIDENCE.T(0.05,P6,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
-      <c r="Q6" s="37">
-        <f>AVERAGE(E13:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="38">
-        <f>_xlfn.STDEV.S(E13:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="94">
-        <f>MEDIAN(E13:E22)</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(Q6-_xlfn.CONFIDENCE.T(0.05,R6,10),2)), ISERROR(ROUND(Q6+_xlfn.CONFIDENCE.T(0.05,R6,10),2))),"-","[" &amp; ROUND(Q6-_xlfn.CONFIDENCE.T(0.05,R6,10),2) &amp;" - " &amp; ROUND(Q6+_xlfn.CONFIDENCE.T(0.05,R6,10),2) &amp;"]")</f>
+      <c r="T6" s="37">
+        <f>AVERAGE(E28:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="38">
+        <f>_xlfn.STDEV.S(E28:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="93">
+        <f>MEDIAN(E28:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="93">
+        <f>IF(ISERROR(MODE(E28:E37)),"-",MODE(E28:E37))</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(T6-_xlfn.CONFIDENCE.T(0.05,U6,10),2)), ISERROR(ROUND(T6+_xlfn.CONFIDENCE.T(0.05,U6,10),2))),"-","[" &amp; ROUND(T6-_xlfn.CONFIDENCE.T(0.05,U6,10),2) &amp;" - " &amp; ROUND(T6+_xlfn.CONFIDENCE.T(0.05,U6,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="4">
-        <f>AVERAGE(F13:F22)</f>
+        <f>AVERAGE(F28:F37)</f>
         <v>40.9</v>
       </c>
       <c r="C7" s="8">
         <v>30</v>
       </c>
       <c r="D7" s="5">
-        <f>_xlfn.STDEV.S(F13:F22)</f>
+        <f>_xlfn.STDEV.S(F28:F37)</f>
         <v>10.514011814927954</v>
       </c>
       <c r="E7" s="6">
-        <f>MEDIAN(F13:F22)</f>
+        <f>MEDIAN(F28:F37)</f>
         <v>40.5</v>
       </c>
-      <c r="F7" s="36" t="str">
+      <c r="F7" s="146">
+        <f>IF(ISERROR(MODE(F28:F37)),"-",MODE(F28:F37))</f>
+        <v>48</v>
+      </c>
+      <c r="G7" s="36" t="str">
         <f>IF(OR(ISERROR(ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2)), ISERROR(ROUND(B7+_xlfn.CONFIDENCE.T(0.05,D7,10),2))),"-","[" &amp; ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2) &amp;" - " &amp; ROUND(B7+_xlfn.CONFIDENCE.T(0.05,D7,10),2) &amp;"]")</f>
         <v>[33,38 - 48,42]</v>
       </c>
-      <c r="G7" s="1">
-        <f>AVERAGE(G13:G22)</f>
+      <c r="H7" s="1">
+        <f>AVERAGE(G28:G37)</f>
         <v>14.1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="I7" s="8">
         <v>4</v>
       </c>
-      <c r="I7" s="2">
-        <f>_xlfn.STDEV.S(G13:G22)</f>
+      <c r="J7" s="2">
+        <f>_xlfn.STDEV.S(G28:G37)</f>
         <v>0.31622776601683789</v>
       </c>
-      <c r="J7" s="3">
-        <f>MEDIAN(G13:G22)</f>
+      <c r="K7" s="3">
+        <f>MEDIAN(G28:G37)</f>
         <v>14</v>
       </c>
-      <c r="K7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(G7-_xlfn.CONFIDENCE.T(0.05,I7,10),2)), ISERROR(ROUND(G7+_xlfn.CONFIDENCE.T(0.05,I7,10),2))),"-","[" &amp; ROUND(G7-_xlfn.CONFIDENCE.T(0.05,I7,10),2) &amp;" - " &amp; ROUND(G7+_xlfn.CONFIDENCE.T(0.05,I7,10),2) &amp;"]")</f>
+      <c r="L7" s="146">
+        <f>IF(ISERROR(MODE(G28:G37)),"-",MODE(G28:G37))</f>
+        <v>14</v>
+      </c>
+      <c r="M7" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(H7-_xlfn.CONFIDENCE.T(0.05,J7,10),2)), ISERROR(ROUND(H7+_xlfn.CONFIDENCE.T(0.05,J7,10),2))),"-","[" &amp; ROUND(H7-_xlfn.CONFIDENCE.T(0.05,J7,10),2) &amp;" - " &amp; ROUND(H7+_xlfn.CONFIDENCE.T(0.05,J7,10),2) &amp;"]")</f>
         <v>[13,87 - 14,33]</v>
       </c>
-      <c r="L7" s="8">
-        <f>AVERAGE(H13:H22)</f>
+      <c r="N7" s="8">
+        <f>AVERAGE(H28:H37)</f>
         <v>0.2</v>
       </c>
-      <c r="M7" s="8">
-        <v>1</v>
-      </c>
-      <c r="N7" s="5">
-        <f>_xlfn.STDEV.S(H13:H22)</f>
+      <c r="O7" s="8">
+        <v>2</v>
+      </c>
+      <c r="P7" s="5">
+        <f>_xlfn.STDEV.S(H28:H37)</f>
         <v>0.4216370213557839</v>
       </c>
-      <c r="O7" s="6">
-        <f>MEDIAN(H13:H22)</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(L7-_xlfn.CONFIDENCE.T(0.05,N7,10),2)), ISERROR(ROUND(L7+_xlfn.CONFIDENCE.T(0.05,N7,10),2))),"-","[" &amp; ROUND(L7-_xlfn.CONFIDENCE.T(0.05,N7,10),2) &amp;" - " &amp; ROUND(L7+_xlfn.CONFIDENCE.T(0.05,N7,10),2) &amp;"]")</f>
+      <c r="Q7" s="6">
+        <f>MEDIAN(H28:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="146">
+        <f>IF(ISERROR(MODE(H28:H37)),"-",MODE(H28:H37))</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(N7-_xlfn.CONFIDENCE.T(0.05,P7,10),2)), ISERROR(ROUND(N7+_xlfn.CONFIDENCE.T(0.05,P7,10),2))),"-","[" &amp; ROUND(N7-_xlfn.CONFIDENCE.T(0.05,P7,10),2) &amp;" - " &amp; ROUND(N7+_xlfn.CONFIDENCE.T(0.05,P7,10),2) &amp;"]")</f>
         <v>[-0,1 - 0,5]</v>
       </c>
-      <c r="Q7" s="1">
-        <f>AVERAGE(I13:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <f>_xlfn.STDEV.S(I13:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="95">
-        <f>MEDIAN(I13:I22)</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(Q7-_xlfn.CONFIDENCE.T(0.05,R7,10),2)), ISERROR(ROUND(Q7+_xlfn.CONFIDENCE.T(0.05,R7,10),2))),"-","[" &amp; ROUND(Q7-_xlfn.CONFIDENCE.T(0.05,R7,10),2) &amp;" - " &amp; ROUND(Q7+_xlfn.CONFIDENCE.T(0.05,R7,10),2) &amp;"]")</f>
+      <c r="T7" s="1">
+        <f>AVERAGE(I28:I37)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <f>_xlfn.STDEV.S(I28:I37)</f>
+        <v>0</v>
+      </c>
+      <c r="V7" s="94">
+        <f>MEDIAN(I28:I37)</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="93">
+        <f>IF(ISERROR(MODE(I28:I37)),"-",MODE(I28:I37))</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(T7-_xlfn.CONFIDENCE.T(0.05,U7,10),2)), ISERROR(ROUND(T7+_xlfn.CONFIDENCE.T(0.05,U7,10),2))),"-","[" &amp; ROUND(T7-_xlfn.CONFIDENCE.T(0.05,U7,10),2) &amp;" - " &amp; ROUND(T7+_xlfn.CONFIDENCE.T(0.05,U7,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="10">
-        <f>AVERAGE(J13:J22)</f>
+        <f>AVERAGE(J28:J37)</f>
         <v>34.200000000000003</v>
       </c>
       <c r="C8" s="25">
         <v>10</v>
       </c>
       <c r="D8" s="11">
-        <f>_xlfn.STDEV.S(J13:J22)</f>
+        <f>_xlfn.STDEV.S(J28:J37)</f>
         <v>11.602681682362155</v>
       </c>
       <c r="E8" s="12">
-        <f>MEDIAN(J13:J22)</f>
+        <f>MEDIAN(J28:J37)</f>
         <v>34.5</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="147" t="str">
+        <f>IF(ISERROR(MODE(J28:J37)),"-",MODE(J28:J37))</f>
+        <v>-</v>
+      </c>
+      <c r="G8" s="13" t="str">
         <f>IF(OR(ISERROR(ROUND(B8-_xlfn.CONFIDENCE.T(0.05,D8,10),2)), ISERROR(ROUND(B8+_xlfn.CONFIDENCE.T(0.05,D8,10),2))),"-","[" &amp; ROUND(B8-_xlfn.CONFIDENCE.T(0.05,D8,10),2) &amp;" - " &amp; ROUND(B8+_xlfn.CONFIDENCE.T(0.05,D8,10),2) &amp;"]")</f>
         <v>[25,9 - 42,5]</v>
       </c>
-      <c r="G8" s="24">
-        <f>AVERAGE(K13:K22)</f>
+      <c r="H8" s="24">
+        <f>AVERAGE(K28:K37)</f>
         <v>8</v>
       </c>
-      <c r="H8" s="25">
+      <c r="I8" s="25">
         <v>3</v>
       </c>
-      <c r="I8" s="14">
-        <f>_xlfn.STDEV.S(K13:K22)</f>
+      <c r="J8" s="14">
+        <f>_xlfn.STDEV.S(K28:K37)</f>
         <v>1.8257418583505538</v>
       </c>
-      <c r="J8" s="15">
-        <f>MEDIAN(K13:K22)</f>
+      <c r="K8" s="15">
+        <f>MEDIAN(K28:K37)</f>
         <v>7.5</v>
       </c>
-      <c r="K8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(G8-_xlfn.CONFIDENCE.T(0.05,I8,10),2)), ISERROR(ROUND(G8+_xlfn.CONFIDENCE.T(0.05,I8,10),2))),"-","[" &amp; ROUND(G8-_xlfn.CONFIDENCE.T(0.05,I8,10),2) &amp;" - " &amp; ROUND(G8+_xlfn.CONFIDENCE.T(0.05,I8,10),2) &amp;"]")</f>
+      <c r="L8" s="12">
+        <f>IF(ISERROR(MODE(K28:K37)),"-",MODE(K28:K37))</f>
+        <v>7</v>
+      </c>
+      <c r="M8" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(H8-_xlfn.CONFIDENCE.T(0.05,J8,10),2)), ISERROR(ROUND(H8+_xlfn.CONFIDENCE.T(0.05,J8,10),2))),"-","[" &amp; ROUND(H8-_xlfn.CONFIDENCE.T(0.05,J8,10),2) &amp;" - " &amp; ROUND(H8+_xlfn.CONFIDENCE.T(0.05,J8,10),2) &amp;"]")</f>
         <v>[6,69 - 9,31]</v>
       </c>
-      <c r="L8" s="25">
-        <f>AVERAGE(L13:L22)</f>
+      <c r="N8" s="25">
+        <f>AVERAGE(L28:L37)</f>
         <v>0.6</v>
       </c>
-      <c r="M8" s="25">
+      <c r="O8" s="25">
+        <v>2</v>
+      </c>
+      <c r="P8" s="11">
+        <f>_xlfn.STDEV.S(L28:L37)</f>
+        <v>0.69920589878010109</v>
+      </c>
+      <c r="Q8" s="12">
+        <f>MEDIAN(L28:L37)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="147">
+        <f>IF(ISERROR(MODE(L28:L37)),"-",MODE(L28:L37))</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(N8-_xlfn.CONFIDENCE.T(0.05,P8,10),2)), ISERROR(ROUND(N8+_xlfn.CONFIDENCE.T(0.05,P8,10),2))),"-","[" &amp; ROUND(N8-_xlfn.CONFIDENCE.T(0.05,P8,10),2) &amp;" - " &amp; ROUND(N8+_xlfn.CONFIDENCE.T(0.05,P8,10),2) &amp;"]")</f>
+        <v>[0,1 - 1,1]</v>
+      </c>
+      <c r="T8" s="24">
+        <f>AVERAGE(M28:M37)</f>
+        <v>0.7</v>
+      </c>
+      <c r="U8" s="14">
+        <f>_xlfn.STDEV.S(M28:M37)</f>
+        <v>0.48304589153964789</v>
+      </c>
+      <c r="V8" s="95">
+        <f>MEDIAN(M28:M37)</f>
         <v>1</v>
       </c>
-      <c r="N8" s="11">
-        <f>_xlfn.STDEV.S(L13:L22)</f>
-        <v>0.69920589878010109</v>
-      </c>
-      <c r="O8" s="12">
-        <f>MEDIAN(L13:L22)</f>
+      <c r="W8" s="95">
+        <f>IF(ISERROR(MODE(M28:M37)),"-",MODE(M28:M37))</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(T8-_xlfn.CONFIDENCE.T(0.05,U8,10),2)), ISERROR(ROUND(T8+_xlfn.CONFIDENCE.T(0.05,U8,10),2))),"-","[" &amp; ROUND(T8-_xlfn.CONFIDENCE.T(0.05,U8,10),2) &amp;" - " &amp; ROUND(T8+_xlfn.CONFIDENCE.T(0.05,U8,10),2) &amp;"]")</f>
+        <v>[0,35 - 1,05]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="80"/>
+      <c r="B13" s="157" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="157" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="158"/>
+      <c r="I13" s="158"/>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="148" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="150"/>
+    </row>
+    <row r="14" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="R14" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="S14" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="T14" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="104">
+        <f>MIN(B28:B37)</f>
+        <v>15</v>
+      </c>
+      <c r="C15" s="109">
+        <f>QUARTILE($B28:$B37,1)</f>
+        <v>23.5</v>
+      </c>
+      <c r="D15" s="103">
+        <f>QUARTILE($B28:$B37,2)</f>
+        <v>29.5</v>
+      </c>
+      <c r="E15" s="103">
+        <f>QUARTILE($B28:$B37,3)</f>
+        <v>34</v>
+      </c>
+      <c r="F15" s="111">
+        <f>MAX(B28:B37)</f>
+        <v>59</v>
+      </c>
+      <c r="G15" s="104">
+        <f>MIN(C28:C37)</f>
+        <v>9</v>
+      </c>
+      <c r="H15" s="105">
+        <f>QUARTILE($C28:$C37,1)</f>
+        <v>9</v>
+      </c>
+      <c r="I15" s="105">
+        <f>QUARTILE($C28:$C37,2)</f>
+        <v>9</v>
+      </c>
+      <c r="J15" s="105">
+        <f>QUARTILE($C28:$C37,3)</f>
+        <v>9</v>
+      </c>
+      <c r="K15" s="105">
+        <f>MAX($C28:$C37)</f>
+        <v>9</v>
+      </c>
+      <c r="L15" s="104">
+        <f>MIN(D28:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="114">
+        <f>QUARTILE($D28:$D37,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="108">
+        <f>QUARTILE($D28:$D37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="113">
+        <f>QUARTILE($D28:$D37,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="106">
+        <f>MAX($D28:$D37)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="104">
+        <f>MIN(E28:E37)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="103">
+        <f>QUARTILE($E28:$E37,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="103">
+        <f>QUARTILE($E28:$E37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="103">
+        <f>QUARTILE($E28:$E37,3)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="106">
+        <f>MAX($E28:$E37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="33">
+        <f>MIN(F28:F37)</f>
+        <v>29</v>
+      </c>
+      <c r="C16" s="102">
+        <f>QUARTILE($F28:$F37,1)</f>
+        <v>31.25</v>
+      </c>
+      <c r="D16" s="5">
+        <f>QUARTILE($F28:$F37,2)</f>
+        <v>40.5</v>
+      </c>
+      <c r="E16" s="34">
+        <f>QUARTILE($F28:$F37,3)</f>
+        <v>48</v>
+      </c>
+      <c r="F16" s="112">
+        <f>MAX($F28:$F37)</f>
+        <v>58</v>
+      </c>
+      <c r="G16" s="33">
+        <f>MIN(G28:G37)</f>
+        <v>14</v>
+      </c>
+      <c r="H16" s="110">
+        <f>QUARTILE($G28:$G37,1)</f>
+        <v>14</v>
+      </c>
+      <c r="I16" s="2">
+        <f>QUARTILE($G28:$G37,2)</f>
+        <v>14</v>
+      </c>
+      <c r="J16" s="100">
+        <f>QUARTILE($G28:$G37,3)</f>
+        <v>14</v>
+      </c>
+      <c r="K16" s="100">
+        <f>MAX($G28:$G37)</f>
+        <v>15</v>
+      </c>
+      <c r="L16" s="33">
+        <f>MIN(H28:H37)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="115">
+        <f>QUARTILE($H28:$H37,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <f>QUARTILE($H28:$H37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="94">
+        <f>QUARTILE($H28:$H37,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="107">
+        <f>MAX($H28:$H37)</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="33">
+        <f>MIN(I28:I37)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="5">
+        <f>QUARTILE($I28:$I37,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="5">
+        <f>QUARTILE($I28:$I37,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="5">
+        <f>QUARTILE($I28:$I37,3)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="107">
+        <f>MAX($I28:$I37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="118">
+        <f>MIN(J28:J37)</f>
+        <v>16</v>
+      </c>
+      <c r="C17" s="119">
+        <f>QUARTILE($J28:$J37,1)</f>
+        <v>25.25</v>
+      </c>
+      <c r="D17" s="120">
+        <f>QUARTILE($J28:$J37,2)</f>
+        <v>34.5</v>
+      </c>
+      <c r="E17" s="120">
+        <f>QUARTILE($J28:$J37,3)</f>
+        <v>41.5</v>
+      </c>
+      <c r="F17" s="121">
+        <f>MAX($J28:$J37)</f>
+        <v>55</v>
+      </c>
+      <c r="G17" s="118">
+        <f>MIN(K28:K37)</f>
+        <v>7</v>
+      </c>
+      <c r="H17" s="122">
+        <f>QUARTILE($K28:$K37,1)</f>
+        <v>7</v>
+      </c>
+      <c r="I17" s="123">
+        <f>QUARTILE($K28:$K37,2)</f>
+        <v>7.5</v>
+      </c>
+      <c r="J17" s="124">
+        <f>QUARTILE($K28:$K37,3)</f>
+        <v>8</v>
+      </c>
+      <c r="K17" s="124">
+        <f>MAX($K28:$K37)</f>
+        <v>13</v>
+      </c>
+      <c r="L17" s="118">
+        <f>MIN(L28:L37)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="125">
+        <f>QUARTILE($L28:$L37,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="126">
+        <f>QUARTILE($L28:$L37,2)</f>
         <v>0.5</v>
       </c>
-      <c r="P8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(L8-_xlfn.CONFIDENCE.T(0.05,N8,10),2)), ISERROR(ROUND(L8+_xlfn.CONFIDENCE.T(0.05,N8,10),2))),"-","[" &amp; ROUND(L8-_xlfn.CONFIDENCE.T(0.05,N8,10),2) &amp;" - " &amp; ROUND(L8+_xlfn.CONFIDENCE.T(0.05,N8,10),2) &amp;"]")</f>
-        <v>[0,1 - 1,1]</v>
-      </c>
-      <c r="Q8" s="24">
-        <f>AVERAGE(M13:M22)</f>
-        <v>0.7</v>
-      </c>
-      <c r="R8" s="14">
-        <f>_xlfn.STDEV.S(M13:M22)</f>
-        <v>0.48304589153964789</v>
-      </c>
-      <c r="S8" s="96">
-        <f>MEDIAN(M13:M22)</f>
+      <c r="O17" s="127">
+        <f>QUARTILE($L28:$L37,3)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(Q8-_xlfn.CONFIDENCE.T(0.05,R8,10),2)), ISERROR(ROUND(Q8+_xlfn.CONFIDENCE.T(0.05,R8,10),2))),"-","[" &amp; ROUND(Q8-_xlfn.CONFIDENCE.T(0.05,R8,10),2) &amp;" - " &amp; ROUND(Q8+_xlfn.CONFIDENCE.T(0.05,R8,10),2) &amp;"]")</f>
-        <v>[0,35 - 1,05]</v>
+      <c r="P17" s="128">
+        <f>MAX($L28:$L37)</f>
+        <v>2</v>
+      </c>
+      <c r="Q17" s="118">
+        <f>MIN(M28:M37)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="120">
+        <f>QUARTILE($M28:$M37,1)</f>
+        <v>0.25</v>
+      </c>
+      <c r="S17" s="120">
+        <f>QUARTILE($M28:$M37,2)</f>
+        <v>1</v>
+      </c>
+      <c r="T17" s="120">
+        <f>QUARTILE($M28:$M37,3)</f>
+        <v>1</v>
+      </c>
+      <c r="U17" s="128">
+        <f>MAX($M28:$M37)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="80"/>
-      <c r="B11" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="103" t="s">
+    <row r="18" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="129" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="130">
+        <f>B15</f>
+        <v>15</v>
+      </c>
+      <c r="C18" s="131">
+        <f>C15-B15</f>
+        <v>8.5</v>
+      </c>
+      <c r="D18" s="131">
+        <f t="shared" ref="D18:F18" si="0">D15-C15</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="131">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="132">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G18" s="131">
+        <f>G15</f>
+        <v>9</v>
+      </c>
+      <c r="H18" s="131">
+        <f>H15-G15</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="131">
+        <f t="shared" ref="I18:K18" si="1">I15-H15</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="131">
+        <f>L15</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="131">
+        <f>M15-L15</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="131">
+        <f t="shared" ref="N18:P18" si="2">N15-M15</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="131">
+        <f>Q15</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="131">
+        <f>R15-Q15</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="131">
+        <f t="shared" ref="S18:U18" si="3">S15-R15</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="131">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="132">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="117" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="133">
+        <f>B16</f>
+        <v>29</v>
+      </c>
+      <c r="C19" s="134">
+        <f t="shared" ref="C19:F20" si="4">C16-B16</f>
+        <v>2.25</v>
+      </c>
+      <c r="D19" s="134">
+        <f t="shared" si="4"/>
+        <v>9.25</v>
+      </c>
+      <c r="E19" s="134">
+        <f t="shared" si="4"/>
+        <v>7.5</v>
+      </c>
+      <c r="F19" s="135">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="134">
+        <f>G16</f>
+        <v>14</v>
+      </c>
+      <c r="H19" s="134">
+        <f t="shared" ref="H19:K20" si="5">H16-G16</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="134">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="135">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="103" t="s">
+      <c r="L19" s="134">
+        <f t="shared" ref="L19:L20" si="6">L16</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="134">
+        <f t="shared" ref="M19:P20" si="7">M16-L16</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="135">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="134">
+        <f t="shared" ref="Q19:Q20" si="8">Q16</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="134">
+        <f t="shared" ref="R19:U20" si="9">R16-Q16</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="134">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="135">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="136">
+        <f t="shared" ref="B20" si="10">B17</f>
+        <v>16</v>
+      </c>
+      <c r="C20" s="137">
+        <f t="shared" si="4"/>
+        <v>9.25</v>
+      </c>
+      <c r="D20" s="137">
+        <f t="shared" si="4"/>
+        <v>9.25</v>
+      </c>
+      <c r="E20" s="137">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F20" s="138">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="G20" s="137">
+        <f t="shared" ref="G20" si="11">G17</f>
+        <v>7</v>
+      </c>
+      <c r="H20" s="137">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="137">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="J20" s="137">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K20" s="138">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L20" s="137">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="137">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="137">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="137">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="P20" s="138">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="137">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="139">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="S20" s="139">
+        <f t="shared" si="9"/>
+        <v>0.75</v>
+      </c>
+      <c r="T20" s="139">
+        <f>T17-S17</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="140">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="79"/>
+      <c r="B26" s="160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="161"/>
+      <c r="D26" s="161"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="160" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="105"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="162"/>
     </row>
-    <row r="12" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="23"/>
-      <c r="B12" s="46" t="s">
+    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="23"/>
+      <c r="B27" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D27" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E27" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F27" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H27" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I27" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="47" t="s">
+      <c r="J27" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="49" t="s">
+      <c r="L27" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M27" s="48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B28" s="41">
         <v>31</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C28" s="35">
         <v>9</v>
       </c>
-      <c r="D13" s="35">
-        <v>0</v>
-      </c>
-      <c r="E13" s="86">
-        <v>0</v>
-      </c>
-      <c r="F13" s="41">
+      <c r="D28" s="35">
+        <v>0</v>
+      </c>
+      <c r="E28" s="85">
+        <v>0</v>
+      </c>
+      <c r="F28" s="41">
         <v>30</v>
       </c>
-      <c r="G13" s="87">
+      <c r="G28" s="86">
         <v>14</v>
       </c>
-      <c r="H13" s="35">
-        <v>0</v>
-      </c>
-      <c r="I13" s="36">
-        <v>0</v>
-      </c>
-      <c r="J13" s="41">
+      <c r="H28" s="35">
+        <v>0</v>
+      </c>
+      <c r="I28" s="36">
+        <v>0</v>
+      </c>
+      <c r="J28" s="41">
         <v>16</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K28" s="35">
         <v>7</v>
       </c>
-      <c r="L13" s="35">
-        <v>0</v>
-      </c>
-      <c r="M13" s="86">
+      <c r="L28" s="35">
+        <v>0</v>
+      </c>
+      <c r="M28" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B29" s="9">
         <v>29</v>
       </c>
-      <c r="C14" s="88">
+      <c r="C29" s="87">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9">
         <v>36</v>
       </c>
-      <c r="G14" s="88">
+      <c r="G29" s="87">
         <v>14</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H29" s="6">
         <v>1</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="9">
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
         <v>29</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K29" s="87">
         <v>8</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L29" s="6">
         <v>1</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M29" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B30" s="9">
         <v>30</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C30" s="87">
         <v>9</v>
       </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9">
         <v>48</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G30" s="87">
         <v>14</v>
       </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="9">
         <v>40</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K30" s="87">
         <v>8</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L30" s="6">
         <v>1</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M30" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B31" s="9">
         <v>25</v>
       </c>
-      <c r="C16" s="88">
+      <c r="C31" s="87">
         <v>9</v>
       </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
         <v>58</v>
       </c>
-      <c r="G16" s="88">
+      <c r="G31" s="87">
         <v>15</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H31" s="6">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9">
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
         <v>34</v>
       </c>
-      <c r="K16" s="88">
+      <c r="K31" s="87">
         <v>7</v>
       </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B32" s="9">
         <f>48-5</f>
         <v>43</v>
       </c>
-      <c r="C17" s="88">
+      <c r="C32" s="87">
         <v>9</v>
       </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9">
         <v>48</v>
       </c>
-      <c r="G17" s="88">
+      <c r="G32" s="87">
         <v>14</v>
       </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9">
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="9">
         <f>37-2</f>
         <v>35</v>
       </c>
-      <c r="K17" s="88">
+      <c r="K32" s="87">
         <v>7</v>
       </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B33" s="9">
         <v>23</v>
       </c>
-      <c r="C18" s="88">
+      <c r="C33" s="87">
         <v>9</v>
       </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9">
         <v>45</v>
       </c>
-      <c r="G18" s="88">
+      <c r="G33" s="87">
         <v>14</v>
       </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9">
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="9">
         <v>55</v>
       </c>
-      <c r="K18" s="88">
+      <c r="K33" s="87">
         <v>8</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L33" s="6">
         <v>1</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B34" s="9">
         <v>15</v>
       </c>
-      <c r="C19" s="88">
+      <c r="C34" s="87">
         <v>9</v>
       </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9">
         <v>29</v>
       </c>
-      <c r="G19" s="88">
+      <c r="G34" s="87">
         <v>14</v>
       </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9">
+      <c r="H34" s="6">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
         <v>23</v>
       </c>
-      <c r="K19" s="88">
+      <c r="K34" s="87">
         <v>7</v>
       </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="19" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B35" s="9">
         <v>35</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C35" s="87">
         <v>9</v>
       </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9">
         <v>52</v>
       </c>
-      <c r="G20" s="88">
+      <c r="G35" s="87">
         <v>14</v>
       </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9">
+      <c r="H35" s="6">
+        <v>0</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="9">
         <v>42</v>
       </c>
-      <c r="K20" s="88">
+      <c r="K35" s="87">
         <v>7</v>
       </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B36" s="9">
         <v>21</v>
       </c>
-      <c r="C21" s="88">
+      <c r="C36" s="87">
         <v>9</v>
       </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9">
         <v>32</v>
       </c>
-      <c r="G21" s="88">
+      <c r="G36" s="87">
         <v>14</v>
       </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9">
+      <c r="H36" s="6">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="9">
         <v>44</v>
       </c>
-      <c r="K21" s="88">
+      <c r="K36" s="87">
         <v>13</v>
       </c>
-      <c r="L21" s="88">
+      <c r="L36" s="87">
         <v>2</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M36" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B37" s="22">
         <v>59</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C37" s="88">
         <v>9</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="90">
-        <v>0</v>
-      </c>
-      <c r="F22" s="91">
+      <c r="D37" s="12">
+        <v>0</v>
+      </c>
+      <c r="E37" s="89">
+        <v>0</v>
+      </c>
+      <c r="F37" s="90">
         <v>31</v>
       </c>
-      <c r="G22" s="89">
+      <c r="G37" s="88">
         <v>14</v>
       </c>
-      <c r="H22" s="89">
-        <v>0</v>
-      </c>
-      <c r="I22" s="90">
-        <v>0</v>
-      </c>
-      <c r="J22" s="91">
+      <c r="H37" s="88">
+        <v>0</v>
+      </c>
+      <c r="I37" s="89">
+        <v>0</v>
+      </c>
+      <c r="J37" s="90">
         <v>24</v>
       </c>
-      <c r="K22" s="89">
+      <c r="K37" s="88">
         <v>8</v>
       </c>
-      <c r="L22" s="89">
+      <c r="L37" s="88">
         <v>1</v>
       </c>
-      <c r="M22" s="90">
+      <c r="M37" s="89">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-      <c r="F46" s="82"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="82"/>
-      <c r="I46" s="82"/>
-      <c r="J46" s="82"/>
-      <c r="K46" s="82"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="82"/>
-      <c r="N46" s="82"/>
-      <c r="O46" s="82"/>
-      <c r="P46" s="82"/>
-      <c r="Q46" s="82"/>
-      <c r="R46" s="82"/>
-      <c r="S46" s="82"/>
-      <c r="T46" s="82"/>
-      <c r="U46" s="82"/>
-      <c r="V46" s="82"/>
-      <c r="W46" s="82"/>
-      <c r="X46" s="82"/>
-      <c r="Y46" s="82"/>
-      <c r="Z46" s="82"/>
-      <c r="AA46" s="82"/>
-      <c r="AB46" s="82"/>
-      <c r="AC46" s="82"/>
+    <row r="38" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF60" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG60" s="178"/>
+      <c r="AH60" s="178"/>
+      <c r="AI60" s="178"/>
+      <c r="AJ60" s="178"/>
     </row>
-    <row r="48" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="81"/>
-      <c r="B49" s="106" t="s">
+    <row r="61" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF61" s="170" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG61" s="171"/>
+      <c r="AH61" s="171"/>
+      <c r="AI61" s="171"/>
+      <c r="AJ61" s="172"/>
+    </row>
+    <row r="62" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF62" s="173" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG62" s="174" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH62" s="173" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI62" s="173" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ62" s="173" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A63" s="81"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
+      <c r="M63" s="81"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="81"/>
+      <c r="P63" s="81"/>
+      <c r="Q63" s="81"/>
+      <c r="R63" s="81"/>
+      <c r="S63" s="81"/>
+      <c r="T63" s="81"/>
+      <c r="U63" s="81"/>
+      <c r="V63" s="81"/>
+      <c r="W63" s="81"/>
+      <c r="X63" s="81"/>
+      <c r="Y63" s="81"/>
+      <c r="Z63" s="81"/>
+      <c r="AA63" s="81"/>
+      <c r="AB63" s="81"/>
+      <c r="AC63" s="81"/>
+      <c r="AE63" s="175" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF63" s="141">
+        <f>IF(ISERROR(B6-ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2)),"-",B6-ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2))</f>
+        <v>8.9400000000000013</v>
+      </c>
+      <c r="AG63" s="179" t="str">
+        <f>IF(ISERROR(H6-ROUND(H6-_xlfn.CONFIDENCE.T(0.05,J6,10),2)),"-",H6-ROUND(H6-_xlfn.CONFIDENCE.T(0.05,J6,10),2))</f>
+        <v>-</v>
+      </c>
+      <c r="AH63" s="179" t="str">
+        <f>IF(ISERROR(N6-ROUND(N6-_xlfn.CONFIDENCE.T(0.05,P6,10),2)),"-",N6-ROUND(N6-_xlfn.CONFIDENCE.T(0.05,P6,10),2))</f>
+        <v>-</v>
+      </c>
+      <c r="AI63" s="180" t="str">
+        <f>IF(ISERROR(T6-ROUND(T6-_xlfn.CONFIDENCE.T(0.05,U6,10),2)),"-",T6-ROUND(T6-_xlfn.CONFIDENCE.T(0.05,U6,10),2))</f>
+        <v>-</v>
+      </c>
+      <c r="AJ63" s="168">
+        <f t="shared" ref="AJ63:AJ64" si="12">G68-ROUND(G68-_xlfn.CONFIDENCE.T(0.05,H68,10),2)</f>
+        <v>0.48000000000000043</v>
+      </c>
+    </row>
+    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AE64" s="176" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF64" s="141">
+        <f t="shared" ref="AF64:AF65" si="13">IF(ISERROR(B7-ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2)),"-",B7-ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2))</f>
+        <v>7.519999999999996</v>
+      </c>
+      <c r="AG64" s="142">
+        <f t="shared" ref="AG64:AG65" si="14">IF(ISERROR(H7-ROUND(H7-_xlfn.CONFIDENCE.T(0.05,J7,10),2)),"-",H7-ROUND(H7-_xlfn.CONFIDENCE.T(0.05,J7,10),2))</f>
+        <v>0.23000000000000043</v>
+      </c>
+      <c r="AH64" s="142">
+        <f t="shared" ref="AH64:AH65" si="15">IF(ISERROR(N7-ROUND(N7-_xlfn.CONFIDENCE.T(0.05,P7,10),2)),"-",N7-ROUND(N7-_xlfn.CONFIDENCE.T(0.05,P7,10),2))</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AI64" s="144" t="str">
+        <f t="shared" ref="AI64:AI65" si="16">IF(ISERROR(T7-ROUND(T7-_xlfn.CONFIDENCE.T(0.05,U7,10),2)),"-",T7-ROUND(T7-_xlfn.CONFIDENCE.T(0.05,U7,10),2))</f>
+        <v>-</v>
+      </c>
+      <c r="AJ64" s="169">
+        <f>G69-ROUND(G69-_xlfn.CONFIDENCE.T(0.05,H69,10),2)</f>
+        <v>0.35000000000000053</v>
+      </c>
+    </row>
+    <row r="65" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE65" s="177" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF65" s="143">
+        <f t="shared" si="13"/>
+        <v>8.3000000000000043</v>
+      </c>
+      <c r="AG65" s="143">
+        <f t="shared" si="14"/>
+        <v>1.3099999999999996</v>
+      </c>
+      <c r="AH65" s="143">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI65" s="145">
+        <f t="shared" si="16"/>
+        <v>0.35</v>
+      </c>
+      <c r="AJ65" s="167">
+        <f>G70-ROUND(G70-_xlfn.CONFIDENCE.T(0.05,H70,10),2)</f>
+        <v>0.50999999999999979</v>
+      </c>
+    </row>
+    <row r="66" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="80"/>
+      <c r="B66" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="106" t="s">
+      <c r="C66" s="149"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="150"/>
+      <c r="G66" s="148" t="s">
         <v>22</v>
       </c>
-      <c r="H49" s="98"/>
-      <c r="I49" s="98"/>
-      <c r="J49" s="98"/>
-      <c r="K49" s="99"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="149"/>
+      <c r="J66" s="149"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="149"/>
+      <c r="M66" s="149"/>
+      <c r="N66" s="150"/>
     </row>
-    <row r="50" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="46" t="s">
+    <row r="67" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C67" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D67" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E67" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="48" t="s">
+      <c r="F67" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G67" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="163" t="s">
         <v>28</v>
       </c>
-      <c r="H50" s="47" t="s">
+      <c r="K67" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="I50" s="49" t="s">
+      <c r="L67" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="49" t="s">
+      <c r="M67" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="48" t="s">
+      <c r="N67" s="48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="51">
-        <f>COUNTIF($B58:$B67,B$50)/10</f>
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="50">
+        <f>COUNTIF($B75:$B84,B$67)/10</f>
         <v>0.7</v>
       </c>
-      <c r="C51" s="52">
-        <f>COUNTIF($B58:$B67,C$50)/10</f>
+      <c r="C68" s="51">
+        <f>COUNTIF($B75:$B84,C$67)/10</f>
         <v>0.1</v>
       </c>
-      <c r="D51" s="52">
-        <f>COUNTIF($B58:$B67,D$50)/10</f>
+      <c r="D68" s="51">
+        <f>COUNTIF($B75:$B84,D$67)/10</f>
         <v>0.1</v>
       </c>
-      <c r="E51" s="52">
-        <f>COUNTIF($B58:$B67,E$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="53">
-        <f>COUNTIF($B58:$B67,F$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="54">
-        <f>COUNTIF($E58:$E67,G$50)/10</f>
+      <c r="E68" s="51">
+        <f>COUNTIF($B75:$B84,E$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="52">
+        <f>COUNTIF($B75:$B84,F$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="164">
+        <f>AVERAGE(J75:J84)</f>
+        <v>4.7</v>
+      </c>
+      <c r="H68" s="34">
+        <f>_xlfn.STDEV.S(J75:J84)</f>
+        <v>0.6749485577105524</v>
+      </c>
+      <c r="I68" s="35" t="str">
+        <f>IF(OR(ISERROR(ROUND(G68-_xlfn.CONFIDENCE.T(0.05,H68,10),2)), ISERROR(ROUND(G68+_xlfn.CONFIDENCE.T(0.05,H68,10),2))),"-","[" &amp; ROUND(G68-_xlfn.CONFIDENCE.T(0.05,H68,10),2) &amp;" - " &amp; ROUND(G68+_xlfn.CONFIDENCE.T(0.05,H68,10),2) &amp;"]")</f>
+        <v>[4,22 - 5,18]</v>
+      </c>
+      <c r="J68" s="53">
+        <f>COUNTIF($E75:$E84,J$67)/10</f>
         <v>0.8</v>
       </c>
-      <c r="H51" s="54">
-        <f>COUNTIF($E58:$E67,H$50)/10</f>
+      <c r="K68" s="53">
+        <f>COUNTIF($E75:$E84,K$67)/10</f>
         <v>0.1</v>
       </c>
-      <c r="I51" s="54">
-        <f>COUNTIF($E58:$E67,I$50)/10</f>
+      <c r="L68" s="53">
+        <f>COUNTIF($E75:$E84,L$67)/10</f>
         <v>0.1</v>
       </c>
-      <c r="J51" s="54">
-        <f>COUNTIF($E58:$E67,J$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="55">
-        <f>COUNTIF($E58:$E67,K$50)/10</f>
+      <c r="M68" s="53">
+        <f>COUNTIF($E75:$E84,M$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="54">
+        <f>COUNTIF($E75:$E84,N$67)/10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="16" t="s">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A69" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="56">
-        <f>COUNTIF($C58:$C67,B$50)/10</f>
+      <c r="B69" s="55">
+        <f>COUNTIF($C75:$C84,B$67)/10</f>
         <v>0.7</v>
       </c>
-      <c r="C52" s="57">
-        <f>COUNTIF($C58:$C67,C$50)/10</f>
+      <c r="C69" s="56">
+        <f>COUNTIF($C75:$C84,C$67)/10</f>
         <v>0.3</v>
       </c>
-      <c r="D52" s="57">
-        <f>COUNTIF($C58:$C67,D$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="57">
-        <f>COUNTIF($C58:$C67,E$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="58">
-        <f>COUNTIF($C58:$C67,F$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="59">
-        <f>COUNTIF(F58:F67,G$50)/10</f>
+      <c r="D69" s="56">
+        <f>COUNTIF($C75:$C84,D$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="56">
+        <f>COUNTIF($C75:$C84,E$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F69" s="57">
+        <f>COUNTIF($C75:$C84,F$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="165">
+        <f>AVERAGE(K75:K84)</f>
+        <v>4.7</v>
+      </c>
+      <c r="H69" s="5">
+        <f>_xlfn.STDEV.S(K75:K84)</f>
+        <v>0.48304589153964794</v>
+      </c>
+      <c r="I69" s="35" t="str">
+        <f t="shared" ref="I69:I70" si="17">IF(OR(ISERROR(ROUND(G69-_xlfn.CONFIDENCE.T(0.05,H69,10),2)), ISERROR(ROUND(G69+_xlfn.CONFIDENCE.T(0.05,H69,10),2))),"-","[" &amp; ROUND(G69-_xlfn.CONFIDENCE.T(0.05,H69,10),2) &amp;" - " &amp; ROUND(G69+_xlfn.CONFIDENCE.T(0.05,H69,10),2) &amp;"]")</f>
+        <v>[4,35 - 5,05]</v>
+      </c>
+      <c r="J69" s="58">
+        <f>COUNTIF(F75:F84,J$67)/10</f>
         <v>0.7</v>
       </c>
-      <c r="H52" s="59">
-        <f>COUNTIF($F58:$F67,H$50)/10</f>
+      <c r="K69" s="58">
+        <f>COUNTIF($F75:$F84,K$67)/10</f>
         <v>0.3</v>
       </c>
-      <c r="I52" s="59">
-        <f>COUNTIF($F58:$F67,I$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="59">
-        <f>COUNTIF($F58:$F67,J$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="60">
-        <f>COUNTIF($F58:$F67,K$50)/10</f>
+      <c r="L69" s="58">
+        <f>COUNTIF($F75:$F84,L$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="58">
+        <f>COUNTIF($F75:$F84,M$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="59">
+        <f>COUNTIF($F75:$F84,N$67)/10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="17" t="s">
+    <row r="70" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="61">
-        <f>COUNTIF($D58:$D67,B$50)/10</f>
+      <c r="B70" s="60">
+        <f>COUNTIF($D75:$D84,B$67)/10</f>
         <v>0.3</v>
       </c>
-      <c r="C53" s="62">
-        <f>COUNTIF($D58:$D67,C$50)/10</f>
+      <c r="C70" s="61">
+        <f>COUNTIF($D75:$D84,C$67)/10</f>
         <v>0.7</v>
       </c>
-      <c r="D53" s="62">
-        <f>COUNTIF($D58:$D67,D$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="62">
-        <f>COUNTIF($D58:$D67,E$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="63">
-        <f>COUNTIF($D58:$D67,F$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="64">
-        <f>COUNTIF($G58:$G67,G$50)/10</f>
+      <c r="D70" s="61">
+        <f>COUNTIF($D75:$D84,D$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="61">
+        <f>COUNTIF($D75:$D84,E$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F70" s="62">
+        <f>COUNTIF($D75:$D84,F$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="166">
+        <f>AVERAGE(L75:L84)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H70" s="11">
+        <f>_xlfn.STDEV.S(L75:L84)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="I70" s="12" t="str">
+        <f t="shared" si="17"/>
+        <v>[3,99 - 5,01]</v>
+      </c>
+      <c r="J70" s="63">
+        <f>COUNTIF($G75:$G84,J$67)/10</f>
         <v>0.6</v>
       </c>
-      <c r="H53" s="64">
-        <f>COUNTIF($G58:$G67,H$50)/10</f>
+      <c r="K70" s="63">
+        <f>COUNTIF($G75:$G84,K$67)/10</f>
         <v>0.3</v>
       </c>
-      <c r="I53" s="64">
-        <f>COUNTIF($G58:$G67,I$50)/10</f>
+      <c r="L70" s="63">
+        <f>COUNTIF($G75:$G84,L$67)/10</f>
         <v>0.1</v>
       </c>
-      <c r="J53" s="64">
-        <f>COUNTIF($G58:$G67,J$50)/10</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="65">
-        <f>COUNTIF($G58:$G67,K$50)/10</f>
+      <c r="M70" s="63">
+        <f>COUNTIF($G75:$G84,M$67)/10</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="64">
+        <f>COUNTIF($G75:$G84,N$67)/10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="81"/>
-      <c r="B56" s="100" t="s">
+    <row r="72" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="80"/>
+      <c r="B73" s="154" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="101"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="100" t="s">
+      <c r="C73" s="155"/>
+      <c r="D73" s="156"/>
+      <c r="E73" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="101"/>
-      <c r="G56" s="102"/>
+      <c r="F73" s="155"/>
+      <c r="G73" s="156"/>
+      <c r="J73" s="154" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="155"/>
+      <c r="L73" s="156"/>
     </row>
-    <row r="57" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C57" s="47" t="s">
+    <row r="74" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D74" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E57" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57" s="47" t="s">
+      <c r="E74" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="G57" s="48" t="s">
+      <c r="G74" s="48" t="s">
         <v>2</v>
       </c>
+      <c r="J74" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K74" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L74" s="48" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="20" t="s">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A75" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B75" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C75" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D58" s="44" t="s">
+      <c r="D75" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="45" t="s">
+      <c r="E75" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="43" t="s">
+      <c r="F75" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G58" s="44" t="s">
+      <c r="G75" s="44" t="s">
         <v>29</v>
       </c>
+      <c r="I75" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" s="45">
+        <v>3</v>
+      </c>
+      <c r="K75" s="43">
+        <v>4</v>
+      </c>
+      <c r="L75" s="44">
+        <v>4</v>
+      </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="19" t="s">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A76" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B76" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="27" t="s">
+      <c r="C76" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D76" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E59" s="29" t="s">
+      <c r="E76" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F76" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="28" t="s">
+      <c r="G76" s="28" t="s">
         <v>25</v>
       </c>
+      <c r="I76" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="29">
+        <v>4</v>
+      </c>
+      <c r="K76" s="27">
+        <v>4</v>
+      </c>
+      <c r="L76" s="28">
+        <v>3</v>
+      </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="19" t="s">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A77" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B77" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C77" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D77" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E77" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F77" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="28" t="s">
+      <c r="G77" s="28" t="s">
         <v>29</v>
       </c>
+      <c r="I77" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="26">
+        <v>5</v>
+      </c>
+      <c r="K77" s="29">
+        <v>5</v>
+      </c>
+      <c r="L77" s="28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A78" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B78" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="27" t="s">
+      <c r="C78" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D78" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E61" s="26" t="s">
+      <c r="E78" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F78" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G61" s="28" t="s">
+      <c r="G78" s="28" t="s">
         <v>28</v>
       </c>
+      <c r="I78" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J78" s="26">
+        <v>5</v>
+      </c>
+      <c r="K78" s="29">
+        <v>5</v>
+      </c>
+      <c r="L78" s="28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A79" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="26" t="s">
+      <c r="B79" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C79" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D79" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E79" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F79" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G62" s="28" t="s">
+      <c r="G79" s="28" t="s">
         <v>28</v>
       </c>
+      <c r="I79" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" s="26">
+        <v>5</v>
+      </c>
+      <c r="K79" s="29">
+        <v>5</v>
+      </c>
+      <c r="L79" s="28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A80" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B63" s="26" t="s">
+      <c r="B80" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="C80" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D80" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="26" t="s">
+      <c r="E80" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F80" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G63" s="28" t="s">
+      <c r="G80" s="28" t="s">
         <v>28</v>
       </c>
+      <c r="I80" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="26">
+        <v>5</v>
+      </c>
+      <c r="K80" s="29">
+        <v>5</v>
+      </c>
+      <c r="L80" s="28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="19" t="s">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B81" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="C81" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D81" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E64" s="26" t="s">
+      <c r="E81" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F81" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G64" s="28" t="s">
+      <c r="G81" s="28" t="s">
         <v>28</v>
       </c>
+      <c r="I81" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J81" s="26">
+        <v>5</v>
+      </c>
+      <c r="K81" s="29">
+        <v>5</v>
+      </c>
+      <c r="L81" s="28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="19" t="s">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B82" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="29" t="s">
+      <c r="C82" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D82" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="26" t="s">
+      <c r="E82" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F82" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G65" s="28" t="s">
+      <c r="G82" s="28" t="s">
         <v>29</v>
       </c>
+      <c r="I82" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="26">
+        <v>5</v>
+      </c>
+      <c r="K82" s="29">
+        <v>5</v>
+      </c>
+      <c r="L82" s="28">
+        <v>4</v>
+      </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="19" t="s">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B83" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="29" t="s">
+      <c r="C83" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D83" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="26" t="s">
+      <c r="E83" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F66" s="29" t="s">
+      <c r="F83" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G66" s="28" t="s">
+      <c r="G83" s="28" t="s">
         <v>28</v>
       </c>
+      <c r="I83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" s="26">
+        <v>5</v>
+      </c>
+      <c r="K83" s="29">
+        <v>5</v>
+      </c>
+      <c r="L83" s="28">
+        <v>5</v>
+      </c>
     </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="21" t="s">
+    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B84" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C84" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D84" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E84" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F67" s="31" t="s">
+      <c r="F84" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G67" s="32" t="s">
+      <c r="G84" s="32" t="s">
         <v>28</v>
       </c>
+      <c r="I84" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="30">
+        <v>5</v>
+      </c>
+      <c r="K84" s="31">
+        <v>4</v>
+      </c>
+      <c r="L84" s="32">
+        <v>5</v>
+      </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
-      <c r="B91" s="82"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
-      <c r="J91" s="82"/>
-      <c r="K91" s="82"/>
-      <c r="L91" s="82"/>
-      <c r="M91" s="82"/>
-      <c r="N91" s="82"/>
-      <c r="O91" s="82"/>
-      <c r="P91" s="82"/>
-      <c r="Q91" s="82"/>
-      <c r="R91" s="82"/>
-      <c r="S91" s="82"/>
-      <c r="T91" s="82"/>
-      <c r="U91" s="82"/>
-      <c r="V91" s="82"/>
-      <c r="W91" s="82"/>
-      <c r="X91" s="82"/>
-      <c r="Y91" s="82"/>
-      <c r="Z91" s="82"/>
-      <c r="AA91" s="82"/>
-      <c r="AB91" s="82"/>
-      <c r="AC91" s="82"/>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A108" s="81"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="81"/>
+      <c r="D108" s="81"/>
+      <c r="E108" s="81"/>
+      <c r="F108" s="81"/>
+      <c r="G108" s="81"/>
+      <c r="H108" s="81"/>
+      <c r="I108" s="81"/>
+      <c r="J108" s="81"/>
+      <c r="K108" s="81"/>
+      <c r="L108" s="81"/>
+      <c r="M108" s="81"/>
+      <c r="N108" s="81"/>
+      <c r="O108" s="81"/>
+      <c r="P108" s="81"/>
+      <c r="Q108" s="81"/>
+      <c r="R108" s="81"/>
+      <c r="S108" s="81"/>
+      <c r="T108" s="81"/>
+      <c r="U108" s="81"/>
+      <c r="V108" s="81"/>
+      <c r="W108" s="81"/>
+      <c r="X108" s="81"/>
+      <c r="Y108" s="81"/>
+      <c r="Z108" s="81"/>
+      <c r="AA108" s="81"/>
+      <c r="AB108" s="81"/>
+      <c r="AC108" s="81"/>
     </row>
-    <row r="93" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="94" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="75"/>
-      <c r="B94" s="77" t="s">
+    <row r="110" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="111" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="74"/>
+      <c r="B111" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="77" t="s">
+      <c r="C111" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="D94" s="78" t="s">
+      <c r="D111" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E94" s="78" t="s">
+      <c r="E111" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F94" s="79" t="s">
+      <c r="F111" s="78" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A95" s="18">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A112" s="18">
         <v>1</v>
       </c>
-      <c r="B95" s="51">
-        <f>COUNTIF($B105:$B114,B$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C95" s="52">
-        <f>COUNTIF($B105:$B114,C$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D95" s="52">
-        <f>COUNTIF($B105:$B114,D$94)/10</f>
+      <c r="B112" s="50">
+        <f>COUNTIF($B122:$B131,B$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C112" s="51">
+        <f>COUNTIF($B122:$B131,C$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D112" s="51">
+        <f>COUNTIF($B122:$B131,D$111)/10</f>
         <v>0.4</v>
       </c>
-      <c r="E95" s="52">
-        <f>COUNTIF($B105:$B114,E$94)/10</f>
+      <c r="E112" s="51">
+        <f>COUNTIF($B122:$B131,E$111)/10</f>
         <v>0.3</v>
       </c>
-      <c r="F95" s="76">
-        <f>COUNTIF($B105:$B114,F$94)/10</f>
+      <c r="F112" s="75">
+        <f>COUNTIF($B122:$B131,F$111)/10</f>
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A96" s="16">
-        <v>2</v>
-      </c>
-      <c r="B96" s="51">
-        <f>COUNTIF($C105:$C114,B$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C96" s="57">
-        <f>COUNTIF($C105:$C114,C$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D96" s="57">
-        <f>COUNTIF($C105:$C114,D$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="57">
-        <f>COUNTIF($C105:$C114,E$94)/10</f>
-        <v>0.6</v>
-      </c>
-      <c r="F96" s="58">
-        <f>COUNTIF($C105:$C114,F$94)/10</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="16">
-        <v>3</v>
-      </c>
-      <c r="B97" s="56">
-        <f>COUNTIF($D105:$D114,B$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C97" s="73">
-        <f>COUNTIF($D105:$D114,C$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D97" s="73">
-        <f>COUNTIF($D105:$D114,D$94)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="E97" s="73">
-        <f>COUNTIF($D105:$D114,E$94)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="F97" s="58">
-        <f>COUNTIF($D105:$D114,F$94)/10</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="74">
-        <v>4</v>
-      </c>
-      <c r="B98" s="51">
-        <f>COUNTIF($E105:$E114,B$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C98" s="52">
-        <f>COUNTIF($E105:$E114,C$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="52">
-        <f>COUNTIF($E105:$E114,D$94)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="E98" s="52">
-        <f>COUNTIF($E105:$E114,E$94)/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="F98" s="76">
-        <f>COUNTIF($E105:$E114,F$94)/10</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="16">
-        <v>5</v>
-      </c>
-      <c r="B99" s="56">
-        <f>COUNTIF($F105:$F114,B$94)/10</f>
-        <v>0.6</v>
-      </c>
-      <c r="C99" s="57">
-        <f>COUNTIF($F105:$F114,C$94)/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="D99" s="57">
-        <f>COUNTIF($F105:$F114,D$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="57">
-        <f>COUNTIF($F105:$F114,E$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="58">
-        <f>COUNTIF($F105:$F114,F$94)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="17">
-        <v>6</v>
-      </c>
-      <c r="B100" s="61">
-        <f>COUNTIF($G105:$G114,B$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C100" s="62">
-        <f>COUNTIF($G105:$G114,C$94)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D100" s="62">
-        <f>COUNTIF($G105:$G114,D$94)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="E100" s="62">
-        <f>COUNTIF($G105:$G114,E$94)/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="F100" s="63">
-        <f>COUNTIF($G105:$G114,F$94)/10</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="81"/>
-      <c r="B103" s="100" t="s">
-        <v>34</v>
-      </c>
-      <c r="C103" s="101"/>
-      <c r="D103" s="101"/>
-      <c r="E103" s="101"/>
-      <c r="F103" s="101"/>
-      <c r="G103" s="102"/>
-    </row>
-    <row r="104" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="46">
-        <v>1</v>
-      </c>
-      <c r="C104" s="47">
-        <v>2</v>
-      </c>
-      <c r="D104" s="48">
-        <v>3</v>
-      </c>
-      <c r="E104" s="46">
-        <v>4</v>
-      </c>
-      <c r="F104" s="47">
-        <v>5</v>
-      </c>
-      <c r="G104" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B105" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D105" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="E105" s="68" t="s">
-        <v>25</v>
-      </c>
-      <c r="F105" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G105" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C106" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D106" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E106" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F106" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G106" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B107" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E107" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F107" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G107" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D108" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E108" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F108" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G108" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B109" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C109" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D109" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E109" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F109" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G109" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B110" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D110" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F110" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G110" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B111" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D111" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E111" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F111" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G111" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C112" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D112" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E112" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F112" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G112" s="28" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="19" t="s">
+      <c r="A113" s="16">
+        <v>2</v>
+      </c>
+      <c r="B113" s="50">
+        <f>COUNTIF($C122:$C131,B$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C113" s="56">
+        <f>COUNTIF($C122:$C131,C$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="56">
+        <f>COUNTIF($C122:$C131,D$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="56">
+        <f>COUNTIF($C122:$C131,E$111)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="F113" s="57">
+        <f>COUNTIF($C122:$C131,F$111)/10</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" s="16">
+        <v>3</v>
+      </c>
+      <c r="B114" s="55">
+        <f>COUNTIF($D122:$D131,B$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C114" s="72">
+        <f>COUNTIF($D122:$D131,C$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="72">
+        <f>COUNTIF($D122:$D131,D$111)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E114" s="72">
+        <f>COUNTIF($D122:$D131,E$111)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="F114" s="57">
+        <f>COUNTIF($D122:$D131,F$111)/10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="73">
+        <v>4</v>
+      </c>
+      <c r="B115" s="50">
+        <f>COUNTIF($E122:$E131,B$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="51">
+        <f>COUNTIF($E122:$E131,C$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="51">
+        <f>COUNTIF($E122:$E131,D$111)/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="E115" s="51">
+        <f>COUNTIF($E122:$E131,E$111)/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="F115" s="75">
+        <f>COUNTIF($E122:$E131,F$111)/10</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" s="16">
+        <v>5</v>
+      </c>
+      <c r="B116" s="55">
+        <f>COUNTIF($F122:$F131,B$111)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="C116" s="56">
+        <f>COUNTIF($F122:$F131,C$111)/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="D116" s="56">
+        <f>COUNTIF($F122:$F131,D$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="56">
+        <f>COUNTIF($F122:$F131,E$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="57">
+        <f>COUNTIF($F122:$F131,F$111)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="17">
+        <v>6</v>
+      </c>
+      <c r="B117" s="60">
+        <f>COUNTIF($G122:$G131,B$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C117" s="61">
+        <f>COUNTIF($G122:$G131,C$111)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D117" s="61">
+        <f>COUNTIF($G122:$G131,D$111)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="E117" s="61">
+        <f>COUNTIF($G122:$G131,E$111)/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="F117" s="62">
+        <f>COUNTIF($G122:$G131,F$111)/10</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="80"/>
+      <c r="B120" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="C120" s="155"/>
+      <c r="D120" s="155"/>
+      <c r="E120" s="155"/>
+      <c r="F120" s="155"/>
+      <c r="G120" s="156"/>
+    </row>
+    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="46">
+        <v>1</v>
+      </c>
+      <c r="C121" s="47">
+        <v>2</v>
+      </c>
+      <c r="D121" s="48">
+        <v>3</v>
+      </c>
+      <c r="E121" s="46">
+        <v>4</v>
+      </c>
+      <c r="F121" s="47">
+        <v>5</v>
+      </c>
+      <c r="G121" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C122" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D122" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G122" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D123" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E123" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G123" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G124" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E125" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G125" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C126" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G126" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D127" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G127" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G128" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E129" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G129" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B113" s="26" t="s">
+      <c r="B130" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C130" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="27" t="s">
+      <c r="D130" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E113" s="27" t="s">
+      <c r="E130" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F113" s="29" t="s">
+      <c r="F130" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G113" s="28" t="s">
+      <c r="G130" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="21" t="s">
+    <row r="131" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B114" s="30" t="s">
+      <c r="B131" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C114" s="31" t="s">
+      <c r="C131" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D114" s="31" t="s">
+      <c r="D131" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="69" t="s">
+      <c r="E131" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="F114" s="31" t="s">
+      <c r="F131" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="G114" s="32" t="s">
+      <c r="G131" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="67" t="s">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B139" s="66" t="s">
+      <c r="B156" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="C139" s="66"/>
-      <c r="D139" s="66"/>
+      <c r="C156" s="65"/>
+      <c r="D156" s="65"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="67" t="s">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B140" s="66" t="s">
+      <c r="B157" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C140" s="66"/>
-      <c r="D140" s="66"/>
+      <c r="C157" s="65"/>
+      <c r="D157" s="65"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="67" t="s">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B141" s="66" t="s">
+      <c r="B158" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="C141" s="66"/>
-      <c r="D141" s="66"/>
+      <c r="C158" s="65"/>
+      <c r="D158" s="65"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="67" t="s">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="B142" s="66" t="s">
+      <c r="B159" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C142" s="66"/>
-      <c r="D142" s="66"/>
+      <c r="C159" s="65"/>
+      <c r="D159" s="65"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="67" t="s">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B143" s="66" t="s">
+      <c r="B160" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
+      <c r="C160" s="65"/>
+      <c r="D160" s="65"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="67" t="s">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B144" s="66" t="s">
+      <c r="B161" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C144" s="66"/>
-      <c r="D144" s="66"/>
+      <c r="C161" s="65"/>
+      <c r="D161" s="65"/>
     </row>
-    <row r="149" spans="1:3" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A149" s="84" t="s">
+    <row r="166" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A166" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
+      <c r="B166" s="84"/>
+      <c r="C166" s="84"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G49:K49"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:T4"/>
+  <mergeCells count="19">
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B66:F66"/>
+    <mergeCell ref="G66:N66"/>
+    <mergeCell ref="AF61:AJ61"/>
+    <mergeCell ref="AF60:AJ60"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="J73:L73"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phase3/Inquérito.xlsx
+++ b/phase3/Inquérito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35191\Desktop\UNI\3ºano\IPC\phase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBABCD85-0FE6-458C-9F59-F75073EF354E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782662ED-2C82-412B-A65A-9483E965BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1185" windowWidth="29040" windowHeight="15720" xr2:uid="{6DF166B9-DCAC-479D-8E65-FC409164BF48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DF166B9-DCAC-479D-8E65-FC409164BF48}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="70">
   <si>
     <t>Tarefa 1</t>
   </si>
@@ -262,22 +262,10 @@
     <t>Moda</t>
   </si>
   <si>
-    <t>-</t>
+    <t>(Tabela Auxiliar)</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>(Tabela Auxiliar)</t>
+    <t>Idade</t>
   </si>
 </sst>
 </file>
@@ -1424,26 +1412,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1487,12 +1455,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1893,6 +1889,51 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1902,13 +1943,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,61 +1964,29 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2067,7 +2070,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$67</c:f>
+              <c:f>Sheet1!$B$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2084,7 +2087,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2101,7 +2104,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$68:$B$70</c:f>
+              <c:f>Sheet1!$B$87:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2137,7 +2140,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$67</c:f>
+              <c:f>Sheet1!$C$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2154,7 +2157,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2171,7 +2174,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$68:$C$70</c:f>
+              <c:f>Sheet1!$C$87:$C$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2207,7 +2210,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$67</c:f>
+              <c:f>Sheet1!$D$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2219,7 +2222,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2236,7 +2239,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$68:$D$70</c:f>
+              <c:f>Sheet1!$D$87:$D$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2263,7 +2266,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$67</c:f>
+              <c:f>Sheet1!$E$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2280,7 +2283,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2297,7 +2300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$68:$E$70</c:f>
+              <c:f>Sheet1!$E$87:$E$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2333,7 +2336,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$67</c:f>
+              <c:f>Sheet1!$F$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2350,7 +2353,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2367,7 +2370,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$68:$F$70</c:f>
+              <c:f>Sheet1!$F$87:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2615,7 +2618,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$67</c:f>
+              <c:f>Sheet1!$J$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2634,7 +2637,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2651,7 +2654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$68:$J$70</c:f>
+              <c:f>Sheet1!$J$87:$J$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2678,7 +2681,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$67</c:f>
+              <c:f>Sheet1!$K$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2698,7 +2701,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2715,7 +2718,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$68:$K$70</c:f>
+              <c:f>Sheet1!$K$87:$K$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2742,7 +2745,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$67</c:f>
+              <c:f>Sheet1!$L$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2754,7 +2757,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2771,7 +2774,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$68:$L$70</c:f>
+              <c:f>Sheet1!$L$87:$L$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2798,7 +2801,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$67</c:f>
+              <c:f>Sheet1!$M$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2818,7 +2821,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2835,7 +2838,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$68:$M$70</c:f>
+              <c:f>Sheet1!$M$87:$M$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2862,7 +2865,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$67</c:f>
+              <c:f>Sheet1!$N$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2879,7 +2882,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -2896,7 +2899,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$68:$N$70</c:f>
+              <c:f>Sheet1!$N$87:$N$89</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3144,7 +3147,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$111</c:f>
+              <c:f>Sheet1!$B$130</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3161,7 +3164,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$112:$A$117</c:f>
+              <c:f>Sheet1!$A$131:$A$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3188,7 +3191,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$112:$B$117</c:f>
+              <c:f>Sheet1!$B$131:$B$136</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3233,7 +3236,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$111</c:f>
+              <c:f>Sheet1!$C$130</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3250,7 +3253,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$112:$A$117</c:f>
+              <c:f>Sheet1!$A$131:$A$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3277,7 +3280,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$112:$C$117</c:f>
+              <c:f>Sheet1!$C$131:$C$136</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3322,7 +3325,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$111</c:f>
+              <c:f>Sheet1!$D$130</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3334,7 +3337,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$112:$A$117</c:f>
+              <c:f>Sheet1!$A$131:$A$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3361,7 +3364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$112:$D$117</c:f>
+              <c:f>Sheet1!$D$131:$D$136</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3397,7 +3400,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$111</c:f>
+              <c:f>Sheet1!$E$130</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3414,7 +3417,7 @@
           <c:invertIfNegative val="1"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$112:$A$117</c:f>
+              <c:f>Sheet1!$A$131:$A$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3441,7 +3444,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$112:$E$117</c:f>
+              <c:f>Sheet1!$E$131:$E$136</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3486,7 +3489,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$111</c:f>
+              <c:f>Sheet1!$F$130</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3505,7 +3508,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$112:$A$117</c:f>
+              <c:f>Sheet1!$A$131:$A$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3532,7 +3535,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$112:$F$117</c:f>
+              <c:f>Sheet1!$F$131:$F$136</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3783,7 +3786,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$5</c:f>
+              <c:f>Sheet1!$B$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3808,7 +3811,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AF$63:$AF$65</c:f>
+                <c:f>Sheet1!$AF$83:$AF$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3826,7 +3829,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AF$63:$AF$65</c:f>
+                <c:f>Sheet1!$AF$83:$AF$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3852,7 +3855,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:f>Sheet1!$A$25:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3869,7 +3872,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$B$8</c:f>
+              <c:f>Sheet1!$B$25:$B$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3912,7 +3915,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$5</c:f>
+              <c:f>Sheet1!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3936,7 +3939,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:f>Sheet1!$A$25:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3953,7 +3956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$6:$C$8</c:f>
+              <c:f>Sheet1!$C$25:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4272,7 +4275,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$5</c:f>
+              <c:f>Sheet1!$H$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4293,7 +4296,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AG$63:$AG$65</c:f>
+                <c:f>Sheet1!$AG$83:$AG$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4311,7 +4314,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AG$63:$AG$65</c:f>
+                <c:f>Sheet1!$AG$83:$AG$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4337,7 +4340,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:f>Sheet1!$A$25:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4354,7 +4357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$6:$H$8</c:f>
+              <c:f>Sheet1!$H$25:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4398,7 +4401,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4416,7 +4419,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4439,7 +4442,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$B$8</c15:sqref>
+                          <c15:sqref>Sheet1!$B$25:$B$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4474,7 +4477,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$5</c15:sqref>
+                          <c15:sqref>Sheet1!$C$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4492,7 +4495,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4515,7 +4518,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$6:$C$8</c15:sqref>
+                          <c15:sqref>Sheet1!$C$25:$C$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4550,7 +4553,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$5</c15:sqref>
+                          <c15:sqref>Sheet1!$D$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4568,7 +4571,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4591,7 +4594,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
+                          <c15:sqref>Sheet1!$D$25:$D$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4626,7 +4629,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$5</c15:sqref>
+                          <c15:sqref>Sheet1!$E$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4644,7 +4647,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4667,7 +4670,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
+                          <c15:sqref>Sheet1!$E$25:$E$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4702,7 +4705,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$5</c15:sqref>
+                          <c15:sqref>Sheet1!$G$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4742,7 +4745,7 @@
                       <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
-                            <c15:sqref>Sheet1!$AG$63:$AG$65</c15:sqref>
+                            <c15:sqref>Sheet1!$AG$83:$AG$85</c15:sqref>
                           </c15:formulaRef>
                         </c:ext>
                       </c:extLst>
@@ -4774,7 +4777,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4797,7 +4800,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
+                          <c15:sqref>Sheet1!$G$25:$G$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -4834,7 +4837,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$5</c:f>
+              <c:f>Sheet1!$I$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4858,7 +4861,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:f>Sheet1!$A$25:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4875,7 +4878,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$6:$I$8</c:f>
+              <c:f>Sheet1!$I$25:$I$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5113,7 +5116,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$5</c:f>
+              <c:f>Sheet1!$N$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5134,7 +5137,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AH$63:$AH$65</c:f>
+                <c:f>Sheet1!$AH$83:$AH$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -5152,7 +5155,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AH$63:$AH$65</c:f>
+                <c:f>Sheet1!$AH$83:$AH$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -5178,7 +5181,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:f>Sheet1!$A$25:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -5195,7 +5198,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$6:$N$8</c:f>
+              <c:f>Sheet1!$N$25:$N$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -5239,7 +5242,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5276,7 +5279,7 @@
                       <c:extLst>
                         <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
-                            <c15:sqref>Sheet1!$AH$63:$AH$65</c15:sqref>
+                            <c15:sqref>Sheet1!$AH$83:$AH$85</c15:sqref>
                           </c15:formulaRef>
                         </c:ext>
                       </c:extLst>
@@ -5308,7 +5311,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5331,7 +5334,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$B$8</c15:sqref>
+                          <c15:sqref>Sheet1!$B$25:$B$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5366,7 +5369,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$5</c15:sqref>
+                          <c15:sqref>Sheet1!$C$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5384,7 +5387,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5407,7 +5410,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$6:$C$8</c15:sqref>
+                          <c15:sqref>Sheet1!$C$25:$C$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5442,7 +5445,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$5</c15:sqref>
+                          <c15:sqref>Sheet1!$D$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5460,7 +5463,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5483,7 +5486,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
+                          <c15:sqref>Sheet1!$D$25:$D$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5518,7 +5521,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$5</c15:sqref>
+                          <c15:sqref>Sheet1!$E$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5536,7 +5539,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5559,7 +5562,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
+                          <c15:sqref>Sheet1!$E$25:$E$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5594,7 +5597,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$5</c15:sqref>
+                          <c15:sqref>Sheet1!$G$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5612,7 +5615,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5635,7 +5638,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
+                          <c15:sqref>Sheet1!$G$25:$G$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5670,7 +5673,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$5</c15:sqref>
+                          <c15:sqref>Sheet1!$H$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5688,7 +5691,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5711,7 +5714,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$6:$H$8</c15:sqref>
+                          <c15:sqref>Sheet1!$H$25:$H$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5746,7 +5749,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$5</c15:sqref>
+                          <c15:sqref>Sheet1!$I$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5764,7 +5767,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5787,7 +5790,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$6:$I$8</c15:sqref>
+                          <c15:sqref>Sheet1!$I$25:$I$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5822,7 +5825,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$5</c15:sqref>
+                          <c15:sqref>Sheet1!$J$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5840,7 +5843,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5863,7 +5866,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$6:$J$8</c15:sqref>
+                          <c15:sqref>Sheet1!$J$25:$J$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5898,7 +5901,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$5</c15:sqref>
+                          <c15:sqref>Sheet1!$K$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5916,7 +5919,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5939,7 +5942,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
+                          <c15:sqref>Sheet1!$K$25:$K$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5974,7 +5977,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$5</c15:sqref>
+                          <c15:sqref>Sheet1!$M$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -5992,7 +5995,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6015,7 +6018,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
+                          <c15:sqref>Sheet1!$M$25:$M$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6052,7 +6055,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$5</c:f>
+              <c:f>Sheet1!$O$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6076,7 +6079,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:f>Sheet1!$A$25:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6093,7 +6096,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$O$6:$O$8</c:f>
+              <c:f>Sheet1!$O$25:$O$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6318,7 +6321,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$4:$N$5</c:f>
+              <c:f>Sheet1!$N$23:$N$24</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -6342,7 +6345,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AI$63:$AI$65</c:f>
+                <c:f>Sheet1!$AI$83:$AI$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -6360,7 +6363,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AI$63:$AI$65</c:f>
+                <c:f>Sheet1!$AI$83:$AI$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -6386,7 +6389,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$6:$A$8</c:f>
+              <c:f>Sheet1!$A$25:$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -6403,7 +6406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$T$6:$T$8</c:f>
+              <c:f>Sheet1!$T$25:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -6447,7 +6450,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$B$5</c15:sqref>
+                          <c15:sqref>Sheet1!$B$23:$B$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6468,7 +6471,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6491,7 +6494,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$6:$B$8</c15:sqref>
+                          <c15:sqref>Sheet1!$B$25:$B$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6526,7 +6529,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$4:$C$5</c15:sqref>
+                          <c15:sqref>Sheet1!$C$23:$C$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6547,7 +6550,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6570,7 +6573,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$6:$D$8</c15:sqref>
+                          <c15:sqref>Sheet1!$D$25:$D$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6605,7 +6608,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$4:$D$5</c15:sqref>
+                          <c15:sqref>Sheet1!$D$23:$D$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6626,7 +6629,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6649,7 +6652,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$6:$E$8</c15:sqref>
+                          <c15:sqref>Sheet1!$E$25:$E$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6684,7 +6687,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$4:$E$5</c15:sqref>
+                          <c15:sqref>Sheet1!$E$23:$E$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6705,7 +6708,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6728,7 +6731,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$6:$G$8</c15:sqref>
+                          <c15:sqref>Sheet1!$G$25:$G$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6763,7 +6766,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$4:$F$5</c15:sqref>
+                          <c15:sqref>Sheet1!$F$23:$F$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6784,7 +6787,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6807,7 +6810,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$6:$H$8</c15:sqref>
+                          <c15:sqref>Sheet1!$H$25:$H$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6842,7 +6845,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$4:$G$5</c15:sqref>
+                          <c15:sqref>Sheet1!$G$23:$G$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6863,7 +6866,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6886,7 +6889,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$6:$J$8</c15:sqref>
+                          <c15:sqref>Sheet1!$J$25:$J$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6921,7 +6924,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$4:$H$5</c15:sqref>
+                          <c15:sqref>Sheet1!$H$23:$H$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6942,7 +6945,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6965,7 +6968,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$6:$K$8</c15:sqref>
+                          <c15:sqref>Sheet1!$K$25:$K$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7000,7 +7003,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$4:$I$5</c15:sqref>
+                          <c15:sqref>Sheet1!$I$23:$I$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7021,7 +7024,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7044,7 +7047,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$6:$M$8</c15:sqref>
+                          <c15:sqref>Sheet1!$M$25:$M$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7079,7 +7082,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$4:$J$5</c15:sqref>
+                          <c15:sqref>Sheet1!$J$23:$J$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7105,7 +7108,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7128,7 +7131,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$N$6:$N$8</c15:sqref>
+                          <c15:sqref>Sheet1!$N$25:$N$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7163,7 +7166,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$4:$K$5</c15:sqref>
+                          <c15:sqref>Sheet1!$K$23:$K$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7184,7 +7187,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7207,7 +7210,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$6:$P$8</c15:sqref>
+                          <c15:sqref>Sheet1!$P$25:$P$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7242,7 +7245,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$4:$L$4</c15:sqref>
+                          <c15:sqref>Sheet1!$L$23:$L$23</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7257,7 +7260,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7280,7 +7283,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$6:$Q$8</c15:sqref>
+                          <c15:sqref>Sheet1!$Q$25:$Q$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7333,7 +7336,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7356,7 +7359,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$6:$S$8</c15:sqref>
+                          <c15:sqref>Sheet1!$S$25:$S$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7391,7 +7394,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$4:$O$5</c15:sqref>
+                          <c15:sqref>Sheet1!$O$23:$O$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7412,7 +7415,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7435,7 +7438,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$U$6:$U$8</c15:sqref>
+                          <c15:sqref>Sheet1!$U$25:$U$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7470,7 +7473,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$4:$P$5</c15:sqref>
+                          <c15:sqref>Sheet1!$P$23:$P$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7491,7 +7494,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7514,7 +7517,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$V$6:$V$8</c15:sqref>
+                          <c15:sqref>Sheet1!$V$25:$V$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7549,7 +7552,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$4:$Q$5</c15:sqref>
+                          <c15:sqref>Sheet1!$Q$23:$Q$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7570,7 +7573,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$6:$A$8</c15:sqref>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7593,7 +7596,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$X$6:$X$8</c15:sqref>
+                          <c15:sqref>Sheet1!$X$25:$X$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7840,7 +7843,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$14</c:f>
+              <c:f>Sheet1!$B$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7859,7 +7862,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>Sheet1!$A$34:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7876,7 +7879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$18:$B$20</c:f>
+              <c:f>Sheet1!$B$37:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -7903,7 +7906,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$14</c:f>
+              <c:f>Sheet1!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7935,7 +7938,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$C$18:$C$20</c:f>
+                <c:f>Sheet1!$C$37:$C$39</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -7967,7 +7970,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>Sheet1!$A$34:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -7984,7 +7987,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$18:$C$20</c:f>
+              <c:f>Sheet1!$C$37:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8011,7 +8014,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$14</c:f>
+              <c:f>Sheet1!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8032,7 +8035,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>Sheet1!$A$34:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8049,7 +8052,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$18:$D$20</c:f>
+              <c:f>Sheet1!$D$37:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8076,7 +8079,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$14</c:f>
+              <c:f>Sheet1!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8101,7 +8104,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$F$18:$F$20</c:f>
+                <c:f>Sheet1!$F$37:$F$39</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -8142,7 +8145,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>Sheet1!$A$34:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8159,7 +8162,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$18:$E$20</c:f>
+              <c:f>Sheet1!$E$37:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8186,7 +8189,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$14</c:f>
+              <c:f>Sheet1!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8205,7 +8208,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$15:$A$17</c:f>
+              <c:f>Sheet1!$A$34:$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8222,7 +8225,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$18:$F$20</c:f>
+              <c:f>Sheet1!$F$37:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8470,7 +8473,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$67</c:f>
+              <c:f>Sheet1!$G$86</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8491,7 +8494,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$AJ$63:$AJ$65</c:f>
+                <c:f>Sheet1!$AJ$83:$AJ$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -8509,7 +8512,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$AJ$63:$AJ$65</c:f>
+                <c:f>Sheet1!$AJ$83:$AJ$85</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -8535,7 +8538,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$68:$A$70</c:f>
+              <c:f>Sheet1!$A$87:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -8552,7 +8555,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$68:$G$70</c:f>
+              <c:f>Sheet1!$G$87:$G$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -8596,7 +8599,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$67</c15:sqref>
+                          <c15:sqref>Sheet1!$B$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8618,7 +8621,7 @@
                       <c:extLst>
                         <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
-                            <c15:sqref>Sheet1!$AF$63:$AF$65</c15:sqref>
+                            <c15:sqref>Sheet1!$AF$83:$AF$85</c15:sqref>
                           </c15:formulaRef>
                         </c:ext>
                       </c:extLst>
@@ -8642,7 +8645,7 @@
                       <c:extLst>
                         <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
-                            <c15:sqref>Sheet1!$AF$63:$AF$65</c15:sqref>
+                            <c15:sqref>Sheet1!$AF$83:$AF$85</c15:sqref>
                           </c15:formulaRef>
                         </c:ext>
                       </c:extLst>
@@ -8674,7 +8677,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                          <c15:sqref>Sheet1!$A$87:$A$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8697,7 +8700,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$68:$B$70</c15:sqref>
+                          <c15:sqref>Sheet1!$B$87:$B$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8729,10 +8732,10 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$67</c15:sqref>
+                          <c15:sqref>Sheet1!$C$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8747,10 +8750,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                          <c15:sqref>Sheet1!$A$87:$A$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8770,10 +8773,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$68:$C$70</c15:sqref>
+                          <c15:sqref>Sheet1!$C$87:$C$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8805,10 +8808,10 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$67</c15:sqref>
+                          <c15:sqref>Sheet1!$D$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8823,10 +8826,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                          <c15:sqref>Sheet1!$A$87:$A$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8846,10 +8849,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$68:$D$70</c15:sqref>
+                          <c15:sqref>Sheet1!$D$87:$D$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8868,7 +8871,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-A0F4-4031-9BAC-3F8BA97C7E55}"/>
                   </c:ext>
@@ -8881,10 +8884,10 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$67</c15:sqref>
+                          <c15:sqref>Sheet1!$E$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8899,10 +8902,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                          <c15:sqref>Sheet1!$A$87:$A$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8922,10 +8925,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$68:$E$70</c15:sqref>
+                          <c15:sqref>Sheet1!$E$87:$E$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8944,7 +8947,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-A0F4-4031-9BAC-3F8BA97C7E55}"/>
                   </c:ext>
@@ -8957,10 +8960,10 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$67</c15:sqref>
+                          <c15:sqref>Sheet1!$F$86</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8975,10 +8978,10 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$68:$A$70</c15:sqref>
+                          <c15:sqref>Sheet1!$A$87:$A$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -8998,10 +9001,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$68:$F$70</c15:sqref>
+                          <c15:sqref>Sheet1!$F$87:$F$89</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -9020,7 +9023,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-A0F4-4031-9BAC-3F8BA97C7E55}"/>
                   </c:ext>
@@ -9807,7 +9810,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>10982</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -9840,7 +9843,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>789902</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -9873,7 +9876,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>216498</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>29809</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -9906,7 +9909,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>162113</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -9939,7 +9942,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>567187</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>79238</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -9972,7 +9975,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>99786</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>125187</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -10005,7 +10008,7 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>762909</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>15693</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -10038,13 +10041,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>289197</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>705970</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10074,7 +10077,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>450273</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -10403,10 +10406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5987B9C-46B6-48DF-892A-073BDF9D62B0}">
-  <dimension ref="A1:AQ168"/>
+  <dimension ref="A1:AQ187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y67" sqref="Y67"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10430,2803 +10433,2914 @@
       <c r="H1" s="70"/>
       <c r="I1" s="70"/>
     </row>
-    <row r="3" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AK3" s="82"/>
-      <c r="AM3" s="82"/>
     </row>
-    <row r="4" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="80"/>
-      <c r="B4" s="157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="148" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="148" t="s">
-        <v>4</v>
-      </c>
-      <c r="O4" s="149"/>
-      <c r="P4" s="149"/>
-      <c r="Q4" s="149"/>
-      <c r="R4" s="149"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="151" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="152"/>
-      <c r="V4" s="152"/>
-      <c r="W4" s="152"/>
-      <c r="X4" s="153"/>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="AK4" s="82"/>
-      <c r="AM4" s="82"/>
     </row>
     <row r="5" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="P5" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q5" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="S5" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" s="97" t="s">
-        <v>7</v>
-      </c>
-      <c r="V5" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="W5" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="X5" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="AO5" s="82"/>
       <c r="AQ5" s="82"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="33">
-        <f>AVERAGE(B28:B37)</f>
-        <v>31.1</v>
-      </c>
-      <c r="C6" s="40">
-        <v>10</v>
-      </c>
-      <c r="D6" s="34">
-        <f>_xlfn.STDEV.S(B28:B37)</f>
-        <v>12.493998559308384</v>
-      </c>
-      <c r="E6" s="35">
-        <f>MEDIAN(B28:B37)</f>
-        <v>29.5</v>
-      </c>
-      <c r="F6" s="146" t="str">
-        <f>IF(ISERROR(MODE(B28:B37)),"-",MODE(B28:B37))</f>
-        <v>-</v>
-      </c>
-      <c r="G6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2)), ISERROR(ROUND(B6+_xlfn.CONFIDENCE.T(0.05,D6,10),2))),"-","[" &amp; ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2) &amp;" - " &amp; ROUND(B6+_xlfn.CONFIDENCE.T(0.05,D6,10),2) &amp;"]")</f>
-        <v>[22,16 - 40,04]</v>
-      </c>
-      <c r="H6" s="37">
-        <f>AVERAGE(C28:C37)</f>
-        <v>9</v>
-      </c>
-      <c r="I6" s="40">
+    <row r="6" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="79"/>
+      <c r="B6" s="178" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="174"/>
+    </row>
+    <row r="7" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="23"/>
+      <c r="B7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="38">
-        <f>_xlfn.STDEV.S(C28:C37)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="39">
-        <f>MEDIAN(C28:C37)</f>
-        <v>9</v>
-      </c>
-      <c r="L6" s="146">
-        <f>IF(ISERROR(MODE(C28:C37)),"-",MODE(C28:C37))</f>
-        <v>9</v>
-      </c>
-      <c r="M6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(H6-_xlfn.CONFIDENCE.T(0.05,J6,10),2)), ISERROR(ROUND(H6+_xlfn.CONFIDENCE.T(0.05,J6,10),2))),"-","[" &amp; ROUND(H6-_xlfn.CONFIDENCE.T(0.05,J6,10),2) &amp;" - " &amp; ROUND(H6+_xlfn.CONFIDENCE.T(0.05,J6,10),2) &amp;"]")</f>
-        <v>-</v>
-      </c>
-      <c r="N6" s="40">
-        <f>AVERAGE(D28:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="40">
-        <v>2</v>
-      </c>
-      <c r="P6" s="34">
-        <f>_xlfn.STDEV.S(D28:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="91">
-        <f>MEDIAN(D28:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="146">
-        <f>IF(ISERROR(MODE(D28:D37)),"-",MODE(D28:D37))</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(N6-_xlfn.CONFIDENCE.T(0.05,P6,10),2)), ISERROR(ROUND(N6+_xlfn.CONFIDENCE.T(0.05,P6,10),2))),"-","[" &amp; ROUND(N6-_xlfn.CONFIDENCE.T(0.05,P6,10),2) &amp;" - " &amp; ROUND(N6+_xlfn.CONFIDENCE.T(0.05,P6,10),2) &amp;"]")</f>
-        <v>-</v>
-      </c>
-      <c r="T6" s="37">
-        <f>AVERAGE(E28:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="38">
-        <f>_xlfn.STDEV.S(E28:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="V6" s="93">
-        <f>MEDIAN(E28:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="W6" s="93">
-        <f>IF(ISERROR(MODE(E28:E37)),"-",MODE(E28:E37))</f>
-        <v>0</v>
-      </c>
-      <c r="X6" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(T6-_xlfn.CONFIDENCE.T(0.05,U6,10),2)), ISERROR(ROUND(T6+_xlfn.CONFIDENCE.T(0.05,U6,10),2))),"-","[" &amp; ROUND(T6-_xlfn.CONFIDENCE.T(0.05,U6,10),2) &amp;" - " &amp; ROUND(T6+_xlfn.CONFIDENCE.T(0.05,U6,10),2) &amp;"]")</f>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
-        <f>AVERAGE(F28:F37)</f>
-        <v>40.9</v>
-      </c>
-      <c r="C7" s="8">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5">
-        <f>_xlfn.STDEV.S(F28:F37)</f>
-        <v>10.514011814927954</v>
-      </c>
-      <c r="E7" s="6">
-        <f>MEDIAN(F28:F37)</f>
-        <v>40.5</v>
-      </c>
-      <c r="F7" s="146">
-        <f>IF(ISERROR(MODE(F28:F37)),"-",MODE(F28:F37))</f>
-        <v>48</v>
-      </c>
-      <c r="G7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2)), ISERROR(ROUND(B7+_xlfn.CONFIDENCE.T(0.05,D7,10),2))),"-","[" &amp; ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2) &amp;" - " &amp; ROUND(B7+_xlfn.CONFIDENCE.T(0.05,D7,10),2) &amp;"]")</f>
-        <v>[33,38 - 48,42]</v>
-      </c>
-      <c r="H7" s="1">
-        <f>AVERAGE(G28:G37)</f>
-        <v>14.1</v>
-      </c>
-      <c r="I7" s="8">
-        <v>4</v>
-      </c>
-      <c r="J7" s="2">
-        <f>_xlfn.STDEV.S(G28:G37)</f>
-        <v>0.31622776601683789</v>
-      </c>
-      <c r="K7" s="3">
-        <f>MEDIAN(G28:G37)</f>
-        <v>14</v>
-      </c>
-      <c r="L7" s="146">
-        <f>IF(ISERROR(MODE(G28:G37)),"-",MODE(G28:G37))</f>
-        <v>14</v>
-      </c>
-      <c r="M7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(H7-_xlfn.CONFIDENCE.T(0.05,J7,10),2)), ISERROR(ROUND(H7+_xlfn.CONFIDENCE.T(0.05,J7,10),2))),"-","[" &amp; ROUND(H7-_xlfn.CONFIDENCE.T(0.05,J7,10),2) &amp;" - " &amp; ROUND(H7+_xlfn.CONFIDENCE.T(0.05,J7,10),2) &amp;"]")</f>
-        <v>[13,87 - 14,33]</v>
-      </c>
-      <c r="N7" s="8">
-        <f>AVERAGE(H28:H37)</f>
-        <v>0.2</v>
-      </c>
-      <c r="O7" s="8">
-        <v>2</v>
-      </c>
-      <c r="P7" s="5">
-        <f>_xlfn.STDEV.S(H28:H37)</f>
-        <v>0.4216370213557839</v>
-      </c>
-      <c r="Q7" s="6">
-        <f>MEDIAN(H28:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="146">
-        <f>IF(ISERROR(MODE(H28:H37)),"-",MODE(H28:H37))</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(N7-_xlfn.CONFIDENCE.T(0.05,P7,10),2)), ISERROR(ROUND(N7+_xlfn.CONFIDENCE.T(0.05,P7,10),2))),"-","[" &amp; ROUND(N7-_xlfn.CONFIDENCE.T(0.05,P7,10),2) &amp;" - " &amp; ROUND(N7+_xlfn.CONFIDENCE.T(0.05,P7,10),2) &amp;"]")</f>
-        <v>[-0,1 - 0,5]</v>
-      </c>
-      <c r="T7" s="1">
-        <f>AVERAGE(I28:I37)</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <f>_xlfn.STDEV.S(I28:I37)</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="94">
-        <f>MEDIAN(I28:I37)</f>
-        <v>0</v>
-      </c>
-      <c r="W7" s="93">
-        <f>IF(ISERROR(MODE(I28:I37)),"-",MODE(I28:I37))</f>
-        <v>0</v>
-      </c>
-      <c r="X7" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(T7-_xlfn.CONFIDENCE.T(0.05,U7,10),2)), ISERROR(ROUND(T7+_xlfn.CONFIDENCE.T(0.05,U7,10),2))),"-","[" &amp; ROUND(T7-_xlfn.CONFIDENCE.T(0.05,U7,10),2) &amp;" - " &amp; ROUND(T7+_xlfn.CONFIDENCE.T(0.05,U7,10),2) &amp;"]")</f>
-        <v>-</v>
+      <c r="D7" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10">
-        <f>AVERAGE(J28:J37)</f>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="11">
-        <f>_xlfn.STDEV.S(J28:J37)</f>
-        <v>11.602681682362155</v>
-      </c>
-      <c r="E8" s="12">
-        <f>MEDIAN(J28:J37)</f>
-        <v>34.5</v>
-      </c>
-      <c r="F8" s="147" t="str">
-        <f>IF(ISERROR(MODE(J28:J37)),"-",MODE(J28:J37))</f>
-        <v>-</v>
-      </c>
-      <c r="G8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(B8-_xlfn.CONFIDENCE.T(0.05,D8,10),2)), ISERROR(ROUND(B8+_xlfn.CONFIDENCE.T(0.05,D8,10),2))),"-","[" &amp; ROUND(B8-_xlfn.CONFIDENCE.T(0.05,D8,10),2) &amp;" - " &amp; ROUND(B8+_xlfn.CONFIDENCE.T(0.05,D8,10),2) &amp;"]")</f>
-        <v>[25,9 - 42,5]</v>
-      </c>
-      <c r="H8" s="24">
-        <f>AVERAGE(K28:K37)</f>
-        <v>8</v>
-      </c>
-      <c r="I8" s="25">
-        <v>3</v>
-      </c>
-      <c r="J8" s="14">
-        <f>_xlfn.STDEV.S(K28:K37)</f>
-        <v>1.8257418583505538</v>
-      </c>
-      <c r="K8" s="15">
-        <f>MEDIAN(K28:K37)</f>
-        <v>7.5</v>
-      </c>
-      <c r="L8" s="12">
-        <f>IF(ISERROR(MODE(K28:K37)),"-",MODE(K28:K37))</f>
-        <v>7</v>
-      </c>
-      <c r="M8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(H8-_xlfn.CONFIDENCE.T(0.05,J8,10),2)), ISERROR(ROUND(H8+_xlfn.CONFIDENCE.T(0.05,J8,10),2))),"-","[" &amp; ROUND(H8-_xlfn.CONFIDENCE.T(0.05,J8,10),2) &amp;" - " &amp; ROUND(H8+_xlfn.CONFIDENCE.T(0.05,J8,10),2) &amp;"]")</f>
-        <v>[6,69 - 9,31]</v>
-      </c>
-      <c r="N8" s="25">
-        <f>AVERAGE(L28:L37)</f>
-        <v>0.6</v>
-      </c>
-      <c r="O8" s="25">
-        <v>2</v>
-      </c>
-      <c r="P8" s="11">
-        <f>_xlfn.STDEV.S(L28:L37)</f>
-        <v>0.69920589878010109</v>
-      </c>
-      <c r="Q8" s="12">
-        <f>MEDIAN(L28:L37)</f>
-        <v>0.5</v>
-      </c>
-      <c r="R8" s="147">
-        <f>IF(ISERROR(MODE(L28:L37)),"-",MODE(L28:L37))</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(N8-_xlfn.CONFIDENCE.T(0.05,P8,10),2)), ISERROR(ROUND(N8+_xlfn.CONFIDENCE.T(0.05,P8,10),2))),"-","[" &amp; ROUND(N8-_xlfn.CONFIDENCE.T(0.05,P8,10),2) &amp;" - " &amp; ROUND(N8+_xlfn.CONFIDENCE.T(0.05,P8,10),2) &amp;"]")</f>
-        <v>[0,1 - 1,1]</v>
-      </c>
-      <c r="T8" s="24">
-        <f>AVERAGE(M28:M37)</f>
-        <v>0.7</v>
-      </c>
-      <c r="U8" s="14">
-        <f>_xlfn.STDEV.S(M28:M37)</f>
-        <v>0.48304589153964789</v>
-      </c>
-      <c r="V8" s="95">
-        <f>MEDIAN(M28:M37)</f>
-        <v>1</v>
-      </c>
-      <c r="W8" s="95">
-        <f>IF(ISERROR(MODE(M28:M37)),"-",MODE(M28:M37))</f>
-        <v>1</v>
-      </c>
-      <c r="X8" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(T8-_xlfn.CONFIDENCE.T(0.05,U8,10),2)), ISERROR(ROUND(T8+_xlfn.CONFIDENCE.T(0.05,U8,10),2))),"-","[" &amp; ROUND(T8-_xlfn.CONFIDENCE.T(0.05,U8,10),2) &amp;" - " &amp; ROUND(T8+_xlfn.CONFIDENCE.T(0.05,U8,10),2) &amp;"]")</f>
-        <v>[0,35 - 1,05]</v>
+      <c r="B8" s="41">
+        <v>20</v>
+      </c>
+      <c r="D8" s="179">
+        <f>AVERAGE(B8:B17)</f>
+        <v>20.7</v>
+      </c>
+      <c r="E8" s="180">
+        <f>_xlfn.STDEV.S(B8:B17)</f>
+        <v>1.70293863659264</v>
       </c>
     </row>
-    <row r="12" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:43" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="157" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="158"/>
-      <c r="D13" s="158"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="157" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="158"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="148" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13" s="149"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="149"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="148" t="s">
-        <v>5</v>
-      </c>
-      <c r="R13" s="149"/>
-      <c r="S13" s="149"/>
-      <c r="T13" s="149"/>
-      <c r="U13" s="150"/>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="9">
+        <v>25</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="H14" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="I14" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="P14" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="R14" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="S14" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="T14" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="U14" s="48" t="s">
-        <v>60</v>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="104">
-        <f>MIN(B28:B37)</f>
-        <v>15</v>
-      </c>
-      <c r="C15" s="109">
-        <f>QUARTILE($B28:$B37,1)</f>
-        <v>23.5</v>
-      </c>
-      <c r="D15" s="103">
-        <f>QUARTILE($B28:$B37,2)</f>
-        <v>29.5</v>
-      </c>
-      <c r="E15" s="103">
-        <f>QUARTILE($B28:$B37,3)</f>
-        <v>34</v>
-      </c>
-      <c r="F15" s="111">
-        <f>MAX(B28:B37)</f>
-        <v>59</v>
-      </c>
-      <c r="G15" s="104">
-        <f>MIN(C28:C37)</f>
-        <v>9</v>
-      </c>
-      <c r="H15" s="105">
-        <f>QUARTILE($C28:$C37,1)</f>
-        <v>9</v>
-      </c>
-      <c r="I15" s="105">
-        <f>QUARTILE($C28:$C37,2)</f>
-        <v>9</v>
-      </c>
-      <c r="J15" s="105">
-        <f>QUARTILE($C28:$C37,3)</f>
-        <v>9</v>
-      </c>
-      <c r="K15" s="105">
-        <f>MAX($C28:$C37)</f>
-        <v>9</v>
-      </c>
-      <c r="L15" s="104">
-        <f>MIN(D28:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="114">
-        <f>QUARTILE($D28:$D37,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="108">
-        <f>QUARTILE($D28:$D37,2)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="113">
-        <f>QUARTILE($D28:$D37,3)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="106">
-        <f>MAX($D28:$D37)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="104">
-        <f>MIN(E28:E37)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="103">
-        <f>QUARTILE($E28:$E37,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="103">
-        <f>QUARTILE($E28:$E37,2)</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="103">
-        <f>QUARTILE($E28:$E37,3)</f>
-        <v>0</v>
-      </c>
-      <c r="U15" s="106">
-        <f>MAX($E28:$E37)</f>
-        <v>0</v>
+      <c r="A15" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="9">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="80"/>
+      <c r="B23" s="172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="173"/>
+      <c r="D23" s="173"/>
+      <c r="E23" s="173"/>
+      <c r="F23" s="173"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="166"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="175" t="s">
+        <v>5</v>
+      </c>
+      <c r="U23" s="176"/>
+      <c r="V23" s="176"/>
+      <c r="W23" s="176"/>
+      <c r="X23" s="177"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="U24" s="97" t="s">
+        <v>7</v>
+      </c>
+      <c r="V24" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="W24" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="X24" s="99" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="33">
+        <f>AVERAGE(B47:B56)</f>
+        <v>31.1</v>
+      </c>
+      <c r="C25" s="40">
+        <v>10</v>
+      </c>
+      <c r="D25" s="34">
+        <f>_xlfn.STDEV.S(B47:B56)</f>
+        <v>12.493998559308384</v>
+      </c>
+      <c r="E25" s="35">
+        <f>MEDIAN(B47:B56)</f>
+        <v>29.5</v>
+      </c>
+      <c r="F25" s="146" t="str">
+        <f>IF(ISERROR(MODE(B47:B56)),"-",MODE(B47:B56))</f>
+        <v>-</v>
+      </c>
+      <c r="G25" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(B25-_xlfn.CONFIDENCE.T(0.05,D25,10),2)), ISERROR(ROUND(B25+_xlfn.CONFIDENCE.T(0.05,D25,10),2))),"-","[" &amp; ROUND(B25-_xlfn.CONFIDENCE.T(0.05,D25,10),2) &amp;" - " &amp; ROUND(B25+_xlfn.CONFIDENCE.T(0.05,D25,10),2) &amp;"]")</f>
+        <v>[22,16 - 40,04]</v>
+      </c>
+      <c r="H25" s="37">
+        <f>AVERAGE(C47:C56)</f>
+        <v>9</v>
+      </c>
+      <c r="I25" s="40">
+        <v>3</v>
+      </c>
+      <c r="J25" s="38">
+        <f>_xlfn.STDEV.S(C47:C56)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="39">
+        <f>MEDIAN(C47:C56)</f>
+        <v>9</v>
+      </c>
+      <c r="L25" s="146">
+        <f>IF(ISERROR(MODE(C47:C56)),"-",MODE(C47:C56))</f>
+        <v>9</v>
+      </c>
+      <c r="M25" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(H25-_xlfn.CONFIDENCE.T(0.05,J25,10),2)), ISERROR(ROUND(H25+_xlfn.CONFIDENCE.T(0.05,J25,10),2))),"-","[" &amp; ROUND(H25-_xlfn.CONFIDENCE.T(0.05,J25,10),2) &amp;" - " &amp; ROUND(H25+_xlfn.CONFIDENCE.T(0.05,J25,10),2) &amp;"]")</f>
+        <v>-</v>
+      </c>
+      <c r="N25" s="40">
+        <f>AVERAGE(D47:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="40">
+        <v>2</v>
+      </c>
+      <c r="P25" s="34">
+        <f>_xlfn.STDEV.S(D47:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="91">
+        <f>MEDIAN(D47:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="146">
+        <f>IF(ISERROR(MODE(D47:D56)),"-",MODE(D47:D56))</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(N25-_xlfn.CONFIDENCE.T(0.05,P25,10),2)), ISERROR(ROUND(N25+_xlfn.CONFIDENCE.T(0.05,P25,10),2))),"-","[" &amp; ROUND(N25-_xlfn.CONFIDENCE.T(0.05,P25,10),2) &amp;" - " &amp; ROUND(N25+_xlfn.CONFIDENCE.T(0.05,P25,10),2) &amp;"]")</f>
+        <v>-</v>
+      </c>
+      <c r="T25" s="37">
+        <f>AVERAGE(E47:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="38">
+        <f>_xlfn.STDEV.S(E47:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="V25" s="93">
+        <f>MEDIAN(E47:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="W25" s="93">
+        <f>IF(ISERROR(MODE(E47:E56)),"-",MODE(E47:E56))</f>
+        <v>0</v>
+      </c>
+      <c r="X25" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(T25-_xlfn.CONFIDENCE.T(0.05,U25,10),2)), ISERROR(ROUND(T25+_xlfn.CONFIDENCE.T(0.05,U25,10),2))),"-","[" &amp; ROUND(T25-_xlfn.CONFIDENCE.T(0.05,U25,10),2) &amp;" - " &amp; ROUND(T25+_xlfn.CONFIDENCE.T(0.05,U25,10),2) &amp;"]")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="33">
-        <f>MIN(F28:F37)</f>
+      <c r="B26" s="4">
+        <f>AVERAGE(F47:F56)</f>
+        <v>40.9</v>
+      </c>
+      <c r="C26" s="8">
+        <v>30</v>
+      </c>
+      <c r="D26" s="5">
+        <f>_xlfn.STDEV.S(F47:F56)</f>
+        <v>10.514011814927954</v>
+      </c>
+      <c r="E26" s="6">
+        <f>MEDIAN(F47:F56)</f>
+        <v>40.5</v>
+      </c>
+      <c r="F26" s="146">
+        <f>IF(ISERROR(MODE(F47:F56)),"-",MODE(F47:F56))</f>
+        <v>48</v>
+      </c>
+      <c r="G26" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(B26-_xlfn.CONFIDENCE.T(0.05,D26,10),2)), ISERROR(ROUND(B26+_xlfn.CONFIDENCE.T(0.05,D26,10),2))),"-","[" &amp; ROUND(B26-_xlfn.CONFIDENCE.T(0.05,D26,10),2) &amp;" - " &amp; ROUND(B26+_xlfn.CONFIDENCE.T(0.05,D26,10),2) &amp;"]")</f>
+        <v>[33,38 - 48,42]</v>
+      </c>
+      <c r="H26" s="1">
+        <f>AVERAGE(G47:G56)</f>
+        <v>14.1</v>
+      </c>
+      <c r="I26" s="8">
+        <v>4</v>
+      </c>
+      <c r="J26" s="2">
+        <f>_xlfn.STDEV.S(G47:G56)</f>
+        <v>0.31622776601683789</v>
+      </c>
+      <c r="K26" s="3">
+        <f>MEDIAN(G47:G56)</f>
+        <v>14</v>
+      </c>
+      <c r="L26" s="146">
+        <f>IF(ISERROR(MODE(G47:G56)),"-",MODE(G47:G56))</f>
+        <v>14</v>
+      </c>
+      <c r="M26" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(H26-_xlfn.CONFIDENCE.T(0.05,J26,10),2)), ISERROR(ROUND(H26+_xlfn.CONFIDENCE.T(0.05,J26,10),2))),"-","[" &amp; ROUND(H26-_xlfn.CONFIDENCE.T(0.05,J26,10),2) &amp;" - " &amp; ROUND(H26+_xlfn.CONFIDENCE.T(0.05,J26,10),2) &amp;"]")</f>
+        <v>[13,87 - 14,33]</v>
+      </c>
+      <c r="N26" s="8">
+        <f>AVERAGE(H47:H56)</f>
+        <v>0.2</v>
+      </c>
+      <c r="O26" s="8">
+        <v>2</v>
+      </c>
+      <c r="P26" s="5">
+        <f>_xlfn.STDEV.S(H47:H56)</f>
+        <v>0.4216370213557839</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>MEDIAN(H47:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="146">
+        <f>IF(ISERROR(MODE(H47:H56)),"-",MODE(H47:H56))</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(N26-_xlfn.CONFIDENCE.T(0.05,P26,10),2)), ISERROR(ROUND(N26+_xlfn.CONFIDENCE.T(0.05,P26,10),2))),"-","[" &amp; ROUND(N26-_xlfn.CONFIDENCE.T(0.05,P26,10),2) &amp;" - " &amp; ROUND(N26+_xlfn.CONFIDENCE.T(0.05,P26,10),2) &amp;"]")</f>
+        <v>[-0,1 - 0,5]</v>
+      </c>
+      <c r="T26" s="1">
+        <f>AVERAGE(I47:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <f>_xlfn.STDEV.S(I47:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="94">
+        <f>MEDIAN(I47:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="93">
+        <f>IF(ISERROR(MODE(I47:I56)),"-",MODE(I47:I56))</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(T26-_xlfn.CONFIDENCE.T(0.05,U26,10),2)), ISERROR(ROUND(T26+_xlfn.CONFIDENCE.T(0.05,U26,10),2))),"-","[" &amp; ROUND(T26-_xlfn.CONFIDENCE.T(0.05,U26,10),2) &amp;" - " &amp; ROUND(T26+_xlfn.CONFIDENCE.T(0.05,U26,10),2) &amp;"]")</f>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="10">
+        <f>AVERAGE(J47:J56)</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C27" s="25">
+        <v>10</v>
+      </c>
+      <c r="D27" s="11">
+        <f>_xlfn.STDEV.S(J47:J56)</f>
+        <v>11.602681682362155</v>
+      </c>
+      <c r="E27" s="12">
+        <f>MEDIAN(J47:J56)</f>
+        <v>34.5</v>
+      </c>
+      <c r="F27" s="147" t="str">
+        <f>IF(ISERROR(MODE(J47:J56)),"-",MODE(J47:J56))</f>
+        <v>-</v>
+      </c>
+      <c r="G27" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(B27-_xlfn.CONFIDENCE.T(0.05,D27,10),2)), ISERROR(ROUND(B27+_xlfn.CONFIDENCE.T(0.05,D27,10),2))),"-","[" &amp; ROUND(B27-_xlfn.CONFIDENCE.T(0.05,D27,10),2) &amp;" - " &amp; ROUND(B27+_xlfn.CONFIDENCE.T(0.05,D27,10),2) &amp;"]")</f>
+        <v>[25,9 - 42,5]</v>
+      </c>
+      <c r="H27" s="24">
+        <f>AVERAGE(K47:K56)</f>
+        <v>8</v>
+      </c>
+      <c r="I27" s="25">
+        <v>3</v>
+      </c>
+      <c r="J27" s="14">
+        <f>_xlfn.STDEV.S(K47:K56)</f>
+        <v>1.8257418583505538</v>
+      </c>
+      <c r="K27" s="15">
+        <f>MEDIAN(K47:K56)</f>
+        <v>7.5</v>
+      </c>
+      <c r="L27" s="12">
+        <f>IF(ISERROR(MODE(K47:K56)),"-",MODE(K47:K56))</f>
+        <v>7</v>
+      </c>
+      <c r="M27" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(H27-_xlfn.CONFIDENCE.T(0.05,J27,10),2)), ISERROR(ROUND(H27+_xlfn.CONFIDENCE.T(0.05,J27,10),2))),"-","[" &amp; ROUND(H27-_xlfn.CONFIDENCE.T(0.05,J27,10),2) &amp;" - " &amp; ROUND(H27+_xlfn.CONFIDENCE.T(0.05,J27,10),2) &amp;"]")</f>
+        <v>[6,69 - 9,31]</v>
+      </c>
+      <c r="N27" s="25">
+        <f>AVERAGE(L47:L56)</f>
+        <v>0.6</v>
+      </c>
+      <c r="O27" s="25">
+        <v>2</v>
+      </c>
+      <c r="P27" s="11">
+        <f>_xlfn.STDEV.S(L47:L56)</f>
+        <v>0.69920589878010109</v>
+      </c>
+      <c r="Q27" s="12">
+        <f>MEDIAN(L47:L56)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R27" s="147">
+        <f>IF(ISERROR(MODE(L47:L56)),"-",MODE(L47:L56))</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(N27-_xlfn.CONFIDENCE.T(0.05,P27,10),2)), ISERROR(ROUND(N27+_xlfn.CONFIDENCE.T(0.05,P27,10),2))),"-","[" &amp; ROUND(N27-_xlfn.CONFIDENCE.T(0.05,P27,10),2) &amp;" - " &amp; ROUND(N27+_xlfn.CONFIDENCE.T(0.05,P27,10),2) &amp;"]")</f>
+        <v>[0,1 - 1,1]</v>
+      </c>
+      <c r="T27" s="24">
+        <f>AVERAGE(M47:M56)</f>
+        <v>0.7</v>
+      </c>
+      <c r="U27" s="14">
+        <f>_xlfn.STDEV.S(M47:M56)</f>
+        <v>0.48304589153964789</v>
+      </c>
+      <c r="V27" s="95">
+        <f>MEDIAN(M47:M56)</f>
+        <v>1</v>
+      </c>
+      <c r="W27" s="95">
+        <f>IF(ISERROR(MODE(M47:M56)),"-",MODE(M47:M56))</f>
+        <v>1</v>
+      </c>
+      <c r="X27" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(T27-_xlfn.CONFIDENCE.T(0.05,U27,10),2)), ISERROR(ROUND(T27+_xlfn.CONFIDENCE.T(0.05,U27,10),2))),"-","[" &amp; ROUND(T27-_xlfn.CONFIDENCE.T(0.05,U27,10),2) &amp;" - " &amp; ROUND(T27+_xlfn.CONFIDENCE.T(0.05,U27,10),2) &amp;"]")</f>
+        <v>[0,35 - 1,05]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="80"/>
+      <c r="B32" s="172" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
+      <c r="E32" s="173"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="172" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="173"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="174"/>
+      <c r="L32" s="165" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="166"/>
+      <c r="S32" s="166"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="167"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="O33" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="P33" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q33" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="R33" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="S33" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="T33" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="U33" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="104">
+        <f>MIN(B47:B56)</f>
+        <v>15</v>
+      </c>
+      <c r="C34" s="109">
+        <f>QUARTILE($B47:$B56,1)</f>
+        <v>23.5</v>
+      </c>
+      <c r="D34" s="103">
+        <f>QUARTILE($B47:$B56,2)</f>
+        <v>29.5</v>
+      </c>
+      <c r="E34" s="103">
+        <f>QUARTILE($B47:$B56,3)</f>
+        <v>34</v>
+      </c>
+      <c r="F34" s="111">
+        <f>MAX(B47:B56)</f>
+        <v>59</v>
+      </c>
+      <c r="G34" s="104">
+        <f>MIN(C47:C56)</f>
+        <v>9</v>
+      </c>
+      <c r="H34" s="105">
+        <f>QUARTILE($C47:$C56,1)</f>
+        <v>9</v>
+      </c>
+      <c r="I34" s="105">
+        <f>QUARTILE($C47:$C56,2)</f>
+        <v>9</v>
+      </c>
+      <c r="J34" s="105">
+        <f>QUARTILE($C47:$C56,3)</f>
+        <v>9</v>
+      </c>
+      <c r="K34" s="105">
+        <f>MAX($C47:$C56)</f>
+        <v>9</v>
+      </c>
+      <c r="L34" s="104">
+        <f>MIN(D47:D56)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="114">
+        <f>QUARTILE($D47:$D56,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="108">
+        <f>QUARTILE($D47:$D56,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="113">
+        <f>QUARTILE($D47:$D56,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="106">
+        <f>MAX($D47:$D56)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="104">
+        <f>MIN(E47:E56)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="103">
+        <f>QUARTILE($E47:$E56,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="103">
+        <f>QUARTILE($E47:$E56,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="103">
+        <f>QUARTILE($E47:$E56,3)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="106">
+        <f>MAX($E47:$E56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="33">
+        <f>MIN(F47:F56)</f>
         <v>29</v>
       </c>
-      <c r="C16" s="102">
-        <f>QUARTILE($F28:$F37,1)</f>
+      <c r="C35" s="102">
+        <f>QUARTILE($F47:$F56,1)</f>
         <v>31.25</v>
       </c>
-      <c r="D16" s="5">
-        <f>QUARTILE($F28:$F37,2)</f>
+      <c r="D35" s="5">
+        <f>QUARTILE($F47:$F56,2)</f>
         <v>40.5</v>
       </c>
-      <c r="E16" s="34">
-        <f>QUARTILE($F28:$F37,3)</f>
+      <c r="E35" s="34">
+        <f>QUARTILE($F47:$F56,3)</f>
         <v>48</v>
       </c>
-      <c r="F16" s="112">
-        <f>MAX($F28:$F37)</f>
+      <c r="F35" s="112">
+        <f>MAX($F47:$F56)</f>
         <v>58</v>
       </c>
-      <c r="G16" s="33">
-        <f>MIN(G28:G37)</f>
+      <c r="G35" s="33">
+        <f>MIN(G47:G56)</f>
         <v>14</v>
       </c>
-      <c r="H16" s="110">
-        <f>QUARTILE($G28:$G37,1)</f>
+      <c r="H35" s="110">
+        <f>QUARTILE($G47:$G56,1)</f>
         <v>14</v>
       </c>
-      <c r="I16" s="2">
-        <f>QUARTILE($G28:$G37,2)</f>
+      <c r="I35" s="2">
+        <f>QUARTILE($G47:$G56,2)</f>
         <v>14</v>
       </c>
-      <c r="J16" s="100">
-        <f>QUARTILE($G28:$G37,3)</f>
+      <c r="J35" s="100">
+        <f>QUARTILE($G47:$G56,3)</f>
         <v>14</v>
       </c>
-      <c r="K16" s="100">
-        <f>MAX($G28:$G37)</f>
+      <c r="K35" s="100">
+        <f>MAX($G47:$G56)</f>
         <v>15</v>
       </c>
-      <c r="L16" s="33">
-        <f>MIN(H28:H37)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="115">
-        <f>QUARTILE($H28:$H37,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <f>QUARTILE($H28:$H37,2)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="94">
-        <f>QUARTILE($H28:$H37,3)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="107">
-        <f>MAX($H28:$H37)</f>
+      <c r="L35" s="33">
+        <f>MIN(H47:H56)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="115">
+        <f>QUARTILE($H47:$H56,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <f>QUARTILE($H47:$H56,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="94">
+        <f>QUARTILE($H47:$H56,3)</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="107">
+        <f>MAX($H47:$H56)</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="33">
-        <f>MIN(I28:I37)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="5">
-        <f>QUARTILE($I28:$I37,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
-        <f>QUARTILE($I28:$I37,2)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="5">
-        <f>QUARTILE($I28:$I37,3)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="107">
-        <f>MAX($I28:$I37)</f>
+      <c r="Q35" s="33">
+        <f>MIN(I47:I56)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="5">
+        <f>QUARTILE($I47:$I56,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="5">
+        <f>QUARTILE($I47:$I56,2)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="5">
+        <f>QUARTILE($I47:$I56,3)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="107">
+        <f>MAX($I47:$I56)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="116" t="s">
+    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="118">
-        <f>MIN(J28:J37)</f>
+      <c r="B36" s="118">
+        <f>MIN(J47:J56)</f>
         <v>16</v>
       </c>
-      <c r="C17" s="119">
-        <f>QUARTILE($J28:$J37,1)</f>
+      <c r="C36" s="119">
+        <f>QUARTILE($J47:$J56,1)</f>
         <v>25.25</v>
       </c>
-      <c r="D17" s="120">
-        <f>QUARTILE($J28:$J37,2)</f>
+      <c r="D36" s="120">
+        <f>QUARTILE($J47:$J56,2)</f>
         <v>34.5</v>
       </c>
-      <c r="E17" s="120">
-        <f>QUARTILE($J28:$J37,3)</f>
+      <c r="E36" s="120">
+        <f>QUARTILE($J47:$J56,3)</f>
         <v>41.5</v>
       </c>
-      <c r="F17" s="121">
-        <f>MAX($J28:$J37)</f>
+      <c r="F36" s="121">
+        <f>MAX($J47:$J56)</f>
         <v>55</v>
       </c>
-      <c r="G17" s="118">
-        <f>MIN(K28:K37)</f>
+      <c r="G36" s="118">
+        <f>MIN(K47:K56)</f>
         <v>7</v>
       </c>
-      <c r="H17" s="122">
-        <f>QUARTILE($K28:$K37,1)</f>
+      <c r="H36" s="122">
+        <f>QUARTILE($K47:$K56,1)</f>
         <v>7</v>
       </c>
-      <c r="I17" s="123">
-        <f>QUARTILE($K28:$K37,2)</f>
+      <c r="I36" s="123">
+        <f>QUARTILE($K47:$K56,2)</f>
         <v>7.5</v>
       </c>
-      <c r="J17" s="124">
-        <f>QUARTILE($K28:$K37,3)</f>
+      <c r="J36" s="124">
+        <f>QUARTILE($K47:$K56,3)</f>
         <v>8</v>
       </c>
-      <c r="K17" s="124">
-        <f>MAX($K28:$K37)</f>
+      <c r="K36" s="124">
+        <f>MAX($K47:$K56)</f>
         <v>13</v>
       </c>
-      <c r="L17" s="118">
-        <f>MIN(L28:L37)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="125">
-        <f>QUARTILE($L28:$L37,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="126">
-        <f>QUARTILE($L28:$L37,2)</f>
+      <c r="L36" s="118">
+        <f>MIN(L47:L56)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="125">
+        <f>QUARTILE($L47:$L56,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="126">
+        <f>QUARTILE($L47:$L56,2)</f>
         <v>0.5</v>
       </c>
-      <c r="O17" s="127">
-        <f>QUARTILE($L28:$L37,3)</f>
+      <c r="O36" s="127">
+        <f>QUARTILE($L47:$L56,3)</f>
         <v>1</v>
       </c>
-      <c r="P17" s="128">
-        <f>MAX($L28:$L37)</f>
+      <c r="P36" s="128">
+        <f>MAX($L47:$L56)</f>
         <v>2</v>
       </c>
-      <c r="Q17" s="118">
-        <f>MIN(M28:M37)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="120">
-        <f>QUARTILE($M28:$M37,1)</f>
+      <c r="Q36" s="118">
+        <f>MIN(M47:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="120">
+        <f>QUARTILE($M47:$M56,1)</f>
         <v>0.25</v>
       </c>
-      <c r="S17" s="120">
-        <f>QUARTILE($M28:$M37,2)</f>
+      <c r="S36" s="120">
+        <f>QUARTILE($M47:$M56,2)</f>
         <v>1</v>
       </c>
-      <c r="T17" s="120">
-        <f>QUARTILE($M28:$M37,3)</f>
+      <c r="T36" s="120">
+        <f>QUARTILE($M47:$M56,3)</f>
         <v>1</v>
       </c>
-      <c r="U17" s="128">
-        <f>MAX($M28:$M37)</f>
+      <c r="U36" s="128">
+        <f>MAX($M47:$M56)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="129" t="s">
+    <row r="37" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="130">
-        <f>B15</f>
+      <c r="B37" s="130">
+        <f>B34</f>
         <v>15</v>
       </c>
-      <c r="C18" s="131">
-        <f>C15-B15</f>
+      <c r="C37" s="131">
+        <f>C34-B34</f>
         <v>8.5</v>
       </c>
-      <c r="D18" s="131">
-        <f t="shared" ref="D18:F18" si="0">D15-C15</f>
+      <c r="D37" s="131">
+        <f t="shared" ref="D37:F37" si="0">D34-C34</f>
         <v>6</v>
       </c>
-      <c r="E18" s="131">
+      <c r="E37" s="131">
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="F18" s="132">
+      <c r="F37" s="132">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G18" s="131">
-        <f>G15</f>
+      <c r="G37" s="131">
+        <f>G34</f>
         <v>9</v>
       </c>
-      <c r="H18" s="131">
-        <f>H15-G15</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="131">
-        <f t="shared" ref="I18:K18" si="1">I15-H15</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="131">
+      <c r="H37" s="131">
+        <f>H34-G34</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="131">
+        <f t="shared" ref="I37:K37" si="1">I34-H34</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K18" s="132">
+      <c r="K37" s="132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="131">
-        <f>L15</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="131">
-        <f>M15-L15</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="131">
-        <f t="shared" ref="N18:P18" si="2">N15-M15</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="131">
+      <c r="L37" s="131">
+        <f>L34</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="131">
+        <f>M34-L34</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="131">
+        <f t="shared" ref="N37:P37" si="2">N34-M34</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="131">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P18" s="132">
+      <c r="P37" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="131">
-        <f>Q15</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="131">
-        <f>R15-Q15</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="131">
-        <f t="shared" ref="S18:U18" si="3">S15-R15</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="131">
+      <c r="Q37" s="131">
+        <f>Q34</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="131">
+        <f>R34-Q34</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="131">
+        <f t="shared" ref="S37:U37" si="3">S34-R34</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="131">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U18" s="132">
+      <c r="U37" s="132">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="117" t="s">
+    <row r="38" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="133">
-        <f>B16</f>
+      <c r="B38" s="133">
+        <f>B35</f>
         <v>29</v>
       </c>
-      <c r="C19" s="134">
-        <f t="shared" ref="C19:F20" si="4">C16-B16</f>
+      <c r="C38" s="134">
+        <f t="shared" ref="C38:F39" si="4">C35-B35</f>
         <v>2.25</v>
       </c>
-      <c r="D19" s="134">
+      <c r="D38" s="134">
         <f t="shared" si="4"/>
         <v>9.25</v>
       </c>
-      <c r="E19" s="134">
+      <c r="E38" s="134">
         <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
-      <c r="F19" s="135">
+      <c r="F38" s="135">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G19" s="134">
-        <f>G16</f>
+      <c r="G38" s="134">
+        <f>G35</f>
         <v>14</v>
       </c>
-      <c r="H19" s="134">
-        <f t="shared" ref="H19:K20" si="5">H16-G16</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="134">
+      <c r="H38" s="134">
+        <f t="shared" ref="H38:K39" si="5">H35-G35</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="134">
+      <c r="J38" s="134">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K19" s="135">
+      <c r="K38" s="135">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="L19" s="134">
-        <f t="shared" ref="L19:L20" si="6">L16</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="134">
-        <f t="shared" ref="M19:P20" si="7">M16-L16</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="134">
+      <c r="L38" s="134">
+        <f t="shared" ref="L38:L39" si="6">L35</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="134">
+        <f t="shared" ref="M38:P39" si="7">M35-L35</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="134">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O19" s="134">
+      <c r="O38" s="134">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="P19" s="135">
+      <c r="P38" s="135">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="134">
-        <f t="shared" ref="Q19:Q20" si="8">Q16</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="134">
-        <f t="shared" ref="R19:U20" si="9">R16-Q16</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="134">
+      <c r="Q38" s="134">
+        <f t="shared" ref="Q38:Q39" si="8">Q35</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="134">
+        <f t="shared" ref="R38:U39" si="9">R35-Q35</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="134">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="T19" s="134">
+      <c r="T38" s="134">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U19" s="135">
+      <c r="U38" s="135">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="136">
-        <f t="shared" ref="B20" si="10">B17</f>
+      <c r="B39" s="136">
+        <f t="shared" ref="B39" si="10">B36</f>
         <v>16</v>
       </c>
-      <c r="C20" s="137">
+      <c r="C39" s="137">
         <f t="shared" si="4"/>
         <v>9.25</v>
       </c>
-      <c r="D20" s="137">
+      <c r="D39" s="137">
         <f t="shared" si="4"/>
         <v>9.25</v>
       </c>
-      <c r="E20" s="137">
+      <c r="E39" s="137">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F20" s="138">
+      <c r="F39" s="138">
         <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
-      <c r="G20" s="137">
-        <f t="shared" ref="G20" si="11">G17</f>
+      <c r="G39" s="137">
+        <f t="shared" ref="G39" si="11">G36</f>
         <v>7</v>
       </c>
-      <c r="H20" s="137">
+      <c r="H39" s="137">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I20" s="137">
+      <c r="I39" s="137">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="J20" s="137">
+      <c r="J39" s="137">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-      <c r="K20" s="138">
+      <c r="K39" s="138">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="L20" s="137">
+      <c r="L39" s="137">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M20" s="137">
+      <c r="M39" s="137">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N20" s="137">
+      <c r="N39" s="137">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="O20" s="137">
+      <c r="O39" s="137">
         <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="P20" s="138">
+      <c r="P39" s="138">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="137">
+      <c r="Q39" s="137">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R20" s="139">
+      <c r="R39" s="139">
         <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
-      <c r="S20" s="139">
+      <c r="S39" s="139">
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="T20" s="139">
-        <f>T17-S17</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="140">
+      <c r="T39" s="139">
+        <f>T36-S36</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="140">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="79"/>
-      <c r="B26" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="160" t="s">
+    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="79"/>
+      <c r="B45" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="164"/>
+      <c r="F45" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="160" t="s">
+      <c r="G45" s="163"/>
+      <c r="H45" s="163"/>
+      <c r="I45" s="164"/>
+      <c r="J45" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="162"/>
+      <c r="K45" s="163"/>
+      <c r="L45" s="163"/>
+      <c r="M45" s="164"/>
+      <c r="O45" s="80"/>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="23"/>
-      <c r="B27" s="46" t="s">
+    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="23"/>
+      <c r="B46" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C46" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D46" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E46" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F46" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G46" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H46" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I27" s="48" t="s">
+      <c r="I46" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="J27" s="47" t="s">
+      <c r="J46" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="49" t="s">
+      <c r="K46" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="49" t="s">
+      <c r="L46" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="M27" s="48" t="s">
+      <c r="M46" s="48" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B47" s="41">
         <v>31</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C47" s="35">
         <v>9</v>
       </c>
-      <c r="D28" s="35">
-        <v>0</v>
-      </c>
-      <c r="E28" s="85">
-        <v>0</v>
-      </c>
-      <c r="F28" s="41">
+      <c r="D47" s="35">
+        <v>0</v>
+      </c>
+      <c r="E47" s="85">
+        <v>0</v>
+      </c>
+      <c r="F47" s="41">
         <v>30</v>
       </c>
-      <c r="G28" s="86">
+      <c r="G47" s="86">
         <v>14</v>
       </c>
-      <c r="H28" s="35">
-        <v>0</v>
-      </c>
-      <c r="I28" s="36">
-        <v>0</v>
-      </c>
-      <c r="J28" s="41">
+      <c r="H47" s="35">
+        <v>0</v>
+      </c>
+      <c r="I47" s="36">
+        <v>0</v>
+      </c>
+      <c r="J47" s="41">
         <v>16</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K47" s="35">
         <v>7</v>
       </c>
-      <c r="L28" s="35">
-        <v>0</v>
-      </c>
-      <c r="M28" s="85">
+      <c r="L47" s="35">
+        <v>0</v>
+      </c>
+      <c r="M47" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B48" s="9">
         <v>29</v>
       </c>
-      <c r="C29" s="87">
+      <c r="C48" s="87">
         <v>9</v>
       </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9">
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9">
         <v>36</v>
       </c>
-      <c r="G29" s="87">
+      <c r="G48" s="87">
         <v>14</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H48" s="6">
         <v>1</v>
       </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="9">
         <v>29</v>
       </c>
-      <c r="K29" s="87">
+      <c r="K48" s="87">
         <v>8</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L48" s="6">
         <v>1</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M48" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B49" s="9">
         <v>30</v>
       </c>
-      <c r="C30" s="87">
+      <c r="C49" s="87">
         <v>9</v>
       </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="9">
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9">
         <v>48</v>
       </c>
-      <c r="G30" s="87">
+      <c r="G49" s="87">
         <v>14</v>
       </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="9">
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="9">
         <v>40</v>
       </c>
-      <c r="K30" s="87">
+      <c r="K49" s="87">
         <v>8</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L49" s="6">
         <v>1</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M49" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B50" s="9">
         <v>25</v>
       </c>
-      <c r="C31" s="87">
+      <c r="C50" s="87">
         <v>9</v>
       </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="9">
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9">
         <v>58</v>
       </c>
-      <c r="G31" s="87">
+      <c r="G50" s="87">
         <v>15</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H50" s="6">
         <v>1</v>
       </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="9">
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="9">
         <v>34</v>
       </c>
-      <c r="K31" s="87">
+      <c r="K50" s="87">
         <v>7</v>
       </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B51" s="9">
         <f>48-5</f>
         <v>43</v>
       </c>
-      <c r="C32" s="87">
+      <c r="C51" s="87">
         <v>9</v>
       </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="9">
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9">
         <v>48</v>
       </c>
-      <c r="G32" s="87">
+      <c r="G51" s="87">
         <v>14</v>
       </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="9">
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="9">
         <f>37-2</f>
         <v>35</v>
       </c>
-      <c r="K32" s="87">
+      <c r="K51" s="87">
         <v>7</v>
       </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="19" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B52" s="9">
         <v>23</v>
       </c>
-      <c r="C33" s="87">
+      <c r="C52" s="87">
         <v>9</v>
       </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="9">
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="9">
         <v>45</v>
       </c>
-      <c r="G33" s="87">
+      <c r="G52" s="87">
         <v>14</v>
       </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="9">
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="9">
         <v>55</v>
       </c>
-      <c r="K33" s="87">
+      <c r="K52" s="87">
         <v>8</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L52" s="6">
         <v>1</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M52" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B53" s="9">
         <v>15</v>
       </c>
-      <c r="C34" s="87">
+      <c r="C53" s="87">
         <v>9</v>
       </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="9">
+      <c r="D53" s="6">
+        <v>0</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0</v>
+      </c>
+      <c r="F53" s="9">
         <v>29</v>
       </c>
-      <c r="G34" s="87">
+      <c r="G53" s="87">
         <v>14</v>
       </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="9">
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0</v>
+      </c>
+      <c r="J53" s="9">
         <v>23</v>
       </c>
-      <c r="K34" s="87">
+      <c r="K53" s="87">
         <v>7</v>
       </c>
-      <c r="L34" s="6">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7">
+      <c r="L53" s="6">
+        <v>0</v>
+      </c>
+      <c r="M53" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B54" s="9">
         <v>35</v>
       </c>
-      <c r="C35" s="87">
+      <c r="C54" s="87">
         <v>9</v>
       </c>
-      <c r="D35" s="6">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="9">
+      <c r="D54" s="6">
+        <v>0</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
         <v>52</v>
       </c>
-      <c r="G35" s="87">
+      <c r="G54" s="87">
         <v>14</v>
       </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="9">
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0</v>
+      </c>
+      <c r="J54" s="9">
         <v>42</v>
       </c>
-      <c r="K35" s="87">
+      <c r="K54" s="87">
         <v>7</v>
       </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7">
+      <c r="L54" s="6">
+        <v>0</v>
+      </c>
+      <c r="M54" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B55" s="9">
         <v>21</v>
       </c>
-      <c r="C36" s="87">
+      <c r="C55" s="87">
         <v>9</v>
       </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="9">
+      <c r="D55" s="6">
+        <v>0</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0</v>
+      </c>
+      <c r="F55" s="9">
         <v>32</v>
       </c>
-      <c r="G36" s="87">
+      <c r="G55" s="87">
         <v>14</v>
       </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="9">
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0</v>
+      </c>
+      <c r="J55" s="9">
         <v>44</v>
       </c>
-      <c r="K36" s="87">
+      <c r="K55" s="87">
         <v>13</v>
       </c>
-      <c r="L36" s="87">
+      <c r="L55" s="87">
         <v>2</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M55" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21" t="s">
+    <row r="56" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B56" s="22">
         <v>59</v>
       </c>
-      <c r="C37" s="88">
+      <c r="C56" s="88">
         <v>9</v>
       </c>
-      <c r="D37" s="12">
-        <v>0</v>
-      </c>
-      <c r="E37" s="89">
-        <v>0</v>
-      </c>
-      <c r="F37" s="90">
+      <c r="D56" s="12">
+        <v>0</v>
+      </c>
+      <c r="E56" s="89">
+        <v>0</v>
+      </c>
+      <c r="F56" s="90">
         <v>31</v>
       </c>
-      <c r="G37" s="88">
+      <c r="G56" s="88">
         <v>14</v>
       </c>
-      <c r="H37" s="88">
-        <v>0</v>
-      </c>
-      <c r="I37" s="89">
-        <v>0</v>
-      </c>
-      <c r="J37" s="90">
+      <c r="H56" s="88">
+        <v>0</v>
+      </c>
+      <c r="I56" s="89">
+        <v>0</v>
+      </c>
+      <c r="J56" s="90">
         <v>24</v>
       </c>
-      <c r="K37" s="88">
+      <c r="K56" s="88">
         <v>8</v>
       </c>
-      <c r="L37" s="88">
+      <c r="L56" s="88">
         <v>1</v>
       </c>
-      <c r="M37" s="89">
+      <c r="M56" s="89">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF60" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG60" s="178"/>
-      <c r="AH60" s="178"/>
-      <c r="AI60" s="178"/>
-      <c r="AJ60" s="178"/>
+    <row r="80" spans="32:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF80" s="168" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG80" s="168"/>
+      <c r="AH80" s="168"/>
+      <c r="AI80" s="168"/>
+      <c r="AJ80" s="168"/>
     </row>
-    <row r="61" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF61" s="170" t="s">
+    <row r="81" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AF81" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="AG61" s="171"/>
-      <c r="AH61" s="171"/>
-      <c r="AI61" s="171"/>
-      <c r="AJ61" s="172"/>
+      <c r="AG81" s="182"/>
+      <c r="AH81" s="182"/>
+      <c r="AI81" s="182"/>
+      <c r="AJ81" s="183"/>
     </row>
-    <row r="62" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF62" s="173" t="s">
+    <row r="82" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="81"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="81"/>
+      <c r="J82" s="81"/>
+      <c r="K82" s="81"/>
+      <c r="L82" s="81"/>
+      <c r="M82" s="81"/>
+      <c r="N82" s="81"/>
+      <c r="O82" s="81"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="81"/>
+      <c r="S82" s="81"/>
+      <c r="T82" s="81"/>
+      <c r="U82" s="81"/>
+      <c r="V82" s="81"/>
+      <c r="W82" s="81"/>
+      <c r="X82" s="81"/>
+      <c r="Y82" s="81"/>
+      <c r="Z82" s="81"/>
+      <c r="AA82" s="81"/>
+      <c r="AB82" s="81"/>
+      <c r="AC82" s="81"/>
+      <c r="AF82" s="155" t="s">
         <v>3</v>
       </c>
-      <c r="AG62" s="174" t="s">
+      <c r="AG82" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="AH62" s="173" t="s">
+      <c r="AH82" s="155" t="s">
         <v>4</v>
       </c>
-      <c r="AI62" s="173" t="s">
+      <c r="AI82" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="AJ62" s="173" t="s">
+      <c r="AJ82" s="155" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A63" s="81"/>
-      <c r="B63" s="81"/>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="81"/>
-      <c r="I63" s="81"/>
-      <c r="J63" s="81"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="81"/>
-      <c r="N63" s="81"/>
-      <c r="O63" s="81"/>
-      <c r="P63" s="81"/>
-      <c r="Q63" s="81"/>
-      <c r="R63" s="81"/>
-      <c r="S63" s="81"/>
-      <c r="T63" s="81"/>
-      <c r="U63" s="81"/>
-      <c r="V63" s="81"/>
-      <c r="W63" s="81"/>
-      <c r="X63" s="81"/>
-      <c r="Y63" s="81"/>
-      <c r="Z63" s="81"/>
-      <c r="AA63" s="81"/>
-      <c r="AB63" s="81"/>
-      <c r="AC63" s="81"/>
-      <c r="AE63" s="175" t="s">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AE83" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="AF63" s="141">
-        <f>IF(ISERROR(B6-ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2)),"-",B6-ROUND(B6-_xlfn.CONFIDENCE.T(0.05,D6,10),2))</f>
+      <c r="AF83" s="141">
+        <f>IF(ISERROR(B25-ROUND(B25-_xlfn.CONFIDENCE.T(0.05,D25,10),2)),"-",B25-ROUND(B25-_xlfn.CONFIDENCE.T(0.05,D25,10),2))</f>
         <v>8.9400000000000013</v>
       </c>
-      <c r="AG63" s="179" t="str">
-        <f>IF(ISERROR(H6-ROUND(H6-_xlfn.CONFIDENCE.T(0.05,J6,10),2)),"-",H6-ROUND(H6-_xlfn.CONFIDENCE.T(0.05,J6,10),2))</f>
+      <c r="AG83" s="160" t="str">
+        <f>IF(ISERROR(H25-ROUND(H25-_xlfn.CONFIDENCE.T(0.05,J25,10),2)),"-",H25-ROUND(H25-_xlfn.CONFIDENCE.T(0.05,J25,10),2))</f>
         <v>-</v>
       </c>
-      <c r="AH63" s="179" t="str">
-        <f>IF(ISERROR(N6-ROUND(N6-_xlfn.CONFIDENCE.T(0.05,P6,10),2)),"-",N6-ROUND(N6-_xlfn.CONFIDENCE.T(0.05,P6,10),2))</f>
+      <c r="AH83" s="160" t="str">
+        <f>IF(ISERROR(N25-ROUND(N25-_xlfn.CONFIDENCE.T(0.05,P25,10),2)),"-",N25-ROUND(N25-_xlfn.CONFIDENCE.T(0.05,P25,10),2))</f>
         <v>-</v>
       </c>
-      <c r="AI63" s="180" t="str">
-        <f>IF(ISERROR(T6-ROUND(T6-_xlfn.CONFIDENCE.T(0.05,U6,10),2)),"-",T6-ROUND(T6-_xlfn.CONFIDENCE.T(0.05,U6,10),2))</f>
+      <c r="AI83" s="161" t="str">
+        <f>IF(ISERROR(T25-ROUND(T25-_xlfn.CONFIDENCE.T(0.05,U25,10),2)),"-",T25-ROUND(T25-_xlfn.CONFIDENCE.T(0.05,U25,10),2))</f>
         <v>-</v>
       </c>
-      <c r="AJ63" s="168">
-        <f t="shared" ref="AJ63:AJ64" si="12">G68-ROUND(G68-_xlfn.CONFIDENCE.T(0.05,H68,10),2)</f>
+      <c r="AJ83" s="153">
+        <f>G87-ROUND(G87-_xlfn.CONFIDENCE.T(0.05,H87,10),2)</f>
         <v>0.48000000000000043</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="AE64" s="176" t="s">
+    <row r="84" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AE84" s="158" t="s">
         <v>65</v>
       </c>
-      <c r="AF64" s="141">
-        <f t="shared" ref="AF64:AF65" si="13">IF(ISERROR(B7-ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2)),"-",B7-ROUND(B7-_xlfn.CONFIDENCE.T(0.05,D7,10),2))</f>
+      <c r="AF84" s="141">
+        <f>IF(ISERROR(B26-ROUND(B26-_xlfn.CONFIDENCE.T(0.05,D26,10),2)),"-",B26-ROUND(B26-_xlfn.CONFIDENCE.T(0.05,D26,10),2))</f>
         <v>7.519999999999996</v>
       </c>
-      <c r="AG64" s="142">
-        <f t="shared" ref="AG64:AG65" si="14">IF(ISERROR(H7-ROUND(H7-_xlfn.CONFIDENCE.T(0.05,J7,10),2)),"-",H7-ROUND(H7-_xlfn.CONFIDENCE.T(0.05,J7,10),2))</f>
+      <c r="AG84" s="142">
+        <f>IF(ISERROR(H26-ROUND(H26-_xlfn.CONFIDENCE.T(0.05,J26,10),2)),"-",H26-ROUND(H26-_xlfn.CONFIDENCE.T(0.05,J26,10),2))</f>
         <v>0.23000000000000043</v>
       </c>
-      <c r="AH64" s="142">
-        <f t="shared" ref="AH64:AH65" si="15">IF(ISERROR(N7-ROUND(N7-_xlfn.CONFIDENCE.T(0.05,P7,10),2)),"-",N7-ROUND(N7-_xlfn.CONFIDENCE.T(0.05,P7,10),2))</f>
+      <c r="AH84" s="142">
+        <f>IF(ISERROR(N26-ROUND(N26-_xlfn.CONFIDENCE.T(0.05,P26,10),2)),"-",N26-ROUND(N26-_xlfn.CONFIDENCE.T(0.05,P26,10),2))</f>
         <v>0.30000000000000004</v>
       </c>
-      <c r="AI64" s="144" t="str">
-        <f t="shared" ref="AI64:AI65" si="16">IF(ISERROR(T7-ROUND(T7-_xlfn.CONFIDENCE.T(0.05,U7,10),2)),"-",T7-ROUND(T7-_xlfn.CONFIDENCE.T(0.05,U7,10),2))</f>
+      <c r="AI84" s="144" t="str">
+        <f>IF(ISERROR(T26-ROUND(T26-_xlfn.CONFIDENCE.T(0.05,U26,10),2)),"-",T26-ROUND(T26-_xlfn.CONFIDENCE.T(0.05,U26,10),2))</f>
         <v>-</v>
       </c>
-      <c r="AJ64" s="169">
-        <f>G69-ROUND(G69-_xlfn.CONFIDENCE.T(0.05,H69,10),2)</f>
+      <c r="AJ84" s="154">
+        <f>G88-ROUND(G88-_xlfn.CONFIDENCE.T(0.05,H88,10),2)</f>
         <v>0.35000000000000053</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AE65" s="177" t="s">
+    <row r="85" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="80"/>
+      <c r="B85" s="165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C85" s="166"/>
+      <c r="D85" s="166"/>
+      <c r="E85" s="166"/>
+      <c r="F85" s="167"/>
+      <c r="G85" s="165" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="166"/>
+      <c r="I85" s="166"/>
+      <c r="J85" s="166"/>
+      <c r="K85" s="166"/>
+      <c r="L85" s="166"/>
+      <c r="M85" s="166"/>
+      <c r="N85" s="167"/>
+      <c r="AE85" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="AF65" s="143">
-        <f t="shared" si="13"/>
+      <c r="AF85" s="143">
+        <f>IF(ISERROR(B27-ROUND(B27-_xlfn.CONFIDENCE.T(0.05,D27,10),2)),"-",B27-ROUND(B27-_xlfn.CONFIDENCE.T(0.05,D27,10),2))</f>
         <v>8.3000000000000043</v>
       </c>
-      <c r="AG65" s="143">
-        <f t="shared" si="14"/>
+      <c r="AG85" s="143">
+        <f>IF(ISERROR(H27-ROUND(H27-_xlfn.CONFIDENCE.T(0.05,J27,10),2)),"-",H27-ROUND(H27-_xlfn.CONFIDENCE.T(0.05,J27,10),2))</f>
         <v>1.3099999999999996</v>
       </c>
-      <c r="AH65" s="143">
-        <f t="shared" si="15"/>
+      <c r="AH85" s="143">
+        <f>IF(ISERROR(N27-ROUND(N27-_xlfn.CONFIDENCE.T(0.05,P27,10),2)),"-",N27-ROUND(N27-_xlfn.CONFIDENCE.T(0.05,P27,10),2))</f>
         <v>0.5</v>
       </c>
-      <c r="AI65" s="145">
-        <f t="shared" si="16"/>
+      <c r="AI85" s="145">
+        <f>IF(ISERROR(T27-ROUND(T27-_xlfn.CONFIDENCE.T(0.05,U27,10),2)),"-",T27-ROUND(T27-_xlfn.CONFIDENCE.T(0.05,U27,10),2))</f>
         <v>0.35</v>
       </c>
-      <c r="AJ65" s="167">
-        <f>G70-ROUND(G70-_xlfn.CONFIDENCE.T(0.05,H70,10),2)</f>
+      <c r="AJ85" s="152">
+        <f>G89-ROUND(G89-_xlfn.CONFIDENCE.T(0.05,H89,10),2)</f>
         <v>0.50999999999999979</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="80"/>
-      <c r="B66" s="148" t="s">
+    <row r="86" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I86" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="148" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="L86" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="N86" s="48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A87" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="50">
+        <f>COUNTIF($B94:$B103,B$86)/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="C87" s="51">
+        <f>COUNTIF($B94:$B103,C$86)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="D87" s="51">
+        <f>COUNTIF($B94:$B103,D$86)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E87" s="51">
+        <f>COUNTIF($B94:$B103,E$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="52">
+        <f>COUNTIF($B94:$B103,F$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="149">
+        <f>AVERAGE(J94:J103)</f>
+        <v>4.7</v>
+      </c>
+      <c r="H87" s="34">
+        <f>_xlfn.STDEV.S(J94:J103)</f>
+        <v>0.6749485577105524</v>
+      </c>
+      <c r="I87" s="35" t="str">
+        <f>IF(OR(ISERROR(ROUND(G87-_xlfn.CONFIDENCE.T(0.05,H87,10),2)), ISERROR(ROUND(G87+_xlfn.CONFIDENCE.T(0.05,H87,10),2))),"-","[" &amp; ROUND(G87-_xlfn.CONFIDENCE.T(0.05,H87,10),2) &amp;" - " &amp; ROUND(G87+_xlfn.CONFIDENCE.T(0.05,H87,10),2) &amp;"]")</f>
+        <v>[4,22 - 5,18]</v>
+      </c>
+      <c r="J87" s="53">
+        <f>COUNTIF($E94:$E103,J$86)/10</f>
+        <v>0.8</v>
+      </c>
+      <c r="K87" s="53">
+        <f>COUNTIF($E94:$E103,K$86)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="L87" s="53">
+        <f>COUNTIF($E94:$E103,L$86)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="M87" s="53">
+        <f>COUNTIF($E94:$E103,M$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="54">
+        <f>COUNTIF($E94:$E103,N$86)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A88" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="55">
+        <f>COUNTIF($C94:$C103,B$86)/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="C88" s="56">
+        <f>COUNTIF($C94:$C103,C$86)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="D88" s="56">
+        <f>COUNTIF($C94:$C103,D$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="56">
+        <f>COUNTIF($C94:$C103,E$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="57">
+        <f>COUNTIF($C94:$C103,F$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="150">
+        <f>AVERAGE(K94:K103)</f>
+        <v>4.7</v>
+      </c>
+      <c r="H88" s="5">
+        <f>_xlfn.STDEV.S(K94:K103)</f>
+        <v>0.48304589153964794</v>
+      </c>
+      <c r="I88" s="35" t="str">
+        <f t="shared" ref="I88:I89" si="12">IF(OR(ISERROR(ROUND(G88-_xlfn.CONFIDENCE.T(0.05,H88,10),2)), ISERROR(ROUND(G88+_xlfn.CONFIDENCE.T(0.05,H88,10),2))),"-","[" &amp; ROUND(G88-_xlfn.CONFIDENCE.T(0.05,H88,10),2) &amp;" - " &amp; ROUND(G88+_xlfn.CONFIDENCE.T(0.05,H88,10),2) &amp;"]")</f>
+        <v>[4,35 - 5,05]</v>
+      </c>
+      <c r="J88" s="58">
+        <f>COUNTIF(F94:F103,J$86)/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="K88" s="58">
+        <f>COUNTIF($F94:$F103,K$86)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="L88" s="58">
+        <f>COUNTIF($F94:$F103,L$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="58">
+        <f>COUNTIF($F94:$F103,M$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="N88" s="59">
+        <f>COUNTIF($F94:$F103,N$86)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B89" s="60">
+        <f>COUNTIF($D94:$D103,B$86)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="C89" s="61">
+        <f>COUNTIF($D94:$D103,C$86)/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="D89" s="61">
+        <f>COUNTIF($D94:$D103,D$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="61">
+        <f>COUNTIF($D94:$D103,E$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="62">
+        <f>COUNTIF($D94:$D103,F$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="151">
+        <f>AVERAGE(L94:L103)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H89" s="11">
+        <f>_xlfn.STDEV.S(L94:L103)</f>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="I89" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>[3,99 - 5,01]</v>
+      </c>
+      <c r="J89" s="63">
+        <f>COUNTIF($G94:$G103,J$86)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="K89" s="63">
+        <f>COUNTIF($G94:$G103,K$86)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="L89" s="63">
+        <f>COUNTIF($G94:$G103,L$86)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="M89" s="63">
+        <f>COUNTIF($G94:$G103,M$86)/10</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="64">
+        <f>COUNTIF($G94:$G103,N$86)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="92" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="80"/>
+      <c r="B92" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="149"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="148" t="s">
+      <c r="C92" s="170"/>
+      <c r="D92" s="171"/>
+      <c r="E92" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="H66" s="149"/>
-      <c r="I66" s="149"/>
-      <c r="J66" s="149"/>
-      <c r="K66" s="149"/>
-      <c r="L66" s="149"/>
-      <c r="M66" s="149"/>
-      <c r="N66" s="150"/>
+      <c r="F92" s="170"/>
+      <c r="G92" s="171"/>
+      <c r="J92" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="170"/>
+      <c r="L92" s="171"/>
     </row>
-    <row r="67" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="46" t="s">
+    <row r="93" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="J93" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K93" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="L93" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A94" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E94" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="G94" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I94" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J94" s="45">
+        <v>3</v>
+      </c>
+      <c r="K94" s="43">
+        <v>4</v>
+      </c>
+      <c r="L94" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A95" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="G95" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I95" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" s="29">
+        <v>4</v>
+      </c>
+      <c r="K95" s="27">
+        <v>4</v>
+      </c>
+      <c r="L95" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A96" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="47" t="s">
+      <c r="D96" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="E96" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G96" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I96" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J96" s="26">
+        <v>5</v>
+      </c>
+      <c r="K96" s="29">
+        <v>5</v>
+      </c>
+      <c r="L96" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E97" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G97" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J97" s="26">
+        <v>5</v>
+      </c>
+      <c r="K97" s="29">
+        <v>5</v>
+      </c>
+      <c r="L97" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G98" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I98" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="26">
+        <v>5</v>
+      </c>
+      <c r="K98" s="29">
+        <v>5</v>
+      </c>
+      <c r="L98" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G99" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="26">
+        <v>5</v>
+      </c>
+      <c r="K99" s="29">
+        <v>5</v>
+      </c>
+      <c r="L99" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I100" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="26">
+        <v>5</v>
+      </c>
+      <c r="K100" s="29">
+        <v>5</v>
+      </c>
+      <c r="L100" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G101" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I101" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" s="26">
+        <v>5</v>
+      </c>
+      <c r="K101" s="29">
+        <v>5</v>
+      </c>
+      <c r="L101" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G102" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I102" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="26">
+        <v>5</v>
+      </c>
+      <c r="K102" s="29">
+        <v>5</v>
+      </c>
+      <c r="L102" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B103" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G103" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I103" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="30">
+        <v>5</v>
+      </c>
+      <c r="K103" s="31">
+        <v>4</v>
+      </c>
+      <c r="L103" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A127" s="81"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="81"/>
+      <c r="D127" s="81"/>
+      <c r="E127" s="81"/>
+      <c r="F127" s="81"/>
+      <c r="G127" s="81"/>
+      <c r="H127" s="81"/>
+      <c r="I127" s="81"/>
+      <c r="J127" s="81"/>
+      <c r="K127" s="81"/>
+      <c r="L127" s="81"/>
+      <c r="M127" s="81"/>
+      <c r="N127" s="81"/>
+      <c r="O127" s="81"/>
+      <c r="P127" s="81"/>
+      <c r="Q127" s="81"/>
+      <c r="R127" s="81"/>
+      <c r="S127" s="81"/>
+      <c r="T127" s="81"/>
+      <c r="U127" s="81"/>
+      <c r="V127" s="81"/>
+      <c r="W127" s="81"/>
+      <c r="X127" s="81"/>
+      <c r="Y127" s="81"/>
+      <c r="Z127" s="81"/>
+      <c r="AA127" s="81"/>
+      <c r="AB127" s="81"/>
+      <c r="AC127" s="81"/>
+    </row>
+    <row r="129" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="130" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="74"/>
+      <c r="B130" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="C130" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="D130" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G67" s="49" t="s">
+      <c r="E130" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="F130" s="78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="18">
+        <v>1</v>
+      </c>
+      <c r="B131" s="50">
+        <f>COUNTIF($B141:$B150,B$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C131" s="51">
+        <f>COUNTIF($B141:$B150,C$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="51">
+        <f>COUNTIF($B141:$B150,D$130)/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="E131" s="51">
+        <f>COUNTIF($B141:$B150,E$130)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="F131" s="75">
+        <f>COUNTIF($B141:$B150,F$130)/10</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="16">
+        <v>2</v>
+      </c>
+      <c r="B132" s="50">
+        <f>COUNTIF($C141:$C150,B$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C132" s="56">
+        <f>COUNTIF($C141:$C150,C$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D132" s="56">
+        <f>COUNTIF($C141:$C150,D$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E132" s="56">
+        <f>COUNTIF($C141:$C150,E$130)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="F132" s="57">
+        <f>COUNTIF($C141:$C150,F$130)/10</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="16">
+        <v>3</v>
+      </c>
+      <c r="B133" s="55">
+        <f>COUNTIF($D141:$D150,B$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C133" s="72">
+        <f>COUNTIF($D141:$D150,C$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D133" s="72">
+        <f>COUNTIF($D141:$D150,D$130)/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="E133" s="72">
+        <f>COUNTIF($D141:$D150,E$130)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="F133" s="57">
+        <f>COUNTIF($D141:$D150,F$130)/10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="73">
+        <v>4</v>
+      </c>
+      <c r="B134" s="50">
+        <f>COUNTIF($E141:$E150,B$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C134" s="51">
+        <f>COUNTIF($E141:$E150,C$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D134" s="51">
+        <f>COUNTIF($E141:$E150,D$130)/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="E134" s="51">
+        <f>COUNTIF($E141:$E150,E$130)/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="F134" s="75">
+        <f>COUNTIF($E141:$E150,F$130)/10</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="16">
+        <v>5</v>
+      </c>
+      <c r="B135" s="55">
+        <f>COUNTIF($F141:$F150,B$130)/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="C135" s="56">
+        <f>COUNTIF($F141:$F150,C$130)/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="D135" s="56">
+        <f>COUNTIF($F141:$F150,D$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="E135" s="56">
+        <f>COUNTIF($F141:$F150,E$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="F135" s="57">
+        <f>COUNTIF($F141:$F150,F$130)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="17">
         <v>6</v>
       </c>
-      <c r="H67" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="163" t="s">
-        <v>28</v>
-      </c>
-      <c r="K67" s="96" t="s">
-        <v>29</v>
-      </c>
-      <c r="L67" s="97" t="s">
+      <c r="B136" s="60">
+        <f>COUNTIF($G141:$G150,B$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="C136" s="61">
+        <f>COUNTIF($G141:$G150,C$130)/10</f>
+        <v>0</v>
+      </c>
+      <c r="D136" s="61">
+        <f>COUNTIF($G141:$G150,D$130)/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="E136" s="61">
+        <f>COUNTIF($G141:$G150,E$130)/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="F136" s="62">
+        <f>COUNTIF($G141:$G150,F$130)/10</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="139" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="80"/>
+      <c r="B139" s="169" t="s">
+        <v>34</v>
+      </c>
+      <c r="C139" s="170"/>
+      <c r="D139" s="170"/>
+      <c r="E139" s="170"/>
+      <c r="F139" s="170"/>
+      <c r="G139" s="171"/>
+    </row>
+    <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="46">
+        <v>1</v>
+      </c>
+      <c r="C140" s="47">
+        <v>2</v>
+      </c>
+      <c r="D140" s="48">
+        <v>3</v>
+      </c>
+      <c r="E140" s="46">
+        <v>4</v>
+      </c>
+      <c r="F140" s="47">
+        <v>5</v>
+      </c>
+      <c r="G140" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D141" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="E141" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="M67" s="97" t="s">
-        <v>30</v>
-      </c>
-      <c r="N67" s="48" t="s">
-        <v>31</v>
+      <c r="F141" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="G141" s="44" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A68" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="50">
-        <f>COUNTIF($B75:$B84,B$67)/10</f>
-        <v>0.7</v>
-      </c>
-      <c r="C68" s="51">
-        <f>COUNTIF($B75:$B84,C$67)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="D68" s="51">
-        <f>COUNTIF($B75:$B84,D$67)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="E68" s="51">
-        <f>COUNTIF($B75:$B84,E$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="52">
-        <f>COUNTIF($B75:$B84,F$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="G68" s="164">
-        <f>AVERAGE(J75:J84)</f>
-        <v>4.7</v>
-      </c>
-      <c r="H68" s="34">
-        <f>_xlfn.STDEV.S(J75:J84)</f>
-        <v>0.6749485577105524</v>
-      </c>
-      <c r="I68" s="35" t="str">
-        <f>IF(OR(ISERROR(ROUND(G68-_xlfn.CONFIDENCE.T(0.05,H68,10),2)), ISERROR(ROUND(G68+_xlfn.CONFIDENCE.T(0.05,H68,10),2))),"-","[" &amp; ROUND(G68-_xlfn.CONFIDENCE.T(0.05,H68,10),2) &amp;" - " &amp; ROUND(G68+_xlfn.CONFIDENCE.T(0.05,H68,10),2) &amp;"]")</f>
-        <v>[4,22 - 5,18]</v>
-      </c>
-      <c r="J68" s="53">
-        <f>COUNTIF($E75:$E84,J$67)/10</f>
-        <v>0.8</v>
-      </c>
-      <c r="K68" s="53">
-        <f>COUNTIF($E75:$E84,K$67)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="L68" s="53">
-        <f>COUNTIF($E75:$E84,L$67)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="M68" s="53">
-        <f>COUNTIF($E75:$E84,M$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="N68" s="54">
-        <f>COUNTIF($E75:$E84,N$67)/10</f>
-        <v>0</v>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D142" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E142" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F142" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G142" s="28" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A69" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="55">
-        <f>COUNTIF($C75:$C84,B$67)/10</f>
-        <v>0.7</v>
-      </c>
-      <c r="C69" s="56">
-        <f>COUNTIF($C75:$C84,C$67)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="D69" s="56">
-        <f>COUNTIF($C75:$C84,D$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="56">
-        <f>COUNTIF($C75:$C84,E$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="F69" s="57">
-        <f>COUNTIF($C75:$C84,F$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="G69" s="165">
-        <f>AVERAGE(K75:K84)</f>
-        <v>4.7</v>
-      </c>
-      <c r="H69" s="5">
-        <f>_xlfn.STDEV.S(K75:K84)</f>
-        <v>0.48304589153964794</v>
-      </c>
-      <c r="I69" s="35" t="str">
-        <f t="shared" ref="I69:I70" si="17">IF(OR(ISERROR(ROUND(G69-_xlfn.CONFIDENCE.T(0.05,H69,10),2)), ISERROR(ROUND(G69+_xlfn.CONFIDENCE.T(0.05,H69,10),2))),"-","[" &amp; ROUND(G69-_xlfn.CONFIDENCE.T(0.05,H69,10),2) &amp;" - " &amp; ROUND(G69+_xlfn.CONFIDENCE.T(0.05,H69,10),2) &amp;"]")</f>
-        <v>[4,35 - 5,05]</v>
-      </c>
-      <c r="J69" s="58">
-        <f>COUNTIF(F75:F84,J$67)/10</f>
-        <v>0.7</v>
-      </c>
-      <c r="K69" s="58">
-        <f>COUNTIF($F75:$F84,K$67)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="L69" s="58">
-        <f>COUNTIF($F75:$F84,L$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="M69" s="58">
-        <f>COUNTIF($F75:$F84,M$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="59">
-        <f>COUNTIF($F75:$F84,N$67)/10</f>
-        <v>0</v>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E143" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G143" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="60">
-        <f>COUNTIF($D75:$D84,B$67)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="C70" s="61">
-        <f>COUNTIF($D75:$D84,C$67)/10</f>
-        <v>0.7</v>
-      </c>
-      <c r="D70" s="61">
-        <f>COUNTIF($D75:$D84,D$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="61">
-        <f>COUNTIF($D75:$D84,E$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="62">
-        <f>COUNTIF($D75:$D84,F$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="166">
-        <f>AVERAGE(L75:L84)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H70" s="11">
-        <f>_xlfn.STDEV.S(L75:L84)</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="I70" s="12" t="str">
-        <f t="shared" si="17"/>
-        <v>[3,99 - 5,01]</v>
-      </c>
-      <c r="J70" s="63">
-        <f>COUNTIF($G75:$G84,J$67)/10</f>
-        <v>0.6</v>
-      </c>
-      <c r="K70" s="63">
-        <f>COUNTIF($G75:$G84,K$67)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="L70" s="63">
-        <f>COUNTIF($G75:$G84,L$67)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="M70" s="63">
-        <f>COUNTIF($G75:$G84,M$67)/10</f>
-        <v>0</v>
-      </c>
-      <c r="N70" s="64">
-        <f>COUNTIF($G75:$G84,N$67)/10</f>
-        <v>0</v>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D144" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E144" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G144" s="28" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="80"/>
-      <c r="B73" s="154" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="155"/>
-      <c r="D73" s="156"/>
-      <c r="E73" s="154" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73" s="155"/>
-      <c r="G73" s="156"/>
-      <c r="J73" s="154" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="155"/>
-      <c r="L73" s="156"/>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C145" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D145" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E145" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F145" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G145" s="28" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="74" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="G74" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="J74" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="K74" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="L74" s="48" t="s">
-        <v>2</v>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D146" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E146" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="F146" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A75" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="42" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E147" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G147" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B148" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="E75" s="45" t="s">
+      <c r="C148" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D148" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E148" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F148" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G148" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F75" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="J75" s="45">
-        <v>3</v>
-      </c>
-      <c r="K75" s="43">
-        <v>4</v>
-      </c>
-      <c r="L75" s="44">
-        <v>4</v>
-      </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A76" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="28" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E149" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F149" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G149" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C150" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I76" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J76" s="29">
-        <v>4</v>
-      </c>
-      <c r="K76" s="27">
-        <v>4</v>
-      </c>
-      <c r="L76" s="28">
-        <v>3</v>
+      <c r="E150" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="F150" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G150" s="32" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A77" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B77" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E77" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G77" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="26">
-        <v>5</v>
-      </c>
-      <c r="K77" s="29">
-        <v>5</v>
-      </c>
-      <c r="L77" s="28">
-        <v>4</v>
-      </c>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B175" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175" s="65"/>
+      <c r="D175" s="65"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A78" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E78" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F78" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G78" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I78" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" s="26">
-        <v>5</v>
-      </c>
-      <c r="K78" s="29">
-        <v>5</v>
-      </c>
-      <c r="L78" s="28">
-        <v>5</v>
-      </c>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="B176" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="65"/>
+      <c r="D176" s="65"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F79" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I79" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" s="26">
-        <v>5</v>
-      </c>
-      <c r="K79" s="29">
-        <v>5</v>
-      </c>
-      <c r="L79" s="28">
-        <v>5</v>
-      </c>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B177" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C177" s="65"/>
+      <c r="D177" s="65"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F80" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G80" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I80" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J80" s="26">
-        <v>5</v>
-      </c>
-      <c r="K80" s="29">
-        <v>5</v>
-      </c>
-      <c r="L80" s="28">
-        <v>5</v>
-      </c>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="B178" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" s="65"/>
+      <c r="D178" s="65"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G81" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="26">
-        <v>5</v>
-      </c>
-      <c r="K81" s="29">
-        <v>5</v>
-      </c>
-      <c r="L81" s="28">
-        <v>5</v>
-      </c>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B179" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="C179" s="65"/>
+      <c r="D179" s="65"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F82" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G82" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I82" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J82" s="26">
-        <v>5</v>
-      </c>
-      <c r="K82" s="29">
-        <v>5</v>
-      </c>
-      <c r="L82" s="28">
-        <v>4</v>
-      </c>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="B180" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C180" s="65"/>
+      <c r="D180" s="65"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G83" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="I83" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J83" s="26">
-        <v>5</v>
-      </c>
-      <c r="K83" s="29">
-        <v>5</v>
-      </c>
-      <c r="L83" s="28">
-        <v>5</v>
-      </c>
+    <row r="185" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A185" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="B185" s="84"/>
+      <c r="C185" s="84"/>
     </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B84" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G84" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I84" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="J84" s="30">
-        <v>5</v>
-      </c>
-      <c r="K84" s="31">
-        <v>4</v>
-      </c>
-      <c r="L84" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A108" s="81"/>
-      <c r="B108" s="81"/>
-      <c r="C108" s="81"/>
-      <c r="D108" s="81"/>
-      <c r="E108" s="81"/>
-      <c r="F108" s="81"/>
-      <c r="G108" s="81"/>
-      <c r="H108" s="81"/>
-      <c r="I108" s="81"/>
-      <c r="J108" s="81"/>
-      <c r="K108" s="81"/>
-      <c r="L108" s="81"/>
-      <c r="M108" s="81"/>
-      <c r="N108" s="81"/>
-      <c r="O108" s="81"/>
-      <c r="P108" s="81"/>
-      <c r="Q108" s="81"/>
-      <c r="R108" s="81"/>
-      <c r="S108" s="81"/>
-      <c r="T108" s="81"/>
-      <c r="U108" s="81"/>
-      <c r="V108" s="81"/>
-      <c r="W108" s="81"/>
-      <c r="X108" s="81"/>
-      <c r="Y108" s="81"/>
-      <c r="Z108" s="81"/>
-      <c r="AA108" s="81"/>
-      <c r="AB108" s="81"/>
-      <c r="AC108" s="81"/>
-    </row>
-    <row r="110" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="111" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="74"/>
-      <c r="B111" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="C111" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="D111" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="F111" s="78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A112" s="18">
-        <v>1</v>
-      </c>
-      <c r="B112" s="50">
-        <f>COUNTIF($B122:$B131,B$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C112" s="51">
-        <f>COUNTIF($B122:$B131,C$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D112" s="51">
-        <f>COUNTIF($B122:$B131,D$111)/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="E112" s="51">
-        <f>COUNTIF($B122:$B131,E$111)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="F112" s="75">
-        <f>COUNTIF($B122:$B131,F$111)/10</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="16">
-        <v>2</v>
-      </c>
-      <c r="B113" s="50">
-        <f>COUNTIF($C122:$C131,B$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="56">
-        <f>COUNTIF($C122:$C131,C$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D113" s="56">
-        <f>COUNTIF($C122:$C131,D$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="E113" s="56">
-        <f>COUNTIF($C122:$C131,E$111)/10</f>
-        <v>0.6</v>
-      </c>
-      <c r="F113" s="57">
-        <f>COUNTIF($C122:$C131,F$111)/10</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="16">
-        <v>3</v>
-      </c>
-      <c r="B114" s="55">
-        <f>COUNTIF($D122:$D131,B$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C114" s="72">
-        <f>COUNTIF($D122:$D131,C$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D114" s="72">
-        <f>COUNTIF($D122:$D131,D$111)/10</f>
-        <v>0.1</v>
-      </c>
-      <c r="E114" s="72">
-        <f>COUNTIF($D122:$D131,E$111)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="F114" s="57">
-        <f>COUNTIF($D122:$D131,F$111)/10</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A115" s="73">
-        <v>4</v>
-      </c>
-      <c r="B115" s="50">
-        <f>COUNTIF($E122:$E131,B$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C115" s="51">
-        <f>COUNTIF($E122:$E131,C$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D115" s="51">
-        <f>COUNTIF($E122:$E131,D$111)/10</f>
-        <v>0.2</v>
-      </c>
-      <c r="E115" s="51">
-        <f>COUNTIF($E122:$E131,E$111)/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="F115" s="75">
-        <f>COUNTIF($E122:$E131,F$111)/10</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A116" s="16">
-        <v>5</v>
-      </c>
-      <c r="B116" s="55">
-        <f>COUNTIF($F122:$F131,B$111)/10</f>
-        <v>0.6</v>
-      </c>
-      <c r="C116" s="56">
-        <f>COUNTIF($F122:$F131,C$111)/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="D116" s="56">
-        <f>COUNTIF($F122:$F131,D$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="E116" s="56">
-        <f>COUNTIF($F122:$F131,E$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="F116" s="57">
-        <f>COUNTIF($F122:$F131,F$111)/10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="17">
-        <v>6</v>
-      </c>
-      <c r="B117" s="60">
-        <f>COUNTIF($G122:$G131,B$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="C117" s="61">
-        <f>COUNTIF($G122:$G131,C$111)/10</f>
-        <v>0</v>
-      </c>
-      <c r="D117" s="61">
-        <f>COUNTIF($G122:$G131,D$111)/10</f>
-        <v>0.3</v>
-      </c>
-      <c r="E117" s="61">
-        <f>COUNTIF($G122:$G131,E$111)/10</f>
-        <v>0.4</v>
-      </c>
-      <c r="F117" s="62">
-        <f>COUNTIF($G122:$G131,F$111)/10</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="80"/>
-      <c r="B120" s="154" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" s="155"/>
-      <c r="D120" s="155"/>
-      <c r="E120" s="155"/>
-      <c r="F120" s="155"/>
-      <c r="G120" s="156"/>
-    </row>
-    <row r="121" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="46">
-        <v>1</v>
-      </c>
-      <c r="C121" s="47">
-        <v>2</v>
-      </c>
-      <c r="D121" s="48">
-        <v>3</v>
-      </c>
-      <c r="E121" s="46">
-        <v>4</v>
-      </c>
-      <c r="F121" s="47">
-        <v>5</v>
-      </c>
-      <c r="G121" s="48">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B122" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C122" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D122" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="E122" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G122" s="44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C123" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D123" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="E123" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F123" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G123" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B124" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E124" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F124" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G124" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B125" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E125" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F125" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G125" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B126" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C126" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D126" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F126" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G126" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A127" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B127" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C127" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D127" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E127" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F127" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G127" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B128" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D128" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E128" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F128" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G128" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A129" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B129" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D129" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E129" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F129" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G129" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A130" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D130" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E130" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F130" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G130" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B131" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C131" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D131" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E131" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="F131" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G131" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B156" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="C156" s="65"/>
-      <c r="D156" s="65"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="B157" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C157" s="65"/>
-      <c r="D157" s="65"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B158" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C158" s="65"/>
-      <c r="D158" s="65"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="B159" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C159" s="65"/>
-      <c r="D159" s="65"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B160" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C160" s="65"/>
-      <c r="D160" s="65"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="66" t="s">
-        <v>46</v>
-      </c>
-      <c r="B161" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C161" s="65"/>
-      <c r="D161" s="65"/>
-    </row>
-    <row r="166" spans="1:4" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A166" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="B166" s="84"/>
-      <c r="C166" s="84"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B66:F66"/>
-    <mergeCell ref="G66:N66"/>
-    <mergeCell ref="AF61:AJ61"/>
-    <mergeCell ref="AF60:AJ60"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="J73:L73"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="B4:G4"/>
+  <mergeCells count="20">
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="AF80:AJ80"/>
+    <mergeCell ref="AF81:AJ81"/>
+    <mergeCell ref="G85:N85"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="Q32:U32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phase3/Inquérito.xlsx
+++ b/phase3/Inquérito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35191\Desktop\UNI\3ºano\IPC\phase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782662ED-2C82-412B-A65A-9483E965BF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7ABF26-7E5A-4FEB-950C-E907C1924699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DF166B9-DCAC-479D-8E65-FC409164BF48}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="70">
   <si>
     <t>Tarefa 1</t>
   </si>
@@ -406,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="84">
+  <borders count="83">
     <border>
       <left/>
       <right/>
@@ -1375,19 +1375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -1488,7 +1475,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1889,7 +1876,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1901,8 +1888,8 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1919,31 +1906,17 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1955,6 +1928,27 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1964,29 +1958,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6317,17 +6295,14 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:idx val="18"/>
+          <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$23:$N$24</c:f>
+              <c:f>Sheet1!$T$24</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Erros</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>Média</c:v>
                 </c:pt>
               </c:strCache>
@@ -6362,25 +6337,16 @@
               </c:numRef>
             </c:plus>
             <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$AI$83:$AI$85</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.35</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
+              <c:numLit>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numLit>
             </c:minus>
             <c:spPr>
-              <a:ln w="12700">
+              <a:ln>
                 <a:solidFill>
                   <a:srgbClr val="002060"/>
                 </a:solidFill>
@@ -6424,7 +6390,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-D9CD-480A-8488-71DA40307F42}"/>
+              <c16:uniqueId val="{00000002-C51E-48AF-889C-661A6D4CFF16}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6450,16 +6416,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$23:$B$24</c15:sqref>
+                          <c15:sqref>Sheet1!$B$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
@@ -6526,19 +6489,16 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$C$23:$C$24</c15:sqref>
+                          <c15:sqref>Sheet1!$C$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Req. Utilização</c:v>
                       </c:pt>
                     </c:strCache>
@@ -6547,7 +6507,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6570,10 +6530,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$25:$D$27</c15:sqref>
+                          <c15:sqref>Sheet1!$C$25:$C$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6581,13 +6541,13 @@
                       <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>12.493998559308384</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>10.514011814927954</c:v>
+                        <c:v>30</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>11.602681682362155</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6605,19 +6565,16 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$D$23:$D$24</c15:sqref>
+                          <c15:sqref>Sheet1!$D$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
@@ -6626,7 +6583,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6649,24 +6606,24 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$25:$E$27</c15:sqref>
+                          <c15:sqref>Sheet1!$D$25:$D$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>29.5</c:v>
+                        <c:v>12.493998559308384</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>40.5</c:v>
+                        <c:v>10.514011814927954</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>34.5</c:v>
+                        <c:v>11.602681682362155</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6684,19 +6641,16 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$E$23:$E$24</c15:sqref>
+                          <c15:sqref>Sheet1!$E$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Mediana</c:v>
                       </c:pt>
                     </c:strCache>
@@ -6705,7 +6659,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6728,10 +6682,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$25:$G$27</c15:sqref>
+                          <c15:sqref>Sheet1!$E$25:$E$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -6739,13 +6693,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>29.5</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>40.5</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>34.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6763,19 +6717,16 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$F$23:$F$24</c15:sqref>
+                          <c15:sqref>Sheet1!$F$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Moda</c:v>
                       </c:pt>
                     </c:strCache>
@@ -6784,7 +6735,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6807,24 +6758,24 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$25:$H$27</c15:sqref>
+                          <c15:sqref>Sheet1!$F$25:$F$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>9</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>14.1</c:v>
+                        <c:v>48</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>8</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6842,19 +6793,16 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$G$23:$G$24</c15:sqref>
+                          <c15:sqref>Sheet1!$G$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Tempo (s)</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>IC(95%)</c:v>
                       </c:pt>
                     </c:strCache>
@@ -6863,7 +6811,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6886,24 +6834,24 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$25:$J$27</c15:sqref>
+                          <c15:sqref>Sheet1!$G$25:$G$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.31622776601683789</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.8257418583505538</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6921,19 +6869,16 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$H$23:$H$24</c15:sqref>
+                          <c15:sqref>Sheet1!$H$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
@@ -6942,7 +6887,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6965,24 +6910,24 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$25:$K$27</c15:sqref>
+                          <c15:sqref>Sheet1!$H$25:$H$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>14</c:v>
+                        <c:v>14.1</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>7.5</c:v>
+                        <c:v>8</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7000,19 +6945,16 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$I$23:$I$24</c15:sqref>
+                          <c15:sqref>Sheet1!$I$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Req. Utilização</c:v>
                       </c:pt>
                     </c:strCache>
@@ -7021,7 +6963,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7044,24 +6986,24 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$M$25:$M$27</c15:sqref>
+                          <c15:sqref>Sheet1!$I$25:$I$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>4</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>3</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7079,33 +7021,25 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$J$23:$J$24</c15:sqref>
+                          <c15:sqref>Sheet1!$J$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                </c:spPr>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7128,10 +7062,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$N$25:$N$27</c15:sqref>
+                          <c15:sqref>Sheet1!$J$25:$J$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7142,10 +7076,10 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.2</c:v>
+                        <c:v>0.31622776601683789</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.6</c:v>
+                        <c:v>1.8257418583505538</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7163,19 +7097,16 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$K$23:$K$24</c15:sqref>
+                          <c15:sqref>Sheet1!$K$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Cliques</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Mediana</c:v>
                       </c:pt>
                     </c:strCache>
@@ -7184,7 +7115,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7207,24 +7138,24 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$25:$P$27</c15:sqref>
+                          <c15:sqref>Sheet1!$K$25:$K$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>0.00</c:formatCode>
+                      <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.4216370213557839</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.69920589878010109</c:v>
+                        <c:v>7.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7242,22 +7173,25 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$L$23:$L$23</c15:sqref>
+                          <c15:sqref>Sheet1!$L$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Moda</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7280,10 +7214,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$25:$Q$27</c15:sqref>
+                          <c15:sqref>Sheet1!$L$25:$L$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7291,13 +7225,13 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>0</c:v>
+                        <c:v>9</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>14</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.5</c:v>
+                        <c:v>7</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7315,17 +7249,17 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!#REF!</c15:sqref>
+                          <c15:sqref>Sheet1!$M$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>#REF!</c:v>
+                        <c:v>IC(95%)</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -7333,7 +7267,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7356,10 +7290,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$S$25:$S$27</c15:sqref>
+                          <c15:sqref>Sheet1!$M$25:$M$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7387,32 +7321,94 @@
             </c15:filteredBarSeries>
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="13"/>
-                <c:order val="13"/>
+                <c:idx val="12"/>
+                <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$O$23:$O$24</c15:sqref>
+                          <c15:sqref>Sheet1!$N$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Erros</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Req. Utilização</c:v>
+                        <c:v>Média</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </c:spPr>
                 <c:invertIfNegative val="0"/>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Sheet1!$AI$83:$AI$85</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="3"/>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>0.35</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:plus>
+                  <c:minus>
+                    <c:numRef>
+                      <c:extLst>
+                        <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                          <c15:formulaRef>
+                            <c15:sqref>Sheet1!$AI$83:$AI$85</c15:sqref>
+                          </c15:formulaRef>
+                        </c:ext>
+                      </c:extLst>
+                      <c:numCache>
+                        <c:formatCode>General</c:formatCode>
+                        <c:ptCount val="3"/>
+                        <c:pt idx="0">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>0</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>0.35</c:v>
+                        </c:pt>
+                      </c:numCache>
+                    </c:numRef>
+                  </c:minus>
+                  <c:spPr>
+                    <a:ln w="12700">
+                      <a:solidFill>
+                        <a:srgbClr val="002060"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7435,10 +7431,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$U$25:$U$27</c15:sqref>
+                          <c15:sqref>Sheet1!$N$25:$N$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7449,10 +7445,86 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>0.2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.48304589153964789</c:v>
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-D9CD-480A-8488-71DA40307F42}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$O$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Req. Utilização</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$O$25:$O$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7470,19 +7542,16 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$P$23:$P$24</c15:sqref>
+                          <c15:sqref>Sheet1!$P$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Erros</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Desvio Padrão</c:v>
                       </c:pt>
                     </c:strCache>
@@ -7491,7 +7560,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7514,24 +7583,24 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$V$25:$V$27</c15:sqref>
+                          <c15:sqref>Sheet1!$P$25:$P$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0</c:v>
+                        <c:v>0.4216370213557839</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1</c:v>
+                        <c:v>0.69920589878010109</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7549,19 +7618,16 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$Q$23:$Q$24</c15:sqref>
+                          <c15:sqref>Sheet1!$Q$24</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="2"/>
+                      <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Erros</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
                         <c:v>Mediana</c:v>
                       </c:pt>
                     </c:strCache>
@@ -7570,7 +7636,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7593,10 +7659,10 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$X$25:$X$27</c15:sqref>
+                          <c15:sqref>Sheet1!$Q$25:$Q$27</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -7610,7 +7676,7 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0</c:v>
+                        <c:v>0.5</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7622,9 +7688,246 @@
                 </c:extLst>
               </c15:ser>
             </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$R$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Moda</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$R$25:$R$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C51E-48AF-889C-661A6D4CFF16}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$S$24</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>IC(95%)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Tarefa 1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Tarefa 2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Tarefa 3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$S$25:$S$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-C51E-48AF-889C-661A6D4CFF16}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
           </c:ext>
         </c:extLst>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Req. Utilização</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$25:$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Tarefa 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tarefa 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tarefa 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$25:$U$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C51E-48AF-889C-661A6D4CFF16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1476527654"/>
+        <c:axId val="153409426"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1476527654"/>
         <c:scaling>
@@ -7682,6 +7985,7 @@
         <c:axId val="153409426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -10408,8 +10712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5987B9C-46B6-48DF-892A-073BDF9D62B0}">
   <dimension ref="A1:AQ187"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10444,13 +10748,13 @@
     </row>
     <row r="6" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="79"/>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="172" t="s">
+      <c r="D6" s="175" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="174"/>
+      <c r="E6" s="177"/>
     </row>
     <row r="7" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
@@ -10471,11 +10775,11 @@
       <c r="B8" s="41">
         <v>20</v>
       </c>
-      <c r="D8" s="179">
+      <c r="D8" s="163">
         <f>AVERAGE(B8:B17)</f>
         <v>20.7</v>
       </c>
-      <c r="E8" s="180">
+      <c r="E8" s="164">
         <f>_xlfn.STDEV.S(B8:B17)</f>
         <v>1.70293863659264</v>
       </c>
@@ -10544,7 +10848,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
         <v>19</v>
       </c>
@@ -10552,42 +10856,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="80"/>
-      <c r="B23" s="172" t="s">
+      <c r="B23" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="173"/>
-      <c r="D23" s="173"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="173"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="165" t="s">
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
+      <c r="E23" s="176"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="176"/>
+      <c r="H23" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="166"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="166"/>
-      <c r="L23" s="166"/>
-      <c r="M23" s="166"/>
-      <c r="N23" s="165" t="s">
+      <c r="I23" s="173"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="173"/>
+      <c r="L23" s="173"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="166"/>
-      <c r="P23" s="166"/>
-      <c r="Q23" s="166"/>
-      <c r="R23" s="166"/>
-      <c r="S23" s="167"/>
-      <c r="T23" s="175" t="s">
+      <c r="O23" s="173"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="173"/>
+      <c r="S23" s="174"/>
+      <c r="T23" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="U23" s="176"/>
-      <c r="V23" s="176"/>
-      <c r="W23" s="176"/>
-      <c r="X23" s="177"/>
+      <c r="U23" s="173"/>
+      <c r="V23" s="173"/>
+      <c r="W23" s="173"/>
+      <c r="X23" s="173"/>
+      <c r="Y23" s="174"/>
     </row>
-    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="46" t="s">
         <v>6</v>
       </c>
@@ -10645,20 +10950,23 @@
       <c r="T24" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="U24" s="97" t="s">
+      <c r="U24" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="V24" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="V24" s="98" t="s">
+      <c r="W24" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="W24" s="98" t="s">
+      <c r="X24" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="X24" s="99" t="s">
+      <c r="Y24" s="99" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>0</v>
       </c>
@@ -10735,24 +11043,27 @@
         <f>AVERAGE(E47:E56)</f>
         <v>0</v>
       </c>
-      <c r="U25" s="38">
+      <c r="U25" s="40">
+        <v>2</v>
+      </c>
+      <c r="V25" s="38">
         <f>_xlfn.STDEV.S(E47:E56)</f>
         <v>0</v>
       </c>
-      <c r="V25" s="93">
+      <c r="W25" s="93">
         <f>MEDIAN(E47:E56)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="93">
+      <c r="X25" s="93">
         <f>IF(ISERROR(MODE(E47:E56)),"-",MODE(E47:E56))</f>
         <v>0</v>
       </c>
-      <c r="X25" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(T25-_xlfn.CONFIDENCE.T(0.05,U25,10),2)), ISERROR(ROUND(T25+_xlfn.CONFIDENCE.T(0.05,U25,10),2))),"-","[" &amp; ROUND(T25-_xlfn.CONFIDENCE.T(0.05,U25,10),2) &amp;" - " &amp; ROUND(T25+_xlfn.CONFIDENCE.T(0.05,U25,10),2) &amp;"]")</f>
+      <c r="Y25" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(T25-_xlfn.CONFIDENCE.T(0.05,V25,10),2)), ISERROR(ROUND(T25+_xlfn.CONFIDENCE.T(0.05,V25,10),2))),"-","[" &amp; ROUND(T25-_xlfn.CONFIDENCE.T(0.05,V25,10),2) &amp;" - " &amp; ROUND(T25+_xlfn.CONFIDENCE.T(0.05,V25,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
         <v>1</v>
       </c>
@@ -10829,24 +11140,27 @@
         <f>AVERAGE(I47:I56)</f>
         <v>0</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="8">
+        <v>2</v>
+      </c>
+      <c r="V26" s="2">
         <f>_xlfn.STDEV.S(I47:I56)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="94">
+      <c r="W26" s="94">
         <f>MEDIAN(I47:I56)</f>
         <v>0</v>
       </c>
-      <c r="W26" s="93">
+      <c r="X26" s="93">
         <f>IF(ISERROR(MODE(I47:I56)),"-",MODE(I47:I56))</f>
         <v>0</v>
       </c>
-      <c r="X26" s="36" t="str">
-        <f>IF(OR(ISERROR(ROUND(T26-_xlfn.CONFIDENCE.T(0.05,U26,10),2)), ISERROR(ROUND(T26+_xlfn.CONFIDENCE.T(0.05,U26,10),2))),"-","[" &amp; ROUND(T26-_xlfn.CONFIDENCE.T(0.05,U26,10),2) &amp;" - " &amp; ROUND(T26+_xlfn.CONFIDENCE.T(0.05,U26,10),2) &amp;"]")</f>
+      <c r="Y26" s="36" t="str">
+        <f>IF(OR(ISERROR(ROUND(T26-_xlfn.CONFIDENCE.T(0.05,V26,10),2)), ISERROR(ROUND(T26+_xlfn.CONFIDENCE.T(0.05,V26,10),2))),"-","[" &amp; ROUND(T26-_xlfn.CONFIDENCE.T(0.05,V26,10),2) &amp;" - " &amp; ROUND(T26+_xlfn.CONFIDENCE.T(0.05,V26,10),2) &amp;"]")</f>
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
         <v>2</v>
       </c>
@@ -10923,54 +11237,57 @@
         <f>AVERAGE(M47:M56)</f>
         <v>0.7</v>
       </c>
-      <c r="U27" s="14">
+      <c r="U27" s="25">
+        <v>2</v>
+      </c>
+      <c r="V27" s="14">
         <f>_xlfn.STDEV.S(M47:M56)</f>
         <v>0.48304589153964789</v>
       </c>
-      <c r="V27" s="95">
+      <c r="W27" s="95">
         <f>MEDIAN(M47:M56)</f>
         <v>1</v>
       </c>
-      <c r="W27" s="95">
+      <c r="X27" s="95">
         <f>IF(ISERROR(MODE(M47:M56)),"-",MODE(M47:M56))</f>
         <v>1</v>
       </c>
-      <c r="X27" s="13" t="str">
-        <f>IF(OR(ISERROR(ROUND(T27-_xlfn.CONFIDENCE.T(0.05,U27,10),2)), ISERROR(ROUND(T27+_xlfn.CONFIDENCE.T(0.05,U27,10),2))),"-","[" &amp; ROUND(T27-_xlfn.CONFIDENCE.T(0.05,U27,10),2) &amp;" - " &amp; ROUND(T27+_xlfn.CONFIDENCE.T(0.05,U27,10),2) &amp;"]")</f>
+      <c r="Y27" s="13" t="str">
+        <f>IF(OR(ISERROR(ROUND(T27-_xlfn.CONFIDENCE.T(0.05,V27,10),2)), ISERROR(ROUND(T27+_xlfn.CONFIDENCE.T(0.05,V27,10),2))),"-","[" &amp; ROUND(T27-_xlfn.CONFIDENCE.T(0.05,V27,10),2) &amp;" - " &amp; ROUND(T27+_xlfn.CONFIDENCE.T(0.05,V27,10),2) &amp;"]")</f>
         <v>[0,35 - 1,05]</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="80"/>
-      <c r="B32" s="172" t="s">
+      <c r="B32" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="172" t="s">
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="174"/>
-      <c r="L32" s="165" t="s">
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="166"/>
-      <c r="N32" s="166"/>
-      <c r="O32" s="166"/>
-      <c r="P32" s="167"/>
-      <c r="Q32" s="165" t="s">
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
+      <c r="O32" s="173"/>
+      <c r="P32" s="174"/>
+      <c r="Q32" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="R32" s="166"/>
-      <c r="S32" s="166"/>
-      <c r="T32" s="166"/>
-      <c r="U32" s="167"/>
+      <c r="R32" s="173"/>
+      <c r="S32" s="173"/>
+      <c r="T32" s="173"/>
+      <c r="U32" s="174"/>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="46" t="s">
@@ -11547,24 +11864,24 @@
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="79"/>
-      <c r="B45" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="164"/>
-      <c r="F45" s="162" t="s">
+      <c r="B45" s="178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="179"/>
+      <c r="D45" s="179"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="162" t="s">
+      <c r="G45" s="179"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="K45" s="163"/>
-      <c r="L45" s="163"/>
-      <c r="M45" s="164"/>
+      <c r="K45" s="179"/>
+      <c r="L45" s="179"/>
+      <c r="M45" s="180"/>
       <c r="O45" s="80"/>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12028,13 +12345,13 @@
       <c r="AJ80" s="168"/>
     </row>
     <row r="81" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF81" s="181" t="s">
+      <c r="AF81" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="AG81" s="182"/>
-      <c r="AH81" s="182"/>
-      <c r="AI81" s="182"/>
-      <c r="AJ81" s="183"/>
+      <c r="AG81" s="170"/>
+      <c r="AH81" s="170"/>
+      <c r="AI81" s="170"/>
+      <c r="AJ81" s="171"/>
     </row>
     <row r="82" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="81"/>
@@ -12099,7 +12416,7 @@
         <v>-</v>
       </c>
       <c r="AI83" s="161" t="str">
-        <f>IF(ISERROR(T25-ROUND(T25-_xlfn.CONFIDENCE.T(0.05,U25,10),2)),"-",T25-ROUND(T25-_xlfn.CONFIDENCE.T(0.05,U25,10),2))</f>
+        <f>IF(ISERROR(T25-ROUND(T25-_xlfn.CONFIDENCE.T(0.05,V25,10),2)),"-",T25-ROUND(T25-_xlfn.CONFIDENCE.T(0.05,V25,10),2))</f>
         <v>-</v>
       </c>
       <c r="AJ83" s="153">
@@ -12124,7 +12441,7 @@
         <v>0.30000000000000004</v>
       </c>
       <c r="AI84" s="144" t="str">
-        <f>IF(ISERROR(T26-ROUND(T26-_xlfn.CONFIDENCE.T(0.05,U26,10),2)),"-",T26-ROUND(T26-_xlfn.CONFIDENCE.T(0.05,U26,10),2))</f>
+        <f>IF(ISERROR(T26-ROUND(T26-_xlfn.CONFIDENCE.T(0.05,V26,10),2)),"-",T26-ROUND(T26-_xlfn.CONFIDENCE.T(0.05,V26,10),2))</f>
         <v>-</v>
       </c>
       <c r="AJ84" s="154">
@@ -12134,23 +12451,23 @@
     </row>
     <row r="85" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="80"/>
-      <c r="B85" s="165" t="s">
+      <c r="B85" s="172" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="166"/>
-      <c r="D85" s="166"/>
-      <c r="E85" s="166"/>
-      <c r="F85" s="167"/>
-      <c r="G85" s="165" t="s">
+      <c r="C85" s="173"/>
+      <c r="D85" s="173"/>
+      <c r="E85" s="173"/>
+      <c r="F85" s="174"/>
+      <c r="G85" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="H85" s="166"/>
-      <c r="I85" s="166"/>
-      <c r="J85" s="166"/>
-      <c r="K85" s="166"/>
-      <c r="L85" s="166"/>
-      <c r="M85" s="166"/>
-      <c r="N85" s="167"/>
+      <c r="H85" s="173"/>
+      <c r="I85" s="173"/>
+      <c r="J85" s="173"/>
+      <c r="K85" s="173"/>
+      <c r="L85" s="173"/>
+      <c r="M85" s="173"/>
+      <c r="N85" s="174"/>
       <c r="AE85" s="159" t="s">
         <v>66</v>
       </c>
@@ -12167,7 +12484,7 @@
         <v>0.5</v>
       </c>
       <c r="AI85" s="145">
-        <f>IF(ISERROR(T27-ROUND(T27-_xlfn.CONFIDENCE.T(0.05,U27,10),2)),"-",T27-ROUND(T27-_xlfn.CONFIDENCE.T(0.05,U27,10),2))</f>
+        <f>IF(ISERROR(T27-ROUND(T27-_xlfn.CONFIDENCE.T(0.05,V27,10),2)),"-",T27-ROUND(T27-_xlfn.CONFIDENCE.T(0.05,V27,10),2))</f>
         <v>0.35</v>
       </c>
       <c r="AJ85" s="152">
@@ -12390,21 +12707,21 @@
     <row r="91" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="80"/>
-      <c r="B92" s="169" t="s">
+      <c r="B92" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="170"/>
-      <c r="D92" s="171"/>
-      <c r="E92" s="169" t="s">
+      <c r="C92" s="166"/>
+      <c r="D92" s="167"/>
+      <c r="E92" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="170"/>
-      <c r="G92" s="171"/>
-      <c r="J92" s="169" t="s">
+      <c r="F92" s="166"/>
+      <c r="G92" s="167"/>
+      <c r="J92" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="K92" s="170"/>
-      <c r="L92" s="171"/>
+      <c r="K92" s="166"/>
+      <c r="L92" s="167"/>
     </row>
     <row r="93" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="46" t="s">
@@ -12988,14 +13305,14 @@
     <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="139" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="80"/>
-      <c r="B139" s="169" t="s">
+      <c r="B139" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="C139" s="170"/>
-      <c r="D139" s="170"/>
-      <c r="E139" s="170"/>
-      <c r="F139" s="170"/>
-      <c r="G139" s="171"/>
+      <c r="C139" s="166"/>
+      <c r="D139" s="166"/>
+      <c r="E139" s="166"/>
+      <c r="F139" s="166"/>
+      <c r="G139" s="167"/>
     </row>
     <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B140" s="46">
@@ -13321,6 +13638,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q32:U32"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="H23:M23"/>
+    <mergeCell ref="N23:S23"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="B139:G139"/>
     <mergeCell ref="AF80:AJ80"/>
     <mergeCell ref="AF81:AJ81"/>
@@ -13329,18 +13658,6 @@
     <mergeCell ref="J92:L92"/>
     <mergeCell ref="E92:G92"/>
     <mergeCell ref="B92:D92"/>
-    <mergeCell ref="H23:M23"/>
-    <mergeCell ref="N23:S23"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="Q32:U32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phase3/Inquérito.xlsx
+++ b/phase3/Inquérito.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35191\Desktop\UNI\3ºano\IPC\phase3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7ABF26-7E5A-4FEB-950C-E907C1924699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF66622-E93D-45F3-B1A6-9E94186B6A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DF166B9-DCAC-479D-8E65-FC409164BF48}"/>
   </bookViews>
@@ -1919,6 +1919,33 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1938,33 +1965,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3106,7 +3106,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>Usabiblidade do Sistema</a:t>
+              <a:t>Usabilidade do Sistema</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6489,7 +6489,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$24</c15:sqref>
@@ -6507,7 +6507,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6530,7 +6530,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$C$25:$C$27</c15:sqref>
@@ -6565,7 +6565,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$24</c15:sqref>
@@ -6583,7 +6583,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6606,7 +6606,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$25:$D$27</c15:sqref>
@@ -6641,7 +6641,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$24</c15:sqref>
@@ -6659,7 +6659,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6682,7 +6682,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$E$25:$E$27</c15:sqref>
@@ -6717,7 +6717,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$24</c15:sqref>
@@ -6735,7 +6735,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6758,7 +6758,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$25:$F$27</c15:sqref>
@@ -6793,7 +6793,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$24</c15:sqref>
@@ -6811,7 +6811,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6834,7 +6834,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$G$25:$G$27</c15:sqref>
@@ -6869,7 +6869,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$24</c15:sqref>
@@ -6887,7 +6887,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6910,7 +6910,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$25:$H$27</c15:sqref>
@@ -6945,7 +6945,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$24</c15:sqref>
@@ -6963,7 +6963,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -6986,7 +6986,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$I$25:$I$27</c15:sqref>
@@ -7021,7 +7021,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$24</c15:sqref>
@@ -7039,7 +7039,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7062,7 +7062,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$25:$J$27</c15:sqref>
@@ -7097,7 +7097,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$24</c15:sqref>
@@ -7115,7 +7115,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7138,7 +7138,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$K$25:$K$27</c15:sqref>
@@ -7173,7 +7173,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$24</c15:sqref>
@@ -7191,7 +7191,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7214,7 +7214,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$25:$L$27</c15:sqref>
@@ -7249,7 +7249,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$24</c15:sqref>
@@ -7267,7 +7267,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7290,7 +7290,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$M$25:$M$27</c15:sqref>
@@ -7325,7 +7325,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$24</c15:sqref>
@@ -7352,7 +7352,7 @@
                   <c:noEndCap val="0"/>
                   <c:plus>
                     <c:numRef>
-                      <c:extLst>
+                      <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
                             <c15:sqref>Sheet1!$AI$83:$AI$85</c15:sqref>
@@ -7376,7 +7376,7 @@
                   </c:plus>
                   <c:minus>
                     <c:numRef>
-                      <c:extLst>
+                      <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                         <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                           <c15:formulaRef>
                             <c15:sqref>Sheet1!$AI$83:$AI$85</c15:sqref>
@@ -7408,7 +7408,7 @@
                 </c:errBars>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7431,7 +7431,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$25:$N$27</c15:sqref>
@@ -7453,7 +7453,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-D9CD-480A-8488-71DA40307F42}"/>
                   </c:ext>
@@ -7466,7 +7466,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$O$24</c15:sqref>
@@ -7484,7 +7484,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7507,7 +7507,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$O$25:$O$27</c15:sqref>
@@ -7542,7 +7542,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$24</c15:sqref>
@@ -7560,7 +7560,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7583,7 +7583,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$25:$P$27</c15:sqref>
@@ -7618,7 +7618,7 @@
                 <c:order val="15"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$24</c15:sqref>
@@ -7636,7 +7636,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7659,7 +7659,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Q$25:$Q$27</c15:sqref>
@@ -7694,7 +7694,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$24</c15:sqref>
@@ -7712,7 +7712,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7735,7 +7735,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$25:$R$27</c15:sqref>
@@ -7757,7 +7757,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-C51E-48AF-889C-661A6D4CFF16}"/>
                   </c:ext>
@@ -7770,7 +7770,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$S$24</c15:sqref>
@@ -7788,7 +7788,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$25:$A$27</c15:sqref>
@@ -7811,7 +7811,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$S$25:$S$27</c15:sqref>
@@ -7833,7 +7833,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-C51E-48AF-889C-661A6D4CFF16}"/>
                   </c:ext>
@@ -10712,8 +10712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5987B9C-46B6-48DF-892A-073BDF9D62B0}">
   <dimension ref="A1:AQ187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Q57" sqref="Q57"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10751,10 +10751,10 @@
       <c r="B6" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="175" t="s">
+      <c r="D6" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="177"/>
+      <c r="E6" s="173"/>
     </row>
     <row r="7" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
@@ -10859,38 +10859,38 @@
     <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="80"/>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="172" t="s">
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="172" t="s">
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="174"/>
-      <c r="T23" s="172" t="s">
+      <c r="O23" s="166"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="173"/>
-      <c r="Y23" s="174"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="166"/>
+      <c r="X23" s="166"/>
+      <c r="Y23" s="167"/>
     </row>
     <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="46" t="s">
@@ -11260,34 +11260,34 @@
     <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="80"/>
-      <c r="B32" s="175" t="s">
+      <c r="B32" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="175" t="s">
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="172" t="s">
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="173"/>
+      <c r="L32" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="173"/>
-      <c r="N32" s="173"/>
-      <c r="O32" s="173"/>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="172" t="s">
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="R32" s="173"/>
-      <c r="S32" s="173"/>
-      <c r="T32" s="173"/>
-      <c r="U32" s="174"/>
+      <c r="R32" s="166"/>
+      <c r="S32" s="166"/>
+      <c r="T32" s="166"/>
+      <c r="U32" s="167"/>
     </row>
     <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="46" t="s">
@@ -11864,24 +11864,24 @@
     <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="79"/>
-      <c r="B45" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="179"/>
-      <c r="D45" s="179"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="178" t="s">
+      <c r="B45" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="169"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="168" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="179"/>
-      <c r="H45" s="179"/>
-      <c r="I45" s="180"/>
-      <c r="J45" s="178" t="s">
+      <c r="G45" s="169"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="K45" s="179"/>
-      <c r="L45" s="179"/>
-      <c r="M45" s="180"/>
+      <c r="K45" s="169"/>
+      <c r="L45" s="169"/>
+      <c r="M45" s="170"/>
       <c r="O45" s="80"/>
     </row>
     <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12336,22 +12336,22 @@
       </c>
     </row>
     <row r="80" spans="32:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF80" s="168" t="s">
+      <c r="AF80" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="AG80" s="168"/>
-      <c r="AH80" s="168"/>
-      <c r="AI80" s="168"/>
-      <c r="AJ80" s="168"/>
+      <c r="AG80" s="177"/>
+      <c r="AH80" s="177"/>
+      <c r="AI80" s="177"/>
+      <c r="AJ80" s="177"/>
     </row>
     <row r="81" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AF81" s="169" t="s">
+      <c r="AF81" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="AG81" s="170"/>
-      <c r="AH81" s="170"/>
-      <c r="AI81" s="170"/>
-      <c r="AJ81" s="171"/>
+      <c r="AG81" s="179"/>
+      <c r="AH81" s="179"/>
+      <c r="AI81" s="179"/>
+      <c r="AJ81" s="180"/>
     </row>
     <row r="82" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="81"/>
@@ -12451,23 +12451,23 @@
     </row>
     <row r="85" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="80"/>
-      <c r="B85" s="172" t="s">
+      <c r="B85" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C85" s="173"/>
-      <c r="D85" s="173"/>
-      <c r="E85" s="173"/>
-      <c r="F85" s="174"/>
-      <c r="G85" s="172" t="s">
+      <c r="C85" s="166"/>
+      <c r="D85" s="166"/>
+      <c r="E85" s="166"/>
+      <c r="F85" s="167"/>
+      <c r="G85" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="H85" s="173"/>
-      <c r="I85" s="173"/>
-      <c r="J85" s="173"/>
-      <c r="K85" s="173"/>
-      <c r="L85" s="173"/>
-      <c r="M85" s="173"/>
-      <c r="N85" s="174"/>
+      <c r="H85" s="166"/>
+      <c r="I85" s="166"/>
+      <c r="J85" s="166"/>
+      <c r="K85" s="166"/>
+      <c r="L85" s="166"/>
+      <c r="M85" s="166"/>
+      <c r="N85" s="167"/>
       <c r="AE85" s="159" t="s">
         <v>66</v>
       </c>
@@ -12707,21 +12707,21 @@
     <row r="91" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="92" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="80"/>
-      <c r="B92" s="165" t="s">
+      <c r="B92" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C92" s="166"/>
-      <c r="D92" s="167"/>
-      <c r="E92" s="165" t="s">
+      <c r="C92" s="175"/>
+      <c r="D92" s="176"/>
+      <c r="E92" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="F92" s="166"/>
-      <c r="G92" s="167"/>
-      <c r="J92" s="165" t="s">
+      <c r="F92" s="175"/>
+      <c r="G92" s="176"/>
+      <c r="J92" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="K92" s="166"/>
-      <c r="L92" s="167"/>
+      <c r="K92" s="175"/>
+      <c r="L92" s="176"/>
     </row>
     <row r="93" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="46" t="s">
@@ -13305,14 +13305,14 @@
     <row r="138" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="139" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A139" s="80"/>
-      <c r="B139" s="165" t="s">
+      <c r="B139" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="C139" s="166"/>
-      <c r="D139" s="166"/>
-      <c r="E139" s="166"/>
-      <c r="F139" s="166"/>
-      <c r="G139" s="167"/>
+      <c r="C139" s="175"/>
+      <c r="D139" s="175"/>
+      <c r="E139" s="175"/>
+      <c r="F139" s="175"/>
+      <c r="G139" s="176"/>
     </row>
     <row r="140" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B140" s="46">
@@ -13638,6 +13638,15 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="AF80:AJ80"/>
+    <mergeCell ref="AF81:AJ81"/>
+    <mergeCell ref="G85:N85"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="J92:L92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="B92:D92"/>
     <mergeCell ref="Q32:U32"/>
     <mergeCell ref="T23:Y23"/>
     <mergeCell ref="B45:E45"/>
@@ -13649,15 +13658,6 @@
     <mergeCell ref="H23:M23"/>
     <mergeCell ref="N23:S23"/>
     <mergeCell ref="B23:G23"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="AF80:AJ80"/>
-    <mergeCell ref="AF81:AJ81"/>
-    <mergeCell ref="G85:N85"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="J92:L92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="B92:D92"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
